--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDE44A6-426A-A74E-9C22-9C561280765A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31170E25-05ED-9547-BEF1-746C3EC27F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -507,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,8 +621,86 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -709,13 +787,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -873,6 +975,9 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -884,32 +989,170 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1049,8 +1292,88 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1067,6 +1390,22 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF00FF00"/>
           <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1169,8 +1508,32 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1187,6 +1550,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF00FF00"/>
           <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1481,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView zoomScale="116" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1558,13 +1929,13 @@
       <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="99" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1593,13 +1964,13 @@
       <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="99" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1628,13 +1999,13 @@
       <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="100" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1663,13 +2034,13 @@
       <c r="H5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="102" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1698,13 +2069,13 @@
       <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="103" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1733,13 +2104,13 @@
       <c r="H7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="81" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="104" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1768,13 +2139,13 @@
       <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="96" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1803,13 +2174,13 @@
       <c r="H9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="95" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1838,13 +2209,13 @@
       <c r="H10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="96" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1873,440 +2244,439 @@
       <c r="H11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="91" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="63" t="s">
-        <v>55</v>
+      <c r="A12" s="66" t="s">
+        <v>74</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>75</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F12" s="10">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G12" s="18">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>58</v>
+      <c r="I12" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="96" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="63" t="s">
-        <v>59</v>
+      <c r="A13" s="66" t="s">
+        <v>77</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F13" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>61</v>
+      <c r="I13" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="96" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="62" t="s">
-        <v>62</v>
+      <c r="A14" s="67" t="s">
+        <v>79</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F14" s="16">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="G14" s="8">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>64</v>
+      <c r="I14" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="97" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="63" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="10">
         <v>0.2</v>
       </c>
       <c r="G15" s="18">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="96" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>25</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="18">
+        <v>45</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I17" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J17" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="K17" s="103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F18" s="10">
         <v>0.2</v>
       </c>
-      <c r="G16" s="8">
-        <v>23</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>38</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.33</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="G18" s="8">
         <v>40</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>76</v>
+      <c r="I18" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="103" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>42</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G20" s="18">
+        <v>21</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.45</v>
-      </c>
-      <c r="G20" s="8">
-        <v>60</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>76</v>
+      <c r="I20" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="101" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="63" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F21" s="10">
         <v>0.2</v>
       </c>
-      <c r="G21" s="18">
-        <v>36</v>
+      <c r="G21" s="8">
+        <v>23</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>38</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J22" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="8">
-        <v>25</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="K22" s="91" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B22">
-    <cfRule type="endsWith" dxfId="16" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="60" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C22">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C22">
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="beginsWith" dxfId="12" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="56" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="55" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E22">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2335,26 +2705,44 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(H2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H22">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(H2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="H1:I11">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:I22 D21:F22 K21:K22 J1:J22">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="1 submission">
+  <conditionalFormatting sqref="J1:J11 D15:E16">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:I22">
+    <cfRule type="containsText" dxfId="45" priority="162" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(L12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J22">
+    <cfRule type="containsText" dxfId="44" priority="164" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:I16">
+    <cfRule type="containsText" dxfId="43" priority="166" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(L18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F16 K15:K16 J12:J16 H15:I16">
+    <cfRule type="containsText" dxfId="42" priority="167" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(L18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2363,16 +2751,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -2439,13 +2827,13 @@
       <c r="H2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="89" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2474,357 +2862,357 @@
       <c r="H3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="89" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="63" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="10">
+        <v>41</v>
+      </c>
+      <c r="F4" s="55">
         <v>0.2</v>
       </c>
       <c r="G4" s="18">
+        <v>12</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>102</v>
+      <c r="K4" s="88" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="63" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F5" s="10">
         <v>0.2</v>
       </c>
       <c r="G5" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="16">
+        <v>41</v>
+      </c>
+      <c r="F6" s="57">
         <v>0.2</v>
       </c>
-      <c r="G6" s="8">
-        <v>17</v>
+      <c r="G6" s="14">
+        <v>10</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="120" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="116">
+        <v>0.31</v>
+      </c>
+      <c r="G7" s="114">
+        <v>35</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="119"/>
+    </row>
+    <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="18">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K8" s="90" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="75" t="s">
+    <row r="9" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>9</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="122">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>17</v>
+      </c>
+      <c r="H10" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="120" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="129" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="130">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="131">
+        <v>18</v>
+      </c>
+      <c r="H11" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="135" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="18">
-        <v>63</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="8">
-        <v>13</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="49">
-        <v>18</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="55">
-        <v>0.31</v>
-      </c>
-      <c r="G10" s="18">
-        <v>35</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="54"/>
-    </row>
-    <row r="11" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="55">
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="18">
-        <v>12</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="8">
-        <v>13</v>
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="110">
+        <v>63</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="62" t="s">
-        <v>128</v>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="71" t="s">
+        <v>109</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="57">
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="14">
-        <v>10</v>
+      <c r="F13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="8">
+        <v>13</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2832,23 +3220,23 @@
     <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:11" s="74" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="1:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:11" s="69" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2858,47 +3246,50 @@
     <row r="31" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="endsWith" dxfId="31" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="41" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C13">
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="39" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="beginsWith" dxfId="27" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="37" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="36" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E13">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:E5 J1 D12:E13">
+    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
@@ -2914,30 +3305,53 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(H2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(H2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:E12 H1:I1">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="H1:I1 D5:E5">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:E12 D7:E8 J1">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
+  <conditionalFormatting sqref="H4:I7">
+    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(L31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:I4 F4 K4 J4:J7">
+    <cfRule type="containsText" dxfId="25" priority="36" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(L31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:I13">
+    <cfRule type="containsText" dxfId="24" priority="68" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(L27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J13">
+    <cfRule type="containsText" dxfId="23" priority="70" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I3">
+    <cfRule type="containsText" dxfId="22" priority="72" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(L22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2 J2:J3">
+    <cfRule type="containsText" dxfId="21" priority="73" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2948,14 +3362,34 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I13">
-    <cfRule type="containsText" dxfId="1" priority="35" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="H11:I11">
+    <cfRule type="containsText" dxfId="20" priority="124" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(L29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="19" priority="126" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I10">
+    <cfRule type="containsText" dxfId="18" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2 F11 K11 J2:J13 H11:I11">
-    <cfRule type="containsText" dxfId="0" priority="36" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(L24))))</formula>
+  <conditionalFormatting sqref="J8:J10">
+    <cfRule type="containsText" dxfId="17" priority="130" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:I7">
+    <cfRule type="containsText" dxfId="16" priority="199" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(L30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="15" priority="201" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2970,9 +3404,9 @@
   </sheetPr>
   <dimension ref="A1:AF1012"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2991,17 +3425,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -4208,15 +4642,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -4229,15 +4663,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -4283,15 +4717,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="71" t="s">
+      <c r="E38" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -4304,15 +4738,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -13166,7 +13600,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{7CE3F55A-FC7F-4646-9491-12CE14B1B5C9}">
+      <autoFilter ref="A2:K42" xr:uid="{D2778026-E447-EE4B-ABDC-E9D2F529333B}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -13183,42 +13617,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="46" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="14" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="42" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="10" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="41" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="9" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13247,25 +13681,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31170E25-05ED-9547-BEF1-746C3EC27F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980532B4-D203-9543-B5C7-59466F8D2A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10940" yWindow="500" windowWidth="22660" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="138">
   <si>
     <t>Course Code</t>
   </si>
@@ -432,12 +432,27 @@
   <si>
     <t>Basic</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Finished  Not for Credit</t>
+  </si>
+  <si>
+    <t>12 OF 21</t>
+  </si>
+  <si>
+    <t>Finished not for Credit</t>
+  </si>
+  <si>
+    <t>2 OF 9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -455,6 +470,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,46 +478,60 @@
       <sz val="10"/>
       <color rgb="FFF1C232"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFEA4335"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -811,13 +841,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -976,118 +1097,7 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="7" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1095,7 +1105,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1107,22 +1117,7 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1146,6 +1141,252 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -1284,8 +1525,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1308,8 +1565,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1324,24 +1581,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFF00FF"/>
           <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1500,6 +1741,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF00FF"/>
           <bgColor rgb="FFFF00FF"/>
         </patternFill>
@@ -1518,14 +1767,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF00FF"/>
           <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1852,835 +2093,883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="134" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="181" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="56" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="100">
         <v>0.16</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="98">
         <v>35</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="J2" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="K2" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="L2" s="137" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <v>0.17</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>34</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="J3" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="K3" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="99" t="s">
+      <c r="L3" s="141" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16">
+      <c r="G4" s="124">
         <v>0.1</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="110">
         <v>38</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="J4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="K4" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="L4" s="146" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="180" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="17">
+      <c r="G5" s="148">
         <v>0.25</v>
       </c>
-      <c r="G5" s="18">
+      <c r="H5" s="98">
         <v>48</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="J5" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="K5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="102" t="s">
+      <c r="L5" s="150" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="180" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="17">
+      <c r="G6" s="17">
         <v>0.2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <v>26</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="J6" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="106" t="s">
+      <c r="K6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="103" t="s">
+      <c r="L6" s="153" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="180" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="16">
+      <c r="G7" s="124">
         <v>0.22</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="110">
         <v>34</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="J7" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="K7" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="L7" s="157" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="100">
         <v>0.5</v>
       </c>
-      <c r="G8" s="18">
+      <c r="H8" s="98">
         <v>11</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="J8" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="92" t="s">
+      <c r="K8" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="96" t="s">
+      <c r="L8" s="158" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="63" t="s">
+    <row r="9" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>0.35</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>24</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="J9" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="92" t="s">
+      <c r="K9" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="L9" s="159" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="63" t="s">
+    <row r="10" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <v>19</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="J10" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="92" t="s">
+      <c r="K10" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="96" t="s">
+      <c r="L10" s="160" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="16">
+      <c r="G11" s="124">
         <v>0.4</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="110">
         <v>14</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="J11" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="93" t="s">
+      <c r="K11" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="91" t="s">
+      <c r="L11" s="126" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G12" s="100">
         <v>0.33</v>
       </c>
-      <c r="G12" s="18">
+      <c r="H12" s="98">
         <v>40</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="77" t="s">
+      <c r="J12" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="92" t="s">
+      <c r="K12" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="96" t="s">
+      <c r="L12" s="158" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="66" t="s">
+    <row r="13" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <v>0.3</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>38</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="77" t="s">
+      <c r="J13" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="92" t="s">
+      <c r="K13" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="96" t="s">
+      <c r="L13" s="160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="67" t="s">
+    <row r="14" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="16">
+      <c r="G14" s="124">
         <v>0.45</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="110">
         <v>60</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="J14" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="93" t="s">
+      <c r="K14" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="L14" s="165" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="63" t="s">
+    <row r="15" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="10">
+      <c r="G15" s="100">
         <v>0.2</v>
       </c>
-      <c r="G15" s="18">
+      <c r="H15" s="98">
         <v>36</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="J15" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="92" t="s">
+      <c r="K15" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="96" t="s">
+      <c r="L15" s="158" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+    <row r="16" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="E16" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="F16" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="25">
+      <c r="G16" s="124">
         <v>0.5</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="110">
         <v>25</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="I16" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="79" t="s">
+      <c r="J16" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="94" t="s">
+      <c r="K16" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="98" t="s">
+      <c r="L16" s="165" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="63" t="s">
+    <row r="17" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G17" s="100">
         <v>0.2</v>
       </c>
-      <c r="G17" s="18">
+      <c r="H17" s="98">
         <v>45</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="80" t="s">
+      <c r="J17" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="105" t="s">
+      <c r="K17" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="103" t="s">
+      <c r="L17" s="168" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="63" t="s">
+    <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="10">
+      <c r="G18" s="10">
         <v>0.2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="H18" s="8">
         <v>40</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="80" t="s">
+      <c r="J18" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="105" t="s">
+      <c r="K18" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="103" t="s">
+      <c r="L18" s="153" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="F19" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="16">
+      <c r="G19" s="124">
         <v>0.2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="110">
         <v>42</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="I19" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="81" t="s">
+      <c r="J19" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="106" t="s">
+      <c r="K19" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="104" t="s">
+      <c r="L19" s="157" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="63" t="s">
+    <row r="20" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="10">
+      <c r="G20" s="100">
         <v>0.2</v>
       </c>
-      <c r="G20" s="18">
+      <c r="H20" s="98">
         <v>21</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="80" t="s">
+      <c r="J20" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="105" t="s">
+      <c r="K20" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="101" t="s">
+      <c r="L20" s="171" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="63" t="s">
+    <row r="21" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="10">
+      <c r="G21" s="10">
         <v>0.2</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="8">
         <v>23</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="80" t="s">
+      <c r="J21" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="105" t="s">
+      <c r="K21" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="101" t="s">
+      <c r="L21" s="172" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="F22" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="16">
+      <c r="G22" s="124">
         <v>0.1</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="110">
         <v>38</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="I22" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="78" t="s">
+      <c r="J22" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="93" t="s">
+      <c r="K22" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="91" t="s">
+      <c r="L22" s="126" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="179" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="182"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B22">
+  <conditionalFormatting sqref="C2:C22">
     <cfRule type="endsWith" dxfId="60" priority="10" operator="endsWith" text="*">
-      <formula>RIGHT((B2),LEN("*"))=("*")</formula>
+      <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C22">
+  <conditionalFormatting sqref="D1:D22">
     <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="Elective">
-      <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C22">
-    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(C2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(C2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D22">
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E22">
     <cfRule type="beginsWith" dxfId="56" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((D2),LEN("R"))=("R")</formula>
+      <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="55" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((D2),LEN("Python"))=("Python")</formula>
+      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E22">
+  <conditionalFormatting sqref="E2:F22">
     <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(D2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(D2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F22">
+  <conditionalFormatting sqref="G2:G22">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2692,7 +2981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G22">
+  <conditionalFormatting sqref="H2:H22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="9"/>
@@ -2704,45 +2993,45 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H22">
+  <conditionalFormatting sqref="I2:I22">
     <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(H2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="49" priority="12" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH(("B"),(H2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(H2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I11">
+  <conditionalFormatting sqref="I1:J11">
     <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(L1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J11 D15:E16">
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
+  <conditionalFormatting sqref="I12:J16">
+    <cfRule type="containsText" dxfId="46" priority="166" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:I22">
-    <cfRule type="containsText" dxfId="45" priority="162" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(L12))))</formula>
+  <conditionalFormatting sqref="I15:J16 G15:G16 K12:K16 L15:L16">
+    <cfRule type="containsText" dxfId="45" priority="167" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(M18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J22">
-    <cfRule type="containsText" dxfId="44" priority="164" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P12))))</formula>
+  <conditionalFormatting sqref="I17:J22">
+    <cfRule type="containsText" dxfId="44" priority="162" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:I16">
-    <cfRule type="containsText" dxfId="43" priority="166" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(L18))))</formula>
+  <conditionalFormatting sqref="K1:K11 E15:F16">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16 K15:K16 J12:J16 H15:I16">
-    <cfRule type="containsText" dxfId="42" priority="167" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(L18))))</formula>
+  <conditionalFormatting sqref="K17:K22">
+    <cfRule type="containsText" dxfId="42" priority="164" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2751,548 +3040,587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:12" s="78" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="183" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="28">
+      <c r="G2" s="93">
         <v>0.3</v>
       </c>
-      <c r="G2" s="29">
+      <c r="H2" s="73">
         <v>17</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="J2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="K2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="L2" s="95" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:12" s="78" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="183" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="16">
+      <c r="G3" s="75">
         <v>0.3</v>
       </c>
-      <c r="G3" s="18">
+      <c r="H3" s="73">
         <v>23</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="J3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="K3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="89" t="s">
+      <c r="L3" s="95" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="184"/>
+      <c r="B4" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="55">
+      <c r="G4" s="100">
         <v>0.2</v>
       </c>
-      <c r="G4" s="18">
+      <c r="H4" s="98">
         <v>12</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="J4" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="K4" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="L4" s="103" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="184"/>
+      <c r="B5" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="10">
+      <c r="G5" s="10">
         <v>0.2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>13</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="J5" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="K5" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="88" t="s">
+      <c r="L5" s="107" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="184"/>
+      <c r="B6" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="57">
+      <c r="G6" s="112">
         <v>0.2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="H6" s="110">
         <v>10</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="J6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="K6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="89" t="s">
+      <c r="L6" s="115" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="120" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+    <row r="7" spans="1:12" s="78" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="185"/>
+      <c r="B7" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="C7" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="D7" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="E7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="F7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="116">
+      <c r="G7" s="75">
         <v>0.31</v>
       </c>
-      <c r="G7" s="114">
+      <c r="H7" s="73">
         <v>35</v>
       </c>
-      <c r="H7" s="114" t="s">
+      <c r="I7" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="117" t="s">
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="118" t="s">
+      <c r="K7" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="119"/>
-    </row>
-    <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="63" t="s">
+      <c r="L7" s="74"/>
+    </row>
+    <row r="8" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="184"/>
+      <c r="B8" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="F8" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="100">
         <v>0.2</v>
       </c>
-      <c r="G8" s="18">
+      <c r="H8" s="98">
         <v>18</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="117"/>
+      <c r="K8" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="90" t="s">
+      <c r="L8" s="119" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="63" t="s">
+    <row r="9" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="184"/>
+      <c r="B9" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="F9" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>0.2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>9</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="J9" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="87" t="s">
+      <c r="K9" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="90" t="s">
+      <c r="L9" s="122" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="108" t="s">
+    <row r="10" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="184"/>
+      <c r="B10" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="C10" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="D10" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="E10" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="F10" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="122">
+      <c r="G10" s="124">
         <v>0.2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="110">
         <v>17</v>
       </c>
-      <c r="H10" s="110" t="s">
+      <c r="I10" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="111" t="s">
+      <c r="J10" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="123" t="s">
+      <c r="K10" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="124" t="s">
+      <c r="L10" s="126" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="120" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="125" t="s">
+    <row r="11" spans="1:12" s="78" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="185"/>
+      <c r="B11" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="126" t="s">
+      <c r="C11" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="D11" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="E11" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="F11" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="130">
+      <c r="G11" s="84">
         <v>0.1</v>
       </c>
-      <c r="G11" s="131">
+      <c r="H11" s="85">
         <v>18</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="I11" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="133" t="s">
+      <c r="J11" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="134" t="s">
+      <c r="K11" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="135" t="s">
+      <c r="L11" s="89" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="184"/>
+    </row>
+    <row r="13" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="184"/>
+      <c r="B13" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C13" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D13" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E13" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F13" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G13" s="100">
         <v>0.1</v>
       </c>
-      <c r="G12" s="110">
+      <c r="H13" s="98">
         <v>63</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I13" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="J13" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="K13" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
+      <c r="L13" s="129"/>
+    </row>
+    <row r="14" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="184"/>
+      <c r="B14" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C14" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D14" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E14" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F14" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G14" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H14" s="110">
         <v>13</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I14" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="J14" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="85" t="s">
+      <c r="K14" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:11" s="69" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="1:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="L14" s="132"/>
+    </row>
+    <row r="15" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="178" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:12" s="69" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:B13">
+  <conditionalFormatting sqref="C2:C14">
     <cfRule type="endsWith" dxfId="41" priority="10" operator="endsWith" text="*">
-      <formula>RIGHT((B2),LEN("*"))=("*")</formula>
+      <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C13">
+  <conditionalFormatting sqref="D1:D14">
     <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="Elective">
-      <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C13">
+  <conditionalFormatting sqref="D2:D14">
     <cfRule type="containsText" dxfId="39" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(C2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(C2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="E2:E14">
     <cfRule type="beginsWith" dxfId="37" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((D2),LEN("R"))=("R")</formula>
+      <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="36" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((D2),LEN("Python"))=("Python")</formula>
+      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E13">
+  <conditionalFormatting sqref="E2:F14">
     <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(D2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(D2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:E5 J1 D12:E13">
+  <conditionalFormatting sqref="E4:F5 K1 E13:F14">
     <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
+  <conditionalFormatting sqref="G2:G14">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD966"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H14">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="9"/>
@@ -3304,92 +3632,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
+  <conditionalFormatting sqref="I2:I14">
     <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(H2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH(("B"),(H2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(H2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1 D5:E5">
+  <conditionalFormatting sqref="I1:J1 E5:F5">
     <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I7">
-    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(L31))))</formula>
+  <conditionalFormatting sqref="I2:J3">
+    <cfRule type="containsText" dxfId="26" priority="72" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I4 F4 K4 J4:J7">
+  <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
     <cfRule type="containsText" dxfId="25" priority="36" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(L31))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(M32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:I13">
-    <cfRule type="containsText" dxfId="24" priority="68" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(L27))))</formula>
+  <conditionalFormatting sqref="I4:J7">
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J13">
-    <cfRule type="containsText" dxfId="23" priority="70" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P27))))</formula>
+  <conditionalFormatting sqref="I7:J7">
+    <cfRule type="containsText" dxfId="23" priority="199" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I3">
-    <cfRule type="containsText" dxfId="22" priority="72" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(L22))))</formula>
+  <conditionalFormatting sqref="I8:J10">
+    <cfRule type="containsText" dxfId="22" priority="128" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2 J2:J3">
-    <cfRule type="containsText" dxfId="21" priority="73" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P22))))</formula>
+  <conditionalFormatting sqref="I11:J12">
+    <cfRule type="containsText" dxfId="21" priority="124" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F13">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFD966"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
+  <conditionalFormatting sqref="I13:J14">
+    <cfRule type="containsText" dxfId="20" priority="68" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:I11">
-    <cfRule type="containsText" dxfId="20" priority="124" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(L29))))</formula>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="containsText" dxfId="19" priority="201" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="19" priority="126" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P29))))</formula>
+  <conditionalFormatting sqref="K8:K10">
+    <cfRule type="containsText" dxfId="18" priority="130" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I10">
-    <cfRule type="containsText" dxfId="18" priority="128" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(L24))))</formula>
+  <conditionalFormatting sqref="K11:K12">
+    <cfRule type="containsText" dxfId="17" priority="126" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J10">
-    <cfRule type="containsText" dxfId="17" priority="130" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P24))))</formula>
+  <conditionalFormatting sqref="K13:K14">
+    <cfRule type="containsText" dxfId="16" priority="70" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I7">
-    <cfRule type="containsText" dxfId="16" priority="199" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(L30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="15" priority="201" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(P30))))</formula>
+  <conditionalFormatting sqref="L2 K2:K3">
+    <cfRule type="containsText" dxfId="15" priority="73" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3404,9 +3720,9 @@
   </sheetPr>
   <dimension ref="A1:AF1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3425,17 +3741,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="A1" s="173"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -4642,15 +4958,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="174"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -4663,15 +4979,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="74" t="s">
+      <c r="E36" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="174"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -4717,15 +5033,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="174"/>
+      <c r="K38" s="174"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -4738,15 +5054,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="75" t="s">
+      <c r="E39" s="176" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -13600,7 +13916,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{D2778026-E447-EE4B-ABDC-E9D2F529333B}">
+      <autoFilter ref="A2:K42" xr:uid="{A97A09EC-4CF1-2F48-82D1-B0803D219B43}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980532B4-D203-9543-B5C7-59466F8D2A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE0F4EC-E3E0-6F4A-B500-19BB7884AF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10940" yWindow="500" windowWidth="22660" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6260" yWindow="500" windowWidth="14080" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -21,15 +21,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$2:$K$42</definedName>
     <definedName name="Z_41F2DEF0_0911_45DF_AB18_151E8967207B_.wvu.FilterData" localSheetId="2" hidden="1">Sheet1!$A$2:$K$42</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Filter 1" guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="138">
   <si>
     <t>Course Code</t>
   </si>
@@ -439,20 +452,20 @@
     <t>Finished  Not for Credit</t>
   </si>
   <si>
-    <t>12 OF 21</t>
-  </si>
-  <si>
     <t>Finished not for Credit</t>
   </si>
   <si>
     <t>2 OF 9</t>
+  </si>
+  <si>
+    <t>13 OF 21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -522,14 +535,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -537,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,11 +647,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -730,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -800,21 +800,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -933,12 +918,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1096,263 +1080,281 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1365,32 +1367,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="61">
@@ -2093,15 +2077,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="181" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="174" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="54.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -2150,48 +2134,48 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="100">
+      <c r="G2" s="99">
         <v>0.16</v>
       </c>
-      <c r="H2" s="98">
+      <c r="H2" s="97">
         <v>35</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="135" t="s">
+      <c r="J2" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="136" t="s">
+      <c r="K2" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="137" t="s">
+      <c r="L2" s="136" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="137" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2215,97 +2199,97 @@
       <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="139" t="s">
+      <c r="J3" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="140" t="s">
+      <c r="K3" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="141" t="s">
+      <c r="L3" s="140" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="124">
+      <c r="G4" s="123">
         <v>0.1</v>
       </c>
-      <c r="H4" s="110">
+      <c r="H4" s="109">
         <v>38</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="144" t="s">
+      <c r="J4" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="145" t="s">
+      <c r="K4" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="146" t="s">
+      <c r="L4" s="145" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="148">
+      <c r="G5" s="147">
         <v>0.25</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="97">
         <v>48</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="149" t="s">
+      <c r="J5" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="136" t="s">
+      <c r="K5" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="150" t="s">
+      <c r="L5" s="149" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="150" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2329,91 +2313,91 @@
       <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="152" t="s">
+      <c r="J6" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="153" t="s">
+      <c r="L6" s="171" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="124">
+      <c r="G7" s="123">
         <v>0.22</v>
       </c>
-      <c r="H7" s="110">
+      <c r="H7" s="109">
         <v>34</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="155" t="s">
+      <c r="J7" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="156" t="s">
+      <c r="K7" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="157" t="s">
+      <c r="L7" s="184" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="99">
         <v>0.5</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="97">
         <v>11</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="136" t="s">
+      <c r="K8" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="158" t="s">
+      <c r="L8" s="157" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="103" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2437,18 +2421,18 @@
       <c r="I9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="139" t="s">
+      <c r="J9" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="140" t="s">
+      <c r="K9" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="159" t="s">
+      <c r="L9" s="158" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2472,94 +2456,94 @@
       <c r="I10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="139" t="s">
+      <c r="J10" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="140" t="s">
+      <c r="K10" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="160" t="s">
+      <c r="L10" s="159" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="124">
+      <c r="G11" s="123">
         <v>0.4</v>
       </c>
-      <c r="H11" s="110">
+      <c r="H11" s="109">
         <v>14</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="144" t="s">
+      <c r="J11" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="145" t="s">
+      <c r="K11" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="126" t="s">
+      <c r="L11" s="125" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="179" t="s">
+      <c r="A12" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="162" t="s">
+      <c r="D12" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="99" t="s">
+      <c r="F12" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="100">
+      <c r="G12" s="99">
         <v>0.33</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="97">
         <v>40</v>
       </c>
-      <c r="I12" s="98" t="s">
+      <c r="I12" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="135" t="s">
+      <c r="J12" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="136" t="s">
+      <c r="K12" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="158" t="s">
+      <c r="L12" s="157" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="162" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2583,164 +2567,167 @@
       <c r="I13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="139" t="s">
+      <c r="J13" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="140" t="s">
+      <c r="K13" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="160" t="s">
+      <c r="L13" s="159" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="124">
+      <c r="G14" s="123">
         <v>0.45</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="109">
         <v>60</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="144" t="s">
+      <c r="J14" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="145" t="s">
+      <c r="K14" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="165" t="s">
+      <c r="L14" s="164" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="179" t="s">
+      <c r="A15" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="128" t="s">
+      <c r="F15" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="100">
+      <c r="G15" s="99">
         <v>0.2</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="97">
         <v>36</v>
       </c>
-      <c r="I15" s="98" t="s">
+      <c r="I15" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="135" t="s">
+      <c r="J15" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="136" t="s">
+      <c r="K15" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="158" t="s">
+      <c r="L15" s="157" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="179" t="s">
+      <c r="A16" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="166" t="s">
+      <c r="E16" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="124">
+      <c r="G16" s="123">
         <v>0.5</v>
       </c>
-      <c r="H16" s="110">
+      <c r="H16" s="109">
         <v>25</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="144" t="s">
+      <c r="J16" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="145" t="s">
+      <c r="K16" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="165" t="s">
+      <c r="L16" s="164" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="96" t="s">
+      <c r="A17" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="99" t="s">
+      <c r="F17" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="100">
+      <c r="G17" s="99">
         <v>0.2</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="97">
         <v>45</v>
       </c>
-      <c r="I17" s="98" t="s">
+      <c r="I17" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="149" t="s">
+      <c r="J17" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="167" t="s">
+      <c r="K17" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="168" t="s">
+      <c r="L17" s="167" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="103" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -2764,94 +2751,94 @@
       <c r="I18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="152" t="s">
+      <c r="J18" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="169" t="s">
+      <c r="K18" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="153" t="s">
+      <c r="L18" s="152" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="143" t="s">
+      <c r="C19" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="110" t="s">
+      <c r="E19" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="111" t="s">
+      <c r="F19" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="124">
+      <c r="G19" s="123">
         <v>0.2</v>
       </c>
-      <c r="H19" s="110">
+      <c r="H19" s="109">
         <v>42</v>
       </c>
-      <c r="I19" s="110" t="s">
+      <c r="I19" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="155" t="s">
+      <c r="J19" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="170" t="s">
+      <c r="K19" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="157" t="s">
+      <c r="L19" s="156" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="99" t="s">
+      <c r="F20" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="100">
+      <c r="G20" s="99">
         <v>0.2</v>
       </c>
-      <c r="H20" s="98">
+      <c r="H20" s="97">
         <v>21</v>
       </c>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="149" t="s">
+      <c r="J20" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="167" t="s">
+      <c r="K20" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="171" t="s">
+      <c r="L20" s="170" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="103" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -2875,58 +2862,66 @@
       <c r="I21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="152" t="s">
+      <c r="J21" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="169" t="s">
+      <c r="K21" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="172" t="s">
+      <c r="L21" s="171" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="109" t="s">
+      <c r="D22" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="110" t="s">
+      <c r="E22" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="111" t="s">
+      <c r="F22" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="124">
+      <c r="G22" s="123">
         <v>0.1</v>
       </c>
-      <c r="H22" s="110">
+      <c r="H22" s="109">
         <v>38</v>
       </c>
-      <c r="I22" s="110" t="s">
+      <c r="I22" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="144" t="s">
+      <c r="J22" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="145" t="s">
+      <c r="K22" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="126" t="s">
+      <c r="L22" s="125" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="179" t="s">
-        <v>135</v>
+      <c r="A23" s="173" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="182"/>
+      <c r="A24" s="175"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B27" s="185"/>
+      <c r="C27" s="185"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="172"/>
+      <c r="C28" s="186"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C22">
@@ -3040,10 +3035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3059,7 +3054,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3095,121 +3090,121 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="78" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="183" t="s">
+    <row r="2" spans="1:12" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="93">
+      <c r="G2" s="92">
         <v>0.3</v>
       </c>
-      <c r="H2" s="73">
+      <c r="H2" s="72">
         <v>17</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="94" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="78" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="183" t="s">
+    <row r="3" spans="1:12" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G3" s="74">
         <v>0.3</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="72">
         <v>23</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="95" t="s">
+      <c r="L3" s="94" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="184"/>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="177"/>
+      <c r="B4" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="100">
+      <c r="G4" s="99">
         <v>0.2</v>
       </c>
-      <c r="H4" s="98">
+      <c r="H4" s="97">
         <v>12</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="101" t="s">
+      <c r="J4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="103" t="s">
+      <c r="L4" s="102" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="184"/>
-      <c r="B5" s="104" t="s">
+      <c r="A5" s="177"/>
+      <c r="B5" s="103" t="s">
         <v>126</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -3233,123 +3228,123 @@
       <c r="I5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="106" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
-      <c r="B6" s="108" t="s">
+      <c r="A6" s="177"/>
+      <c r="B6" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="111" t="s">
+      <c r="F6" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="112">
+      <c r="G6" s="111">
         <v>0.2</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="109">
         <v>10</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="114" t="s">
+      <c r="K6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="115" t="s">
+      <c r="L6" s="114" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="78" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="185"/>
-      <c r="B7" s="71" t="s">
+    <row r="7" spans="1:12" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="178"/>
+      <c r="B7" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="74">
         <v>0.31</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="72">
         <v>35</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="74"/>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="184"/>
-      <c r="B8" s="96" t="s">
+      <c r="A8" s="177"/>
+      <c r="B8" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="116" t="s">
+      <c r="F8" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="99">
         <v>0.2</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="97">
         <v>18</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118" t="s">
+      <c r="J8" s="116"/>
+      <c r="K8" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="119" t="s">
+      <c r="L8" s="118" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="184"/>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="177"/>
+      <c r="B9" s="103" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3361,7 +3356,7 @@
       <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="119" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="10">
@@ -3373,195 +3368,182 @@
       <c r="I9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="122" t="s">
+      <c r="L9" s="121" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="177"/>
+      <c r="B10" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="123" t="s">
+      <c r="F10" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="124">
+      <c r="G10" s="123">
         <v>0.2</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="109">
         <v>17</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="113" t="s">
+      <c r="J10" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="125" t="s">
+      <c r="K10" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="126" t="s">
+      <c r="L10" s="125" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="78" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="185"/>
-      <c r="B11" s="79" t="s">
+    <row r="11" spans="1:12" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="178"/>
+      <c r="B11" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="83">
         <v>0.1</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="84">
         <v>18</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="87" t="s">
+      <c r="J11" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="88" t="s">
+      <c r="K11" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="89" t="s">
+      <c r="L11" s="88" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="184"/>
+      <c r="A12" s="177"/>
     </row>
     <row r="13" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
-      <c r="B13" s="127" t="s">
+      <c r="A13" s="177"/>
+      <c r="B13" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="128" t="s">
+      <c r="F13" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="100">
+      <c r="G13" s="99">
         <v>0.1</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="97">
         <v>63</v>
       </c>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="101" t="s">
+      <c r="J13" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="102" t="s">
+      <c r="K13" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="129"/>
+      <c r="L13" s="128"/>
     </row>
     <row r="14" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="184"/>
-      <c r="B14" s="130" t="s">
+      <c r="A14" s="177"/>
+      <c r="B14" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="109">
         <v>13</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="113" t="s">
+      <c r="J14" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="114" t="s">
+      <c r="K14" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="132"/>
+      <c r="L14" s="131"/>
     </row>
     <row r="15" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="178" t="s">
-        <v>137</v>
+      <c r="A15" s="172" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:12" s="69" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="2:12" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C14">
     <cfRule type="endsWith" dxfId="41" priority="10" operator="endsWith" text="*">
@@ -3650,62 +3632,62 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J3">
     <cfRule type="containsText" dxfId="26" priority="72" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M23))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
     <cfRule type="containsText" dxfId="25" priority="36" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(M32))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(M31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J7">
     <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7">
     <cfRule type="containsText" dxfId="23" priority="199" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M31))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J10">
     <cfRule type="containsText" dxfId="22" priority="128" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J12">
     <cfRule type="containsText" dxfId="21" priority="124" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:J14">
     <cfRule type="containsText" dxfId="20" priority="68" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M28))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
     <cfRule type="containsText" dxfId="19" priority="201" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q31))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K10">
     <cfRule type="containsText" dxfId="18" priority="130" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K12">
     <cfRule type="containsText" dxfId="17" priority="126" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K14">
     <cfRule type="containsText" dxfId="16" priority="70" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q28))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 K2:K3">
     <cfRule type="containsText" dxfId="15" priority="73" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q23))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3741,17 +3723,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="173"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
+      <c r="A1" s="179"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -4958,15 +4940,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="175" t="s">
+      <c r="E35" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="180"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -4979,15 +4961,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="175" t="s">
+      <c r="E36" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="174"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="180"/>
+      <c r="K36" s="180"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5033,15 +5015,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="175" t="s">
+      <c r="E38" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="174"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="180"/>
+      <c r="H38" s="180"/>
+      <c r="I38" s="180"/>
+      <c r="J38" s="180"/>
+      <c r="K38" s="180"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5054,15 +5036,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="176" t="s">
+      <c r="E39" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="177"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="177"/>
-      <c r="I39" s="177"/>
-      <c r="J39" s="177"/>
-      <c r="K39" s="177"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -13916,7 +13898,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{A97A09EC-4CF1-2F48-82D1-B0803D219B43}">
+      <autoFilter ref="A2:K42" xr:uid="{7A84D793-EE89-1140-86F9-2FC4A6230973}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE0F4EC-E3E0-6F4A-B500-19BB7884AF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002BAE7F-CD31-8943-9597-02CC1BD06B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="500" windowWidth="14080" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="500" windowWidth="21420" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="140">
   <si>
     <t>Course Code</t>
   </si>
@@ -460,12 +460,18 @@
   <si>
     <t>13 OF 21</t>
   </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -539,6 +545,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -918,11 +930,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1356,6 +1369,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1367,17 +1385,44 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1495,6 +1540,22 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF00FFFF"/>
           <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2079,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2357,7 +2418,7 @@
       <c r="K7" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="184" t="s">
+      <c r="L7" s="179" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2914,53 +2975,73 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="175"/>
+      <c r="G24" s="172" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24">
+        <f>SUM(H2:H22)</f>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G25" s="172" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25">
+        <f>SUM(H24/24)</f>
+        <v>28.791666666666668</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="185"/>
-      <c r="C27" s="185"/>
+      <c r="A27" s="192">
+        <f>SUM(13 / 21)</f>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B28" s="172"/>
-      <c r="C28" s="186"/>
+      <c r="C28" s="181"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C22">
-    <cfRule type="endsWith" dxfId="60" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="64" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D22">
-    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="beginsWith" dxfId="56" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="60" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="55" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="59" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F22">
-    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="57" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2989,43 +3070,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I22">
-    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J11">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J16">
-    <cfRule type="containsText" dxfId="46" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="50" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J16 G15:G16 K12:K16 L15:L16">
-    <cfRule type="containsText" dxfId="45" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="49" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(M18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:J22">
-    <cfRule type="containsText" dxfId="44" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="48" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K11 E15:F16">
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K22">
-    <cfRule type="containsText" dxfId="42" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="46" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3035,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3450,147 +3531,200 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="177"/>
-    </row>
-    <row r="13" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="177"/>
-      <c r="B13" s="126" t="s">
+    <row r="12" spans="1:12" s="191" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="187"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="188"/>
+    </row>
+    <row r="13" spans="1:12" s="191" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="187"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="189">
+        <f>SUM(H2:H11)</f>
+        <v>172</v>
+      </c>
+      <c r="I13" s="189">
+        <f>SUM(H13/24)</f>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="188"/>
+    </row>
+    <row r="14" spans="1:12" s="191" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="187"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="188"/>
+    </row>
+    <row r="15" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="177"/>
+    </row>
+    <row r="16" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="177"/>
+      <c r="B16" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C16" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D16" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E16" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="127" t="s">
+      <c r="F16" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="99">
+      <c r="G16" s="99">
         <v>0.1</v>
       </c>
-      <c r="H13" s="97">
+      <c r="H16" s="97">
         <v>63</v>
       </c>
-      <c r="I13" s="97" t="s">
+      <c r="I16" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="100" t="s">
+      <c r="J16" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="101" t="s">
+      <c r="K16" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="128"/>
-    </row>
-    <row r="14" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="177"/>
-      <c r="B14" s="129" t="s">
+      <c r="L16" s="128"/>
+    </row>
+    <row r="17" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="177"/>
+      <c r="B17" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C17" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D17" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="109" t="s">
+      <c r="E17" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="130" t="s">
+      <c r="F17" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G17" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H17" s="109">
         <v>13</v>
       </c>
-      <c r="I14" s="109" t="s">
+      <c r="I17" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="112" t="s">
+      <c r="J17" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="113" t="s">
+      <c r="K17" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="131"/>
-    </row>
-    <row r="15" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="172" t="s">
+      <c r="L17" s="131"/>
+    </row>
+    <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="172" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="193">
+        <f>SUM(2 / 9)</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="endsWith" dxfId="41" priority="10" operator="endsWith" text="*">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="endsWith" dxfId="45" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D14">
-    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="Elective">
+  <conditionalFormatting sqref="D1:D17">
+    <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D14">
-    <cfRule type="containsText" dxfId="39" priority="8" operator="containsText" text="pathway">
+  <conditionalFormatting sqref="D2:D17">
+    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E14">
-    <cfRule type="beginsWith" dxfId="37" priority="16" operator="beginsWith" text="R">
+  <conditionalFormatting sqref="E2:E17">
+    <cfRule type="beginsWith" dxfId="41" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="40" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F14">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="Essay">
+  <conditionalFormatting sqref="E2:F17">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F5 K1 E13:F14">
-    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="1 submission">
+  <conditionalFormatting sqref="E4:F5 K1 E16:F17">
+    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G14">
+  <conditionalFormatting sqref="G2:G17">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -3602,7 +3736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H14">
+  <conditionalFormatting sqref="H2:H17">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="9"/>
@@ -3614,80 +3748,100 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I14">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="A">
+  <conditionalFormatting sqref="I2:I17">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J3">
-    <cfRule type="containsText" dxfId="26" priority="72" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M22))))</formula>
+    <cfRule type="containsText" dxfId="30" priority="72" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
-    <cfRule type="containsText" dxfId="25" priority="36" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(M31))))</formula>
+    <cfRule type="containsText" dxfId="29" priority="36" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J7">
-    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M31))))</formula>
+    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7">
-    <cfRule type="containsText" dxfId="23" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="27" priority="199" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:J10">
+    <cfRule type="containsText" dxfId="26" priority="128" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:J15">
+    <cfRule type="containsText" dxfId="25" priority="124" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:J17">
+    <cfRule type="containsText" dxfId="24" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:J10">
-    <cfRule type="containsText" dxfId="22" priority="128" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M24))))</formula>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="containsText" dxfId="23" priority="201" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:J12">
-    <cfRule type="containsText" dxfId="21" priority="124" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M29))))</formula>
+  <conditionalFormatting sqref="K8:K10">
+    <cfRule type="containsText" dxfId="22" priority="130" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:J14">
-    <cfRule type="containsText" dxfId="20" priority="68" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="21" priority="126" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="19" priority="201" operator="containsText" text="1 submission">
+  <conditionalFormatting sqref="K16:K17">
+    <cfRule type="containsText" dxfId="20" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K10">
-    <cfRule type="containsText" dxfId="18" priority="130" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q24))))</formula>
+  <conditionalFormatting sqref="L2 K2:K3">
+    <cfRule type="containsText" dxfId="19" priority="73" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12">
-    <cfRule type="containsText" dxfId="17" priority="126" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q29))))</formula>
+  <conditionalFormatting sqref="I14:J14">
+    <cfRule type="containsText" dxfId="18" priority="205" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K14">
-    <cfRule type="containsText" dxfId="16" priority="70" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="containsText" dxfId="17" priority="207" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2 K2:K3">
-    <cfRule type="containsText" dxfId="15" priority="73" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q22))))</formula>
+  <conditionalFormatting sqref="I11:J13">
+    <cfRule type="containsText" dxfId="1" priority="212" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K13">
+    <cfRule type="containsText" dxfId="0" priority="214" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3723,17 +3877,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="179"/>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
+      <c r="A1" s="182"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -4940,15 +5094,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="181" t="s">
+      <c r="E35" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="183"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -4961,15 +5115,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="181" t="s">
+      <c r="E36" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="180"/>
-      <c r="K36" s="180"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="183"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5015,15 +5169,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="181" t="s">
+      <c r="E38" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="180"/>
-      <c r="K38" s="180"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="183"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5036,15 +5190,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="182" t="s">
+      <c r="E39" s="185" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="183"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="186"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -13898,7 +14052,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{7A84D793-EE89-1140-86F9-2FC4A6230973}">
+      <autoFilter ref="A2:K42" xr:uid="{A5D84C3A-31D1-5942-85BD-3D0C27AC719C}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -13915,42 +14069,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="14" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="16" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="10" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="12" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="11" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13979,25 +14133,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002BAE7F-CD31-8943-9597-02CC1BD06B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1D2211-98D7-7F4B-A74C-C892FD7BFDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="500" windowWidth="21420" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5800" yWindow="500" windowWidth="14920" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
     <sheet name="Electives" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Schedule" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$2:$K$42</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="155">
   <si>
     <t>Course Code</t>
   </si>
@@ -465,13 +466,58 @@
   </si>
   <si>
     <t>days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTSA 5501 </t>
+  </si>
+  <si>
+    <t>Fall 1 - 2023</t>
+  </si>
+  <si>
+    <t>Summer  2 -2023</t>
+  </si>
+  <si>
+    <t>SEMESTER</t>
+  </si>
+  <si>
+    <t>Fall 2 - 2023</t>
+  </si>
+  <si>
+    <t>Spring 1 - 2023</t>
+  </si>
+  <si>
+    <t>Spring 2 - 2024</t>
+  </si>
+  <si>
+    <t>Summer 1 - 2024</t>
+  </si>
+  <si>
+    <t>Summer 2 - 2024</t>
+  </si>
+  <si>
+    <t>ONE YEAR</t>
+  </si>
+  <si>
+    <t>Fall 1 - 2024</t>
+  </si>
+  <si>
+    <t>Fall2 - 2024</t>
+  </si>
+  <si>
+    <t>Spring 1 - 2025</t>
+  </si>
+  <si>
+    <t>Spring 2 - 2025</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -551,6 +597,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -935,7 +994,7 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1374,6 +1433,13 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1385,21 +1451,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1407,22 +1459,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="65">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1554,8 +1590,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1596,6 +1632,22 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFD966"/>
           <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2993,7 +3045,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="192">
+      <c r="A27" s="183">
         <f>SUM(13 / 21)</f>
         <v>0.61904761904761907</v>
       </c>
@@ -3118,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="108" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3531,53 +3583,53 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="191" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="187"/>
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="188"/>
-    </row>
-    <row r="13" spans="1:12" s="191" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="187"/>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="189">
+    <row r="12" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="177"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="177"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="35">
         <f>SUM(H2:H11)</f>
         <v>172</v>
       </c>
-      <c r="I13" s="189">
+      <c r="I13" s="35">
         <f>SUM(H13/24)</f>
         <v>7.166666666666667</v>
       </c>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="188"/>
-    </row>
-    <row r="14" spans="1:12" s="191" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="187"/>
-      <c r="B14" s="188"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="188"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="177"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="177"/>
@@ -3657,7 +3709,7 @@
     </row>
     <row r="19" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="193">
+      <c r="A20" s="184">
         <f>SUM(2 / 9)</f>
         <v>0.22222222222222221</v>
       </c>
@@ -3789,59 +3841,59 @@
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I11:J13">
+    <cfRule type="containsText" dxfId="25" priority="212" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:J14">
+    <cfRule type="containsText" dxfId="24" priority="205" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I15:J15">
-    <cfRule type="containsText" dxfId="25" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="23" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:J17">
-    <cfRule type="containsText" dxfId="24" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="23" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="21" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K10">
-    <cfRule type="containsText" dxfId="22" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="20" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K13">
+    <cfRule type="containsText" dxfId="19" priority="214" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="containsText" dxfId="18" priority="207" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="21" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="17" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K17">
-    <cfRule type="containsText" dxfId="20" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="16" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 K2:K3">
-    <cfRule type="containsText" dxfId="19" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="15" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="18" priority="205" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="17" priority="207" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:J13">
-    <cfRule type="containsText" dxfId="1" priority="212" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K13">
-    <cfRule type="containsText" dxfId="0" priority="214" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3877,17 +3929,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="182"/>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
+      <c r="A1" s="185"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5094,15 +5146,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="184" t="s">
+      <c r="E35" s="187" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="183"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="186"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -5115,15 +5167,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="184" t="s">
+      <c r="E36" s="187" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="183"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="186"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5169,15 +5221,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="184" t="s">
+      <c r="E38" s="187" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="183"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="186"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5190,15 +5242,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="185" t="s">
+      <c r="E39" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="186"/>
-      <c r="K39" s="186"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="189"/>
+      <c r="H39" s="189"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="189"/>
+      <c r="K39" s="189"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -14052,7 +14104,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{A5D84C3A-31D1-5942-85BD-3D0C27AC719C}">
+      <autoFilter ref="A2:K42" xr:uid="{908B0055-1F6D-5F48-BC1F-CB182EBD614B}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14069,42 +14121,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="16" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="14" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="12" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="10" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="9" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14133,25 +14185,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14159,4 +14211,219 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9180E-E31E-2D47-9384-8D5049DEA67E}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="161" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="190" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="190" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="190" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="190"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="190" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="190" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="190" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="190" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="190" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="190" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="190" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="190" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="190" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="190" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="190" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="190" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="190" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="190" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="190" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="190" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="190" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="190" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="190" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="190" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="190" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="190" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="190" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="190" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="190" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="190" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="190" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="190" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="190" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="190" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="190" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="190" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="190" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="190" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="190" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="190" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="190" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="190" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="190" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="190" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="190" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1D2211-98D7-7F4B-A74C-C892FD7BFDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187F1E3-EA51-014B-A436-F5ABAA7C20AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="500" windowWidth="14920" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="160">
   <si>
     <t>Course Code</t>
   </si>
@@ -511,6 +511,21 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>start study for 5001 - 5003</t>
+  </si>
+  <si>
+    <t>take 5001 - if ready</t>
+  </si>
+  <si>
+    <t>take 5001 or 5002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop  5735  </t>
+  </si>
+  <si>
+    <t>take 5735</t>
   </si>
 </sst>
 </file>
@@ -1440,6 +1455,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1451,7 +1467,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1486,16 +1501,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1510,8 +1525,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1526,8 +1541,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1542,8 +1565,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1552,14 +1575,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1718,8 +1733,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1734,8 +1749,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1750,16 +1765,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1774,8 +1789,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1790,8 +1813,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1800,14 +1823,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1878,8 +1893,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1894,8 +1909,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1910,8 +1933,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1926,8 +1949,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1936,14 +1959,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2193,7 +2208,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3076,25 +3091,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="beginsWith" dxfId="60" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="60" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="59" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F22">
-    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G22">
@@ -3122,14 +3137,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I22">
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J11">
@@ -3742,33 +3757,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="41" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="41" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="40" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
@@ -3801,14 +3816,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
@@ -3929,17 +3944,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="185"/>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
+      <c r="A1" s="186"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5146,15 +5161,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="187" t="s">
+      <c r="E35" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="186"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -5167,15 +5182,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="187" t="s">
+      <c r="E36" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="186"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5221,15 +5236,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="187" t="s">
+      <c r="E38" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="186"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="187"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="187"/>
+      <c r="K38" s="187"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5242,15 +5257,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="188" t="s">
+      <c r="E39" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="189"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="189"/>
-      <c r="J39" s="189"/>
-      <c r="K39" s="189"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="190"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="190"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -14104,7 +14119,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{908B0055-1F6D-5F48-BC1F-CB182EBD614B}">
+      <autoFilter ref="A2:K42" xr:uid="{BD21AD5E-74F2-8B49-AF13-F54496F86A79}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14131,30 +14146,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="10" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="10" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="9" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
@@ -14185,11 +14200,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
@@ -14215,210 +14230,225 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9180E-E31E-2D47-9384-8D5049DEA67E}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="190" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="190" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="190" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="190"/>
+    <col min="1" max="1" width="20.33203125" style="185" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="185" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="185" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="185"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="190" t="s">
+    <row r="1" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="185" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="190" t="s">
+    <row r="3" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="185" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="185" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="190" t="s">
+    <row r="5" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="185" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="185" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="190" t="s">
+    <row r="6" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="185" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="190" t="s">
+    <row r="8" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="190" t="s">
+      <c r="B8" s="185" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="190" t="s">
+      <c r="D8" s="185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="185" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="190" t="s">
+    <row r="11" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="185" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="190" t="s">
+      <c r="B11" s="185" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="190" t="s">
+      <c r="D11" s="185" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="185" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="190" t="s">
+    <row r="14" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="185" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="190" t="s">
+      <c r="D14" s="185" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="185" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="190" t="s">
+      <c r="D15" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="185" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="190" t="s">
+    <row r="18" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="185" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="190" t="s">
+      <c r="D18" s="185" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="185" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="190" t="s">
+    <row r="20" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="185" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="190" t="s">
+    <row r="21" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="185" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="190" t="s">
+    <row r="22" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="185" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="185" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="190" t="s">
+    <row r="23" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="185" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="190" t="s">
+    <row r="24" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="185" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="190" t="s">
+    <row r="26" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="190" t="s">
+      <c r="B26" s="185" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="190" t="s">
+    <row r="27" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="185" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="190" t="s">
+    <row r="28" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="185" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="190" t="s">
+    <row r="30" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="185" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="190" t="s">
+    <row r="31" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="185" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="190" t="s">
+    <row r="32" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="185" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="190" t="s">
+      <c r="A34" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="185" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="190" t="s">
+      <c r="B35" s="185" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="185" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="190" t="s">
+      <c r="B37" s="185" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="190" t="s">
+      <c r="A39" s="185" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="190" t="s">
+      <c r="B39" s="185" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="190" t="s">
+      <c r="B40" s="185" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="190" t="s">
+      <c r="B41" s="185" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="190" t="s">
+      <c r="B42" s="185" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187F1E3-EA51-014B-A436-F5ABAA7C20AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C2C59-2C67-0344-BE47-2FBF18E25D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="162">
   <si>
     <t>Course Code</t>
   </si>
@@ -526,17 +526,30 @@
   </si>
   <si>
     <t>take 5735</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1006,435 +1019,435 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1443,37 +1456,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1501,16 +1641,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1525,8 +1665,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1541,8 +1681,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1557,8 +1705,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1567,14 +1715,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1733,8 +1873,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1749,8 +1889,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1765,8 +1905,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFD5A6BD"/>
           <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1781,16 +1937,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1805,8 +1953,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1815,14 +1963,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1893,8 +2033,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1909,8 +2049,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1925,8 +2073,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1941,8 +2089,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1951,14 +2099,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2208,7 +2348,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3073,43 +3213,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C22">
-    <cfRule type="endsWith" dxfId="64" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="79" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D22">
-    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="78" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="beginsWith" dxfId="60" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="75" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((E2),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="74" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F22">
-    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G22">
@@ -3137,43 +3277,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I22">
-    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J11">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J16">
-    <cfRule type="containsText" dxfId="50" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="65" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J16 G15:G16 K12:K16 L15:L16">
-    <cfRule type="containsText" dxfId="49" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="64" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(M18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:J22">
-    <cfRule type="containsText" dxfId="48" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="63" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K11 E15:F16">
-    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K22">
-    <cfRule type="containsText" dxfId="46" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="61" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3185,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3747,47 +3887,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="endsWith" dxfId="45" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="60" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D17">
-    <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="41" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="56" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((E2),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="55" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
-    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3816,98 +3956,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J3">
-    <cfRule type="containsText" dxfId="30" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="45" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
-    <cfRule type="containsText" dxfId="29" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J7">
-    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="43" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7">
-    <cfRule type="containsText" dxfId="27" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="42" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J10">
-    <cfRule type="containsText" dxfId="26" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="41" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J13">
-    <cfRule type="containsText" dxfId="25" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="40" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="24" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="39" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J15">
-    <cfRule type="containsText" dxfId="23" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="38" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:J17">
-    <cfRule type="containsText" dxfId="22" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="21" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="36" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K10">
-    <cfRule type="containsText" dxfId="20" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="35" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K13">
-    <cfRule type="containsText" dxfId="19" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="34" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="18" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="33" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="17" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="32" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K17">
-    <cfRule type="containsText" dxfId="16" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="31" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 K2:K3">
-    <cfRule type="containsText" dxfId="15" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="30" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14119,7 +14259,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{BD21AD5E-74F2-8B49-AF13-F54496F86A79}">
+      <autoFilter ref="A2:K42" xr:uid="{45E1CF11-8344-744D-99FF-4886C26B99EA}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14136,42 +14276,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="14" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="29" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="10" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="25" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((D3),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="24" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14200,25 +14340,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14230,230 +14370,474 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9180E-E31E-2D47-9384-8D5049DEA67E}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="185" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="185" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="185" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="185"/>
+    <col min="2" max="2" width="12.83203125" style="194" customWidth="1"/>
+    <col min="3" max="3" width="70" style="191" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="185" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="185"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="185" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="185" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="194" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="185" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="194" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="185" t="s">
+      <c r="C5" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="194" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="194" t="s">
         <v>38</v>
+      </c>
+      <c r="C8" s="192" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="185" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="185" t="s">
+      <c r="E8" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="194" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="192" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="185" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="194" t="s">
         <v>44</v>
+      </c>
+      <c r="C11" s="192" t="s">
+        <v>45</v>
       </c>
       <c r="D11" s="185" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="185" t="s">
+      <c r="E11" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="194" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="192" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="185" t="s">
+      <c r="B14" s="194" t="s">
         <v>81</v>
+      </c>
+      <c r="C14" s="192" t="s">
+        <v>82</v>
       </c>
       <c r="D14" s="185" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="185" t="s">
+      <c r="E14" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="194" t="s">
         <v>83</v>
+      </c>
+      <c r="C15" s="192" t="s">
+        <v>84</v>
       </c>
       <c r="D15" s="185" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="185" t="s">
+      <c r="E15" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="194" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="185" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="185" t="s">
+      <c r="B18" s="194" t="s">
         <v>24</v>
+      </c>
+      <c r="C18" s="192" t="s">
+        <v>25</v>
       </c>
       <c r="D18" s="185" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="185" t="s">
+      <c r="E18" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="194" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="185" t="s">
+      <c r="C19" s="192" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="194" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="192" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="185" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="185" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="194" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="185" t="s">
+      <c r="C22" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="194" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="185" t="s">
+      <c r="C23" s="192" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="194" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="192" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="185" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="185" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="185" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="195" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="192" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="195" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="195" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="192" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="185" t="s">
+      <c r="B30" s="194" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="185" t="s">
+      <c r="C30" s="192" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="194" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="185" t="s">
+      <c r="C31" s="192" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="194" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="192" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="185" t="s">
+      <c r="B34" s="194" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="185" t="s">
+      <c r="C34" s="192" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="185" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="194" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="185" t="s">
+      <c r="C35" s="193" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="185" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="194" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="185" t="s">
+      <c r="C36" s="193" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="185" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="194" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="193" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="185" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="185" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="185" t="s">
+      <c r="B39" s="194" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="185" t="s">
+      <c r="C39" s="193" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="185" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="194" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="185" t="s">
+      <c r="C40" s="193" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="185" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="194" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="185" t="s">
+    <row r="42" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="194" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="C3 C5:C6">
+    <cfRule type="endsWith" dxfId="14" priority="15" operator="endsWith" text="*">
+      <formula>RIGHT((C3),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="endsWith" dxfId="13" priority="14" operator="endsWith" text="*">
+      <formula>RIGHT((C8),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="endsWith" dxfId="12" priority="13" operator="endsWith" text="*">
+      <formula>RIGHT((C9),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="endsWith" dxfId="11" priority="12" operator="endsWith" text="*">
+      <formula>RIGHT((C11),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="endsWith" dxfId="10" priority="11" operator="endsWith" text="*">
+      <formula>RIGHT((C12),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C15">
+    <cfRule type="endsWith" dxfId="9" priority="10" operator="endsWith" text="*">
+      <formula>RIGHT((C14),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="endsWith" dxfId="8" priority="9" operator="endsWith" text="*">
+      <formula>RIGHT((C16),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C20">
+    <cfRule type="endsWith" dxfId="7" priority="8" operator="endsWith" text="*">
+      <formula>RIGHT((C18),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C24">
+    <cfRule type="endsWith" dxfId="6" priority="7" operator="endsWith" text="*">
+      <formula>RIGHT((C22),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C32">
+    <cfRule type="endsWith" dxfId="5" priority="6" operator="endsWith" text="*">
+      <formula>RIGHT((C30),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C28">
+    <cfRule type="endsWith" dxfId="4" priority="5" operator="endsWith" text="*">
+      <formula>RIGHT((C26),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="endsWith" dxfId="3" priority="4" operator="endsWith" text="*">
+      <formula>RIGHT((C34),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C37">
+    <cfRule type="endsWith" dxfId="2" priority="3" operator="endsWith" text="*">
+      <formula>RIGHT((C35),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="endsWith" dxfId="1" priority="2" operator="endsWith" text="*">
+      <formula>RIGHT((C39),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="*">
+      <formula>RIGHT((C40),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C2C59-2C67-0344-BE47-2FBF18E25D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB50DB74-B227-7546-872D-E6623CE53902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,7 +1022,7 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1469,6 +1469,10 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1480,60 +1484,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="75">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1641,16 +1598,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1665,8 +1622,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1681,8 +1638,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1697,8 +1662,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1707,14 +1672,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1873,8 +1830,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1889,8 +1846,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1905,16 +1862,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1929,8 +1886,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1945,8 +1910,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1955,14 +1920,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2033,8 +1990,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2049,8 +2006,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2065,8 +2030,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2081,8 +2046,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2091,14 +2056,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3213,43 +3170,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C22">
-    <cfRule type="endsWith" dxfId="79" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="74" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D22">
-    <cfRule type="containsText" dxfId="78" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="beginsWith" dxfId="75" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="70" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="69" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="74" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F22">
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G22">
@@ -3277,43 +3234,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I22">
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="63" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="62" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J11">
-    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J16">
-    <cfRule type="containsText" dxfId="65" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="60" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J16 G15:G16 K12:K16 L15:L16">
-    <cfRule type="containsText" dxfId="64" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="59" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(M18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:J22">
-    <cfRule type="containsText" dxfId="63" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="58" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K11 E15:F16">
-    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K22">
-    <cfRule type="containsText" dxfId="61" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="56" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3887,47 +3844,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="endsWith" dxfId="60" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="55" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D17">
-    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="56" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="51" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="50" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="55" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
-    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3956,98 +3913,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="43" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J3">
-    <cfRule type="containsText" dxfId="45" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="40" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
-    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J7">
-    <cfRule type="containsText" dxfId="43" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7">
-    <cfRule type="containsText" dxfId="42" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J10">
-    <cfRule type="containsText" dxfId="41" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="36" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J13">
-    <cfRule type="containsText" dxfId="40" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="35" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="39" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="34" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J15">
-    <cfRule type="containsText" dxfId="38" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="33" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:J17">
-    <cfRule type="containsText" dxfId="37" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="32" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="36" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="31" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K10">
-    <cfRule type="containsText" dxfId="35" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="30" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K13">
-    <cfRule type="containsText" dxfId="34" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="29" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="33" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="28" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="32" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="27" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K17">
-    <cfRule type="containsText" dxfId="31" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="26" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 K2:K3">
-    <cfRule type="containsText" dxfId="30" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="25" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4084,17 +4041,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="186"/>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
+      <c r="A1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5301,15 +5258,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="188" t="s">
+      <c r="E35" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="187"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="187"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="189"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -5322,15 +5279,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="188" t="s">
+      <c r="E36" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="187"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="189"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5376,15 +5333,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="188" t="s">
+      <c r="E38" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="187"/>
-      <c r="K38" s="187"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="189"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5397,15 +5354,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="189" t="s">
+      <c r="E39" s="191" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="190"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="192"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -14259,7 +14216,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{45E1CF11-8344-744D-99FF-4886C26B99EA}">
+      <autoFilter ref="A2:K42" xr:uid="{40FBFEED-8E62-EE4F-9E98-0042E937A7DF}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14276,42 +14233,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="29" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="24" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="25" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="20" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="19" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14340,25 +14297,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14372,15 +14329,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9180E-E31E-2D47-9384-8D5049DEA67E}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="185" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="194" customWidth="1"/>
-    <col min="3" max="3" width="70" style="191" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="185" customWidth="1"/>
+    <col min="3" max="3" width="70" style="185" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="185" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="185"/>
   </cols>
@@ -14394,10 +14351,10 @@
       <c r="A3" s="185" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="185" t="s">
@@ -14408,10 +14365,10 @@
       <c r="A5" s="185" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="185" t="s">
@@ -14419,10 +14376,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="185" t="s">
@@ -14433,10 +14390,10 @@
       <c r="A8" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="194" t="s">
+      <c r="B8" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="186" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="185" t="s">
@@ -14447,10 +14404,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="186" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="185" t="s">
@@ -14461,10 +14418,10 @@
       <c r="A11" s="185" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="194" t="s">
+      <c r="B11" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="186" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="185" t="s">
@@ -14475,10 +14432,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="186" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="185" t="s">
@@ -14489,10 +14446,10 @@
       <c r="A14" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="192" t="s">
+      <c r="C14" s="186" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="185" t="s">
@@ -14503,10 +14460,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="194" t="s">
+      <c r="B15" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="192" t="s">
+      <c r="C15" s="186" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="185" t="s">
@@ -14517,10 +14474,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="194" t="s">
+      <c r="B16" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="192" t="s">
+      <c r="C16" s="186" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="185" t="s">
@@ -14531,10 +14488,10 @@
       <c r="A18" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="192" t="s">
+      <c r="C18" s="186" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="185" t="s">
@@ -14545,10 +14502,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="194" t="s">
+      <c r="B19" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="192" t="s">
+      <c r="C19" s="186" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="185" t="s">
@@ -14556,10 +14513,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="194" t="s">
+      <c r="B20" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="186" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="185" t="s">
@@ -14575,10 +14532,10 @@
       <c r="A22" s="185" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="186" t="s">
         <v>75</v>
       </c>
       <c r="E22" s="185" t="s">
@@ -14586,10 +14543,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="194" t="s">
+      <c r="B23" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="192" t="s">
+      <c r="C23" s="186" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="185" t="s">
@@ -14597,10 +14554,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="194" t="s">
+      <c r="B24" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="192" t="s">
+      <c r="C24" s="186" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="185" t="s">
@@ -14611,10 +14568,10 @@
       <c r="A26" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="195" t="s">
+      <c r="B26" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="192" t="s">
+      <c r="C26" s="186" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="185" t="s">
@@ -14622,10 +14579,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="195" t="s">
+      <c r="B27" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="192" t="s">
+      <c r="C27" s="186" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="185" t="s">
@@ -14633,10 +14590,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="195" t="s">
+      <c r="B28" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="192" t="s">
+      <c r="C28" s="186" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="185" t="s">
@@ -14647,10 +14604,10 @@
       <c r="A30" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="194" t="s">
+      <c r="B30" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="192" t="s">
+      <c r="C30" s="186" t="s">
         <v>56</v>
       </c>
       <c r="E30" s="185" t="s">
@@ -14658,10 +14615,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="194" t="s">
+      <c r="B31" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="192" t="s">
+      <c r="C31" s="186" t="s">
         <v>60</v>
       </c>
       <c r="E31" s="185" t="s">
@@ -14669,10 +14626,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="194" t="s">
+      <c r="B32" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="192" t="s">
+      <c r="C32" s="186" t="s">
         <v>63</v>
       </c>
       <c r="E32" s="185" t="s">
@@ -14683,10 +14640,10 @@
       <c r="A34" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="194" t="s">
+      <c r="B34" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="192" t="s">
+      <c r="C34" s="186" t="s">
         <v>90</v>
       </c>
       <c r="E34" s="185" t="s">
@@ -14694,10 +14651,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="194" t="s">
+      <c r="B35" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="193" t="s">
+      <c r="C35" s="187" t="s">
         <v>125</v>
       </c>
       <c r="E35" s="185" t="s">
@@ -14705,10 +14662,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="194" t="s">
+      <c r="B36" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="193" t="s">
+      <c r="C36" s="187" t="s">
         <v>127</v>
       </c>
       <c r="E36" s="185" t="s">
@@ -14716,10 +14673,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="194" t="s">
+      <c r="B37" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="187" t="s">
         <v>129</v>
       </c>
       <c r="E37" s="185" t="s">
@@ -14730,10 +14687,10 @@
       <c r="A39" s="185" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="194" t="s">
+      <c r="B39" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="193" t="s">
+      <c r="C39" s="187" t="s">
         <v>119</v>
       </c>
       <c r="E39" s="185" t="s">
@@ -14741,10 +14698,10 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="194" t="s">
+      <c r="B40" s="185" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="193" t="s">
+      <c r="C40" s="187" t="s">
         <v>112</v>
       </c>
       <c r="E40" s="185" t="s">
@@ -14752,90 +14709,65 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="194" t="s">
+      <c r="B41" s="185" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="194" t="s">
+      <c r="B42" s="185" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C3 C5:C6">
-    <cfRule type="endsWith" dxfId="14" priority="15" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="9" priority="15" operator="endsWith" text="*">
       <formula>RIGHT((C3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="endsWith" dxfId="13" priority="14" operator="endsWith" text="*">
+  <conditionalFormatting sqref="C8:C9">
+    <cfRule type="endsWith" dxfId="8" priority="13" operator="endsWith" text="*">
       <formula>RIGHT((C8),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="endsWith" dxfId="12" priority="13" operator="endsWith" text="*">
-      <formula>RIGHT((C9),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="endsWith" dxfId="11" priority="12" operator="endsWith" text="*">
+  <conditionalFormatting sqref="C11:C12">
+    <cfRule type="endsWith" dxfId="7" priority="11" operator="endsWith" text="*">
       <formula>RIGHT((C11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="endsWith" dxfId="10" priority="11" operator="endsWith" text="*">
-      <formula>RIGHT((C12),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
-    <cfRule type="endsWith" dxfId="9" priority="10" operator="endsWith" text="*">
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="endsWith" dxfId="6" priority="9" operator="endsWith" text="*">
       <formula>RIGHT((C14),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="endsWith" dxfId="8" priority="9" operator="endsWith" text="*">
-      <formula>RIGHT((C16),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="endsWith" dxfId="7" priority="8" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="5" priority="8" operator="endsWith" text="*">
       <formula>RIGHT((C18),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="endsWith" dxfId="6" priority="7" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="4" priority="7" operator="endsWith" text="*">
       <formula>RIGHT((C22),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C28">
+    <cfRule type="endsWith" dxfId="3" priority="5" operator="endsWith" text="*">
+      <formula>RIGHT((C26),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C30:C32">
-    <cfRule type="endsWith" dxfId="5" priority="6" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="2" priority="6" operator="endsWith" text="*">
       <formula>RIGHT((C30),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28">
-    <cfRule type="endsWith" dxfId="4" priority="5" operator="endsWith" text="*">
-      <formula>RIGHT((C26),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="endsWith" dxfId="3" priority="4" operator="endsWith" text="*">
+  <conditionalFormatting sqref="C34:C37">
+    <cfRule type="endsWith" dxfId="1" priority="3" operator="endsWith" text="*">
       <formula>RIGHT((C34),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C37">
-    <cfRule type="endsWith" dxfId="2" priority="3" operator="endsWith" text="*">
-      <formula>RIGHT((C35),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="endsWith" dxfId="1" priority="2" operator="endsWith" text="*">
+  <conditionalFormatting sqref="C39:C40">
+    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="*">
       <formula>RIGHT((C39),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="*">
-      <formula>RIGHT((C40),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB50DB74-B227-7546-872D-E6623CE53902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1FAF7B-F8EC-4140-B531-469FC99A9079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,9 +510,6 @@
     <t>Spring 2 - 2025</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>start study for 5001 - 5003</t>
   </si>
   <si>
@@ -532,17 +529,27 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>DTSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1019,435 +1026,435 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1456,34 +1463,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -14216,7 +14224,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{40FBFEED-8E62-EE4F-9E98-0042E937A7DF}">
+      <autoFilter ref="A2:K42" xr:uid="{065781D0-AE22-A94C-8933-F405C92687F8}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14329,8 +14337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9180E-E31E-2D47-9384-8D5049DEA67E}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14358,7 +14366,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14372,7 +14380,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14383,7 +14391,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14397,10 +14405,10 @@
         <v>39</v>
       </c>
       <c r="D8" s="185" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14411,7 +14419,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14425,10 +14433,10 @@
         <v>45</v>
       </c>
       <c r="D11" s="185" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14439,7 +14447,7 @@
         <v>53</v>
       </c>
       <c r="E12" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14453,10 +14461,10 @@
         <v>82</v>
       </c>
       <c r="D14" s="185" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14467,10 +14475,10 @@
         <v>84</v>
       </c>
       <c r="D15" s="185" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14481,7 +14489,7 @@
         <v>87</v>
       </c>
       <c r="E16" s="185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14495,10 +14503,10 @@
         <v>25</v>
       </c>
       <c r="D18" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="185" t="s">
         <v>159</v>
-      </c>
-      <c r="E18" s="185" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14509,7 +14517,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14520,7 +14528,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14539,7 +14547,7 @@
         <v>75</v>
       </c>
       <c r="E22" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14550,7 +14558,7 @@
         <v>78</v>
       </c>
       <c r="E23" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14561,21 +14569,21 @@
         <v>80</v>
       </c>
       <c r="E24" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="187" t="s">
+      <c r="B26" s="193" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="186" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14586,7 +14594,7 @@
         <v>70</v>
       </c>
       <c r="E27" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14597,7 +14605,7 @@
         <v>72</v>
       </c>
       <c r="E28" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14611,7 +14619,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14622,7 +14630,7 @@
         <v>60</v>
       </c>
       <c r="E31" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14633,7 +14641,7 @@
         <v>63</v>
       </c>
       <c r="E32" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14647,7 +14655,7 @@
         <v>90</v>
       </c>
       <c r="E34" s="185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14658,7 +14666,7 @@
         <v>125</v>
       </c>
       <c r="E35" s="185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14669,7 +14677,7 @@
         <v>127</v>
       </c>
       <c r="E36" s="185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14680,7 +14688,7 @@
         <v>129</v>
       </c>
       <c r="E37" s="185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14694,7 +14702,7 @@
         <v>119</v>
       </c>
       <c r="E39" s="185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14705,21 +14713,21 @@
         <v>112</v>
       </c>
       <c r="E40" s="185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="185" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="185" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="C3 C5:C6">
     <cfRule type="endsWith" dxfId="9" priority="15" operator="endsWith" text="*">
       <formula>RIGHT((C3),LEN("*"))=("*")</formula>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1FAF7B-F8EC-4140-B531-469FC99A9079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A94D667-AA3C-3B4A-8086-506B38D03C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="168">
   <si>
     <t>Course Code</t>
   </si>
@@ -532,6 +532,24 @@
   </si>
   <si>
     <t>DTSA</t>
+  </si>
+  <si>
+    <t>Finished for Credit</t>
+  </si>
+  <si>
+    <t>1 of 21</t>
+  </si>
+  <si>
+    <t>Greedy Algorithms, Minimum Spanning Trees etc.</t>
+  </si>
+  <si>
+    <t>Statistical Inference &amp; Hypothesis Testing inDS Apps</t>
+  </si>
+  <si>
+    <t>days in session</t>
+  </si>
+  <si>
+    <t>1.36 hours per day</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1047,7 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1492,6 +1510,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1606,16 +1625,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1630,8 +1649,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1646,8 +1665,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1662,8 +1689,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1672,14 +1699,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1838,8 +1857,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1854,8 +1873,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1870,8 +1889,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFD5A6BD"/>
           <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1886,16 +1921,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1910,8 +1937,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1920,14 +1947,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1998,8 +2017,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2014,8 +2033,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2030,8 +2057,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2046,8 +2073,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2056,14 +2083,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2310,914 +2329,928 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="F1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="174" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8" style="174" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="174" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="D2" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="E2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="F2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="G2" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="99">
+      <c r="H2" s="99">
         <v>0.16</v>
       </c>
-      <c r="H2" s="97">
+      <c r="I2" s="97">
         <v>35</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="J2" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="134" t="s">
+      <c r="K2" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="135" t="s">
+      <c r="L2" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="136" t="s">
+      <c r="M2" s="136" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="173" t="s">
+    <row r="3" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="C3" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>0.17</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>34</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="138" t="s">
+      <c r="K3" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="139" t="s">
+      <c r="L3" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="140" t="s">
+      <c r="M3" s="140" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="173" t="s">
+    <row r="4" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="C4" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="D4" s="142" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="123">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="109">
+        <v>38</v>
+      </c>
+      <c r="J4" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="144" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="146" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="147">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="97">
+        <v>48</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="8">
+        <v>26</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="171" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="153" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="142" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="123">
+        <v>0.22</v>
+      </c>
+      <c r="I7" s="109">
+        <v>34</v>
+      </c>
+      <c r="J7" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="179" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="97">
+        <v>11</v>
+      </c>
+      <c r="J8" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="157" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="I9" s="8">
+        <v>24</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="158" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I10" s="8">
+        <v>19</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="159" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="123">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="109">
+        <v>14</v>
+      </c>
+      <c r="J11" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="144" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="125" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="160" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="161" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="99">
+        <v>0.33</v>
+      </c>
+      <c r="I12" s="97">
+        <v>40</v>
+      </c>
+      <c r="J12" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="157" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="8">
+        <v>38</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="159" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="163" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="123">
+        <v>0.45</v>
+      </c>
+      <c r="I14" s="109">
+        <v>60</v>
+      </c>
+      <c r="J14" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="144" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="164" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="99">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="97">
+        <v>36</v>
+      </c>
+      <c r="J15" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="157" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="165" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="109">
+        <v>25</v>
+      </c>
+      <c r="J16" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="144" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="164" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="99">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="97">
+        <v>45</v>
+      </c>
+      <c r="J17" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="167" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="8">
+        <v>40</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="152" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="142" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="123">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="109">
+        <v>42</v>
+      </c>
+      <c r="J19" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="156" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="99">
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="97">
+        <v>21</v>
+      </c>
+      <c r="J20" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="170" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="8">
         <v>23</v>
       </c>
-      <c r="D4" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="109" t="s">
+      <c r="J21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="171" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="123">
+      <c r="G22" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="123">
         <v>0.1</v>
       </c>
-      <c r="H4" s="109">
+      <c r="I22" s="109">
         <v>38</v>
       </c>
-      <c r="I4" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="143" t="s">
+      <c r="J22" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="144" t="s">
+      <c r="L22" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="145" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="147">
-        <v>0.25</v>
-      </c>
-      <c r="H5" s="97">
-        <v>48</v>
-      </c>
-      <c r="I5" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="149" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="150" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="8">
-        <v>26</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="151" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="171" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="153" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="142" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="123">
-        <v>0.22</v>
-      </c>
-      <c r="H7" s="109">
-        <v>34</v>
-      </c>
-      <c r="I7" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="155" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="179" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="133" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="99">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="97">
-        <v>11</v>
-      </c>
-      <c r="I8" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="134" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="157" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H9" s="8">
-        <v>24</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="138" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="158" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H10" s="8">
-        <v>19</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="138" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="159" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="142" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="123">
-        <v>0.4</v>
-      </c>
-      <c r="H11" s="109">
-        <v>14</v>
-      </c>
-      <c r="I11" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="143" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="144" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="125" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="160" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="133" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="161" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="99">
-        <v>0.33</v>
-      </c>
-      <c r="H12" s="97">
-        <v>40</v>
-      </c>
-      <c r="I12" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="134" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="157" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="162" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="H13" s="8">
-        <v>38</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="138" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="159" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="163" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="123">
-        <v>0.45</v>
-      </c>
-      <c r="H14" s="109">
-        <v>60</v>
-      </c>
-      <c r="I14" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="143" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="144" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="164" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="133" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="99">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="97">
-        <v>36</v>
-      </c>
-      <c r="I15" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="134" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="157" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="165" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="123">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="109">
-        <v>25</v>
-      </c>
-      <c r="I16" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="143" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="144" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="164" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="133" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="99">
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="97">
-        <v>45</v>
-      </c>
-      <c r="I17" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="166" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="167" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H18" s="8">
-        <v>40</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="151" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="168" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="152" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="142" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="123">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="109">
-        <v>42</v>
-      </c>
-      <c r="I19" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="169" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="156" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="133" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="99">
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="97">
-        <v>21</v>
-      </c>
-      <c r="I20" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="166" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="170" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H21" s="8">
-        <v>23</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="151" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="168" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="171" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="123">
-        <v>0.1</v>
-      </c>
-      <c r="H22" s="109">
-        <v>38</v>
-      </c>
-      <c r="I22" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="143" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="144" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="125" t="s">
+      <c r="M22" s="125" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="173" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="173" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="175"/>
-      <c r="G24" s="172" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B24" s="175"/>
+      <c r="H24" s="172" t="s">
         <v>138</v>
       </c>
-      <c r="H24">
-        <f>SUM(H2:H22)</f>
+      <c r="I24">
+        <f>SUM(I2:I22)</f>
         <v>691</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="G25" s="172" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H25" s="172" t="s">
         <v>139</v>
       </c>
-      <c r="H25">
-        <f>SUM(H24/24)</f>
+      <c r="I25">
+        <f>SUM(I24/24)</f>
         <v>28.791666666666668</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="183">
+        <f>SUM(1/21)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="B27" s="183">
         <f>SUM(13 / 21)</f>
         <v>0.61904761904761907</v>
       </c>
-      <c r="B27" s="180"/>
       <c r="C27" s="180"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="172"/>
-      <c r="C28" s="181"/>
+      <c r="D27" s="180"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C28" s="172"/>
+      <c r="D28" s="181"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C22">
+  <conditionalFormatting sqref="D2:D22">
     <cfRule type="endsWith" dxfId="74" priority="10" operator="endsWith" text="*">
-      <formula>RIGHT((C2),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D22">
+  <conditionalFormatting sqref="E1:E22">
     <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="Elective">
-      <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D22">
-    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="beginsWith" dxfId="70" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
+    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="69" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((E2),LEN("R"))=("R")</formula>
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F22">
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
+  <conditionalFormatting sqref="F2:F22">
+    <cfRule type="beginsWith" dxfId="70" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
+    <cfRule type="beginsWith" dxfId="69" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G22">
+  <conditionalFormatting sqref="F2:G22">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H22">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3229,7 +3262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H22">
+  <conditionalFormatting sqref="I2:I22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="9"/>
@@ -3241,45 +3274,45 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I22">
-    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+  <conditionalFormatting sqref="J2:J22">
+    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="63" priority="12" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J11">
+  <conditionalFormatting sqref="J1:K11">
     <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:J16">
+  <conditionalFormatting sqref="J12:K16">
     <cfRule type="containsText" dxfId="60" priority="166" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M18))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:J16 G15:G16 K12:K16 L15:L16">
+  <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
     <cfRule type="containsText" dxfId="59" priority="167" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(M18))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:J22">
+  <conditionalFormatting sqref="J17:K22">
     <cfRule type="containsText" dxfId="58" priority="162" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M12))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K11 E15:F16">
+  <conditionalFormatting sqref="L1:L11 F15:G16">
     <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K22">
+  <conditionalFormatting sqref="L17:L22">
     <cfRule type="containsText" dxfId="56" priority="164" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q12))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3290,7 +3323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="162" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3862,33 +3895,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="53" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="51" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="51" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((E2),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="50" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
@@ -3921,14 +3954,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
@@ -14251,30 +14284,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="20" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="20" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((D3),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="19" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
@@ -14305,11 +14338,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
@@ -14335,10 +14368,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9180E-E31E-2D47-9384-8D5049DEA67E}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14347,15 +14380,23 @@
     <col min="2" max="2" width="12.83203125" style="185" customWidth="1"/>
     <col min="3" max="3" width="70" style="185" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="185" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="185"/>
+    <col min="5" max="8" width="10.83203125" style="185"/>
+    <col min="9" max="9" width="13.5" style="185" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="185"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="185" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="185" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="185" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="185" t="s">
         <v>142</v>
       </c>
@@ -14369,7 +14410,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="185" t="s">
         <v>141</v>
       </c>
@@ -14382,8 +14423,11 @@
       <c r="E5" s="185" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="185">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="185" t="s">
         <v>22</v>
       </c>
@@ -14393,8 +14437,25 @@
       <c r="E6" s="185" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="185">
+        <v>38</v>
+      </c>
+      <c r="G6" s="185">
+        <f>SUM(F5+F6)</f>
+        <v>72</v>
+      </c>
+      <c r="H6" s="185">
+        <v>53</v>
+      </c>
+      <c r="I6" s="194">
+        <f>SUM(72/53)</f>
+        <v>1.3584905660377358</v>
+      </c>
+      <c r="J6" s="185" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="185" t="s">
         <v>144</v>
       </c>
@@ -14411,7 +14472,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="185" t="s">
         <v>49</v>
       </c>
@@ -14422,7 +14483,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="185" t="s">
         <v>145</v>
       </c>
@@ -14439,7 +14500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="185" t="s">
         <v>52</v>
       </c>
@@ -14450,7 +14511,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="185" t="s">
         <v>146</v>
       </c>
@@ -14467,7 +14528,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="185" t="s">
         <v>83</v>
       </c>
@@ -14481,7 +14542,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="185" t="s">
         <v>86</v>
       </c>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A94D667-AA3C-3B4A-8086-506B38D03C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5E67B5-ABD1-854A-B278-A4AD92FDC6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="168">
   <si>
     <t>Course Code</t>
   </si>
@@ -456,9 +456,6 @@
     <t>Finished not for Credit</t>
   </si>
   <si>
-    <t>2 OF 9</t>
-  </si>
-  <si>
     <t>13 OF 21</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>1.36 hours per day</t>
+  </si>
+  <si>
+    <t>3 OF 9</t>
   </si>
 </sst>
 </file>
@@ -650,6 +650,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1047,7 +1048,7 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1498,6 +1499,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1509,8 +1512,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1625,16 +1629,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1649,8 +1653,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1665,8 +1669,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1681,8 +1693,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1691,14 +1703,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1857,8 +1861,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1873,8 +1877,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1889,16 +1893,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1913,8 +1917,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1929,8 +1941,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1939,14 +1951,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2017,8 +2021,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2033,8 +2037,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2049,8 +2061,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2065,8 +2077,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2075,14 +2087,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2331,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -2350,7 +2354,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>134</v>
@@ -2476,7 +2480,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="108" t="s">
         <v>13</v>
@@ -2590,7 +2594,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="108" t="s">
         <v>26</v>
@@ -3168,16 +3172,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="173" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="173" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B24" s="175"/>
       <c r="H24" s="172" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I24">
         <f>SUM(I2:I22)</f>
@@ -3186,7 +3190,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H25" s="172" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I25">
         <f>SUM(I24/24)</f>
@@ -3229,25 +3233,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="70" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="70" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="69" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="69" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
@@ -3275,14 +3279,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="63" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="62" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
@@ -3323,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3453,7 +3457,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177"/>
+      <c r="A4" s="195" t="s">
+        <v>133</v>
+      </c>
       <c r="B4" s="95" t="s">
         <v>124</v>
       </c>
@@ -3857,14 +3863,14 @@
     </row>
     <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="172" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="184">
-        <f>SUM(2 / 9)</f>
-        <v>0.22222222222222221</v>
+        <f>SUM(3 / 9)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3895,33 +3901,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="53" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="51" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="51" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="50" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
@@ -3954,14 +3960,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
@@ -4082,17 +4088,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="188"/>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
+      <c r="A1" s="190"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5299,15 +5305,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="190" t="s">
+      <c r="E35" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="189"/>
-      <c r="K35" s="189"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="191"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -5320,15 +5326,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="190" t="s">
+      <c r="E36" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="189"/>
-      <c r="K36" s="189"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="191"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5374,15 +5380,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="190" t="s">
+      <c r="E38" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="189"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="189"/>
-      <c r="K38" s="189"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="191"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5395,15 +5401,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="191" t="s">
+      <c r="E39" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="192"/>
-      <c r="K39" s="192"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="194"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -14257,7 +14263,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{065781D0-AE22-A94C-8933-F405C92687F8}">
+      <autoFilter ref="A2:K42" xr:uid="{723ACAC7-DE43-8B44-B9A3-A0C190CE3930}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14284,30 +14290,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="20" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="20" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="19" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
@@ -14338,11 +14344,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
@@ -14370,7 +14376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9180E-E31E-2D47-9384-8D5049DEA67E}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -14387,32 +14393,32 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="185" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F1" s="185" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H1" s="185" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="185" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="185" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="186" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="185" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="185" t="s">
         <v>20</v>
@@ -14421,7 +14427,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="185">
         <v>34</v>
@@ -14435,7 +14441,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="185">
         <v>38</v>
@@ -14447,17 +14453,17 @@
       <c r="H6" s="185">
         <v>53</v>
       </c>
-      <c r="I6" s="194">
+      <c r="I6" s="189">
         <f>SUM(72/53)</f>
         <v>1.3584905660377358</v>
       </c>
       <c r="J6" s="185" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="185" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="185" t="s">
         <v>38</v>
@@ -14466,10 +14472,10 @@
         <v>39</v>
       </c>
       <c r="D8" s="185" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14480,12 +14486,12 @@
         <v>50</v>
       </c>
       <c r="E9" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="185" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="185" t="s">
         <v>44</v>
@@ -14494,10 +14500,10 @@
         <v>45</v>
       </c>
       <c r="D11" s="185" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14508,12 +14514,12 @@
         <v>53</v>
       </c>
       <c r="E12" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="185" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="185" t="s">
         <v>81</v>
@@ -14522,10 +14528,10 @@
         <v>82</v>
       </c>
       <c r="D14" s="185" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14536,10 +14542,10 @@
         <v>84</v>
       </c>
       <c r="D15" s="185" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14550,12 +14556,12 @@
         <v>87</v>
       </c>
       <c r="E16" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="185" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="185" t="s">
         <v>24</v>
@@ -14564,10 +14570,10 @@
         <v>25</v>
       </c>
       <c r="D18" s="185" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="185" t="s">
         <v>158</v>
-      </c>
-      <c r="E18" s="185" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14578,7 +14584,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14589,17 +14595,17 @@
         <v>36</v>
       </c>
       <c r="E20" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="185" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="185" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="185" t="s">
         <v>74</v>
@@ -14608,7 +14614,7 @@
         <v>75</v>
       </c>
       <c r="E22" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14619,7 +14625,7 @@
         <v>78</v>
       </c>
       <c r="E23" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14630,21 +14636,21 @@
         <v>80</v>
       </c>
       <c r="E24" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="185" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="193" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="188" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="186" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14655,7 +14661,7 @@
         <v>70</v>
       </c>
       <c r="E27" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14666,12 +14672,12 @@
         <v>72</v>
       </c>
       <c r="E28" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="185" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="185" t="s">
         <v>55</v>
@@ -14680,7 +14686,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14691,7 +14697,7 @@
         <v>60</v>
       </c>
       <c r="E31" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14702,12 +14708,12 @@
         <v>63</v>
       </c>
       <c r="E32" s="185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="185" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="185" t="s">
         <v>89</v>
@@ -14716,7 +14722,7 @@
         <v>90</v>
       </c>
       <c r="E34" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14727,7 +14733,7 @@
         <v>125</v>
       </c>
       <c r="E35" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14738,7 +14744,7 @@
         <v>127</v>
       </c>
       <c r="E36" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14749,12 +14755,12 @@
         <v>129</v>
       </c>
       <c r="E37" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="185" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B39" s="185" t="s">
         <v>118</v>
@@ -14763,7 +14769,7 @@
         <v>119</v>
       </c>
       <c r="E39" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -14774,17 +14780,17 @@
         <v>112</v>
       </c>
       <c r="E40" s="185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5E67B5-ABD1-854A-B278-A4AD92FDC6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233D7EF7-0BFC-3E4D-94BF-C6D098BF3BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="170">
   <si>
     <t>Course Code</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>3 OF 9</t>
+  </si>
+  <si>
+    <t>Grades</t>
+  </si>
+  <si>
+    <t>Core/Elective</t>
   </si>
 </sst>
 </file>
@@ -1501,6 +1507,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1512,9 +1521,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -3327,7 +3333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -3457,7 +3463,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="190" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="95" t="s">
@@ -4088,17 +4094,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="190"/>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
+      <c r="A1" s="191"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5305,15 +5311,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="192" t="s">
+      <c r="E35" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="191"/>
-      <c r="K35" s="191"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="192"/>
+      <c r="K35" s="192"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -5326,15 +5332,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="192" t="s">
+      <c r="E36" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="191"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="191"/>
-      <c r="I36" s="191"/>
-      <c r="J36" s="191"/>
-      <c r="K36" s="191"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="192"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="192"/>
+      <c r="K36" s="192"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5380,15 +5386,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="192" t="s">
+      <c r="E38" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="191"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="191"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="192"/>
+      <c r="K38" s="192"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5401,15 +5407,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="193" t="s">
+      <c r="E39" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="194"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="195"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -14263,7 +14269,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{723ACAC7-DE43-8B44-B9A3-A0C190CE3930}">
+      <autoFilter ref="A2:K42" xr:uid="{957E98E7-215B-AD4A-98D2-35235256C3DC}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14374,475 +14380,487 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9180E-E31E-2D47-9384-8D5049DEA67E}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="185" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="185" customWidth="1"/>
-    <col min="3" max="3" width="70" style="185" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="185" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="185"/>
-    <col min="9" max="9" width="13.5" style="185" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="185"/>
+    <col min="1" max="2" width="20.33203125" style="185" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="185" customWidth="1"/>
+    <col min="4" max="4" width="70" style="185" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="185" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="185"/>
+    <col min="7" max="7" width="6.33203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="185" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="185" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="185"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="185" t="s">
         <v>142</v>
       </c>
+      <c r="B1" s="185" t="s">
+        <v>168</v>
+      </c>
       <c r="F1" s="185" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="185" t="s">
+      <c r="I1" s="185" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="185" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="D3" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="185" t="s">
+      <c r="F3" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="185" t="s">
+      <c r="C5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="D5" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="185" t="s">
+      <c r="F5" s="185" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="185">
+      <c r="G5" s="185">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="185" t="s">
+    <row r="6" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="D6" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="185" t="s">
+      <c r="F6" s="185" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="185">
+      <c r="G6" s="185">
         <v>38</v>
       </c>
-      <c r="G6" s="185">
-        <f>SUM(F5+F6)</f>
+      <c r="H6" s="185">
+        <f>SUM(G5+G6)</f>
         <v>72</v>
       </c>
-      <c r="H6" s="185">
+      <c r="I6" s="185">
         <v>53</v>
       </c>
-      <c r="I6" s="189">
+      <c r="J6" s="189">
         <f>SUM(72/53)</f>
         <v>1.3584905660377358</v>
       </c>
-      <c r="J6" s="185" t="s">
+      <c r="K6" s="185" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="185" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="C8" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="186" t="s">
+      <c r="D8" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="185" t="s">
+      <c r="E8" s="185" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="185" t="s">
+      <c r="F8" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="185" t="s">
+    <row r="9" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="D9" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="185" t="s">
+      <c r="F9" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="185" t="s">
+      <c r="C11" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="186" t="s">
+      <c r="D11" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="185" t="s">
+      <c r="E11" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="185" t="s">
+      <c r="F11" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="185" t="s">
+    <row r="12" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="186" t="s">
+      <c r="D12" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="185" t="s">
+      <c r="F12" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="185" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="185" t="s">
+      <c r="C14" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="186" t="s">
+      <c r="D14" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="185" t="s">
+      <c r="E14" s="185" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="185" t="s">
+      <c r="F14" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="185" t="s">
+    <row r="15" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="186" t="s">
+      <c r="D15" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="185" t="s">
+      <c r="E15" s="185" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="185" t="s">
+      <c r="F15" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="185" t="s">
+    <row r="16" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="186" t="s">
+      <c r="D16" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="185" t="s">
+      <c r="F16" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="185" t="s">
+      <c r="C18" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="186" t="s">
+      <c r="D18" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="185" t="s">
+      <c r="E18" s="185" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="185" t="s">
+      <c r="F18" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="185" t="s">
+    <row r="19" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="186" t="s">
+      <c r="D19" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="185" t="s">
+      <c r="F19" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="185" t="s">
+    <row r="20" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="186" t="s">
+      <c r="D20" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="185" t="s">
+      <c r="F20" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="185" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="185" t="s">
+      <c r="C22" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="186" t="s">
+      <c r="D22" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="185" t="s">
+      <c r="F22" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="185" t="s">
+    <row r="23" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="186" t="s">
+      <c r="D23" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="185" t="s">
+      <c r="F23" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="185" t="s">
+    <row r="24" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="186" t="s">
+      <c r="D24" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="185" t="s">
+      <c r="F24" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="188" t="s">
+      <c r="C26" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="186" t="s">
+      <c r="D26" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="185" t="s">
+      <c r="F26" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="187" t="s">
+    <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="186" t="s">
+      <c r="D27" s="186" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="185" t="s">
+      <c r="F27" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="187" t="s">
+    <row r="28" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="186" t="s">
+      <c r="D28" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="185" t="s">
+      <c r="F28" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="185" t="s">
+      <c r="C30" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="186" t="s">
+      <c r="D30" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="185" t="s">
+      <c r="F30" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="185" t="s">
+    <row r="31" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="186" t="s">
+      <c r="D31" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="185" t="s">
+      <c r="F31" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="185" t="s">
+    <row r="32" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="186" t="s">
+      <c r="D32" s="186" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="185" t="s">
+      <c r="F32" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="185" t="s">
+      <c r="C34" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="186" t="s">
+      <c r="D34" s="186" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="185" t="s">
+      <c r="F34" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="185" t="s">
+    <row r="35" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="187" t="s">
+      <c r="D35" s="187" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="185" t="s">
+      <c r="F35" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="185" t="s">
+    <row r="36" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="187" t="s">
+      <c r="D36" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="185" t="s">
+      <c r="F36" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="185" t="s">
+    <row r="37" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="187" t="s">
+      <c r="D37" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="185" t="s">
+      <c r="F37" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="185" t="s">
+      <c r="C39" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="187" t="s">
+      <c r="D39" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="185" t="s">
+      <c r="F39" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="185" t="s">
+    <row r="40" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="185" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="187" t="s">
+      <c r="D40" s="187" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="185" t="s">
+      <c r="F40" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="185" t="s">
+    <row r="41" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="185" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="185" t="s">
+    <row r="42" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="185" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="C3 C5:C6">
+  <conditionalFormatting sqref="D3 D5:D6">
     <cfRule type="endsWith" dxfId="9" priority="15" operator="endsWith" text="*">
-      <formula>RIGHT((C3),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="endsWith" dxfId="8" priority="13" operator="endsWith" text="*">
-      <formula>RIGHT((C8),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D8),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="D11:D12">
     <cfRule type="endsWith" dxfId="7" priority="11" operator="endsWith" text="*">
-      <formula>RIGHT((C11),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C16">
+  <conditionalFormatting sqref="D14:D16">
     <cfRule type="endsWith" dxfId="6" priority="9" operator="endsWith" text="*">
-      <formula>RIGHT((C14),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D14),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
+  <conditionalFormatting sqref="D18:D20">
     <cfRule type="endsWith" dxfId="5" priority="8" operator="endsWith" text="*">
-      <formula>RIGHT((C18),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D18),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24">
+  <conditionalFormatting sqref="D22:D24">
     <cfRule type="endsWith" dxfId="4" priority="7" operator="endsWith" text="*">
-      <formula>RIGHT((C22),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D22),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28">
+  <conditionalFormatting sqref="D26:D28">
     <cfRule type="endsWith" dxfId="3" priority="5" operator="endsWith" text="*">
-      <formula>RIGHT((C26),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D26),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C32">
+  <conditionalFormatting sqref="D30:D32">
     <cfRule type="endsWith" dxfId="2" priority="6" operator="endsWith" text="*">
-      <formula>RIGHT((C30),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D30),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C37">
+  <conditionalFormatting sqref="D34:D37">
     <cfRule type="endsWith" dxfId="1" priority="3" operator="endsWith" text="*">
-      <formula>RIGHT((C34),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D34),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C40">
+  <conditionalFormatting sqref="D39:D40">
     <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="*">
-      <formula>RIGHT((C39),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D39),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233D7EF7-0BFC-3E4D-94BF-C6D098BF3BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8093EB7-FF9D-A047-893E-C4DCBBC552B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="176">
   <si>
     <t>Course Code</t>
   </si>
@@ -556,6 +556,24 @@
   </si>
   <si>
     <t>Core/Elective</t>
+  </si>
+  <si>
+    <t>Projj</t>
+  </si>
+  <si>
+    <t>proj</t>
+  </si>
+  <si>
+    <t>essay</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>Proj</t>
+  </si>
+  <si>
+    <t>exam</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1072,7 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1521,13 +1539,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="76">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1635,16 +1662,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1659,8 +1686,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1675,8 +1702,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1691,8 +1726,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1701,14 +1736,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1867,8 +1894,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1883,8 +1910,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1899,8 +1926,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFD5A6BD"/>
           <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1915,16 +1958,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1939,8 +1974,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1949,14 +1984,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2027,8 +2054,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2043,8 +2070,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2059,8 +2094,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2075,8 +2110,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2085,14 +2120,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2342,7 +2369,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3221,43 +3248,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="74" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="75" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="73" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="72" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
+    <cfRule type="beginsWith" dxfId="71" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((F2),LEN("R"))=("R")</formula>
+    </cfRule>
     <cfRule type="beginsWith" dxfId="70" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="69" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((F2),LEN("R"))=("R")</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
@@ -3285,43 +3312,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="64" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="60" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="61" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="59" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="60" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="58" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="59" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="56" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="57" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3897,47 +3924,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="endsWith" dxfId="55" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="56" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D17">
-    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
+    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
+    <cfRule type="beginsWith" dxfId="52" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((E2),LEN("R"))=("R")</formula>
+    </cfRule>
     <cfRule type="beginsWith" dxfId="51" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((E2),LEN("R"))=("R")</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="47" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3966,98 +3993,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="44" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="43" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J3">
-    <cfRule type="containsText" dxfId="40" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="41" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
-    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J7">
-    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="39" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7">
-    <cfRule type="containsText" dxfId="37" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="38" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J10">
-    <cfRule type="containsText" dxfId="36" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J13">
-    <cfRule type="containsText" dxfId="35" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="36" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="34" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="35" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J15">
-    <cfRule type="containsText" dxfId="33" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="34" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:J17">
-    <cfRule type="containsText" dxfId="32" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="33" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="31" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="32" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K10">
-    <cfRule type="containsText" dxfId="30" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="31" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K13">
-    <cfRule type="containsText" dxfId="29" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="30" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="28" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="29" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="27" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="28" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K17">
-    <cfRule type="containsText" dxfId="26" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="27" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 K2:K3">
-    <cfRule type="containsText" dxfId="25" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="26" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4073,9 +4100,9 @@
   </sheetPr>
   <dimension ref="A1:AF1012"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I5"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14269,7 +14296,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{957E98E7-215B-AD4A-98D2-35235256C3DC}">
+      <autoFilter ref="A2:K42" xr:uid="{8C91CB1A-E796-3343-9804-0D08AA5DE123}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14286,42 +14313,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="24" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="25" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
+    <cfRule type="beginsWith" dxfId="21" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((D3),LEN("R"))=("R")</formula>
+    </cfRule>
     <cfRule type="beginsWith" dxfId="20" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((D3),LEN("R"))=("R")</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14350,25 +14377,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14380,487 +14407,639 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9180E-E31E-2D47-9384-8D5049DEA67E}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.33203125" style="185" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="185" customWidth="1"/>
-    <col min="4" max="4" width="70" style="185" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="185" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="185"/>
-    <col min="7" max="7" width="6.33203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="185" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="185" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="185"/>
+    <col min="1" max="1" width="20.33203125" style="185" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="196" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="185" customWidth="1"/>
+    <col min="5" max="5" width="70" style="185" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="185" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="185"/>
+    <col min="8" max="8" width="6.33203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="185" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="185" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="185"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="185" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="185" t="s">
+      <c r="C1" s="196" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="185" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="185" t="s">
+      <c r="H1" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="185" t="s">
+      <c r="J1" s="185" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="185" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="185" t="s">
+      <c r="D3" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="186" t="s">
+      <c r="E3" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="185" t="s">
+      <c r="G3" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="B5" s="185" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="186" t="s">
+      <c r="E5" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="185" t="s">
+      <c r="G5" s="185" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="185">
+      <c r="H5" s="185">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="185" t="s">
+    <row r="6" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="185" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="186" t="s">
+      <c r="E6" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="185" t="s">
+      <c r="G6" s="185" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="185">
+      <c r="H6" s="185">
         <v>38</v>
       </c>
-      <c r="H6" s="185">
-        <f>SUM(G5+G6)</f>
+      <c r="I6" s="185">
+        <f>SUM(H5+H6)</f>
         <v>72</v>
       </c>
-      <c r="I6" s="185">
+      <c r="J6" s="185">
         <v>53</v>
       </c>
-      <c r="J6" s="189">
+      <c r="K6" s="189">
         <f>SUM(72/53)</f>
         <v>1.3584905660377358</v>
       </c>
-      <c r="K6" s="185" t="s">
+      <c r="L6" s="185" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="185" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="B8" s="185" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="196">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="E8" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="185" t="s">
+      <c r="F8" s="185" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="G8" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="185" t="s">
+    <row r="9" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="185" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="196">
+        <v>0.35</v>
+      </c>
+      <c r="D9" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="186" t="s">
+      <c r="E9" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="185" t="s">
+      <c r="G9" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="B11" s="185" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="196">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="186" t="s">
+      <c r="E11" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="185" t="s">
+      <c r="F11" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="185" t="s">
+      <c r="G11" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="185" t="s">
+    <row r="12" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="185" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="196">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="186" t="s">
+      <c r="E12" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="185" t="s">
+      <c r="G12" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="185" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="185" t="s">
+      <c r="B14" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="196">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="186" t="s">
+      <c r="E14" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="185" t="s">
+      <c r="F14" s="185" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="185" t="s">
+      <c r="G14" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="185" t="s">
+    <row r="15" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="196">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="186" t="s">
+      <c r="E15" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="185" t="s">
+      <c r="F15" s="185" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="185" t="s">
+      <c r="G15" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="185" t="s">
+    <row r="16" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="196">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="186" t="s">
+      <c r="E16" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="185" t="s">
+      <c r="G16" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="185" t="s">
+      <c r="B18" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="196">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="186" t="s">
+      <c r="E18" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="185" t="s">
+      <c r="F18" s="185" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="185" t="s">
+      <c r="G18" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="185" t="s">
+    <row r="19" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="196">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="186" t="s">
+      <c r="E19" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="185" t="s">
+      <c r="G19" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="185" t="s">
+    <row r="20" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="196">
+        <v>0.22</v>
+      </c>
+      <c r="D20" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="186" t="s">
+      <c r="E20" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="185" t="s">
+      <c r="G20" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="185" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="185" t="s">
+      <c r="B22" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="186" t="s">
+      <c r="E22" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="185" t="s">
+      <c r="G22" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="185" t="s">
+    <row r="23" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="186" t="s">
+      <c r="E23" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="185" t="s">
+      <c r="G23" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="185" t="s">
+    <row r="24" spans="1:7" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="186" t="s">
+      <c r="E24" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="185" t="s">
+      <c r="G24" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="188" t="s">
+      <c r="B26" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="186" t="s">
+      <c r="E26" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="185" t="s">
+      <c r="G26" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="187" t="s">
+    <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="186" t="s">
+      <c r="E27" s="186" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="185" t="s">
+      <c r="G27" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="187" t="s">
+    <row r="28" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="186" t="s">
+      <c r="E28" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="185" t="s">
+      <c r="G28" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="185" t="s">
+      <c r="B30" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="186" t="s">
+      <c r="E30" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="185" t="s">
+      <c r="G30" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="185" t="s">
+    <row r="31" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="186" t="s">
+      <c r="E31" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="185" t="s">
+      <c r="G31" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="185" t="s">
+    <row r="32" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="186" t="s">
+      <c r="E32" s="186" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="185" t="s">
+      <c r="G32" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="185" t="s">
+      <c r="B34" s="185" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="186" t="s">
+      <c r="E34" s="186" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="185" t="s">
+      <c r="G34" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="185" t="s">
+    <row r="35" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="187" t="s">
+      <c r="E35" s="187" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="185" t="s">
+      <c r="G35" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="185" t="s">
+    <row r="36" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="187" t="s">
+      <c r="E36" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="185" t="s">
+      <c r="G36" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="185" t="s">
+    <row r="37" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="187" t="s">
+      <c r="E37" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="185" t="s">
+      <c r="G37" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="185" t="s">
+      <c r="B39" s="185" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="187" t="s">
+      <c r="E39" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="185" t="s">
+      <c r="G39" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="185" t="s">
+    <row r="40" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="185" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="187" t="s">
+      <c r="E40" s="187" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="185" t="s">
+      <c r="G40" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="185" t="s">
+    <row r="41" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="185" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="185" t="s">
+    <row r="42" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="185" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="D3 D5:D6">
-    <cfRule type="endsWith" dxfId="9" priority="15" operator="endsWith" text="*">
-      <formula>RIGHT((D3),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E3 E5:E6">
+    <cfRule type="endsWith" dxfId="10" priority="18" operator="endsWith" text="*">
+      <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
-    <cfRule type="endsWith" dxfId="8" priority="13" operator="endsWith" text="*">
-      <formula>RIGHT((D8),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="endsWith" dxfId="9" priority="16" operator="endsWith" text="*">
+      <formula>RIGHT((E8),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
-    <cfRule type="endsWith" dxfId="7" priority="11" operator="endsWith" text="*">
-      <formula>RIGHT((D11),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E11:E12">
+    <cfRule type="endsWith" dxfId="8" priority="14" operator="endsWith" text="*">
+      <formula>RIGHT((E11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D16">
-    <cfRule type="endsWith" dxfId="6" priority="9" operator="endsWith" text="*">
-      <formula>RIGHT((D14),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E14:E16">
+    <cfRule type="endsWith" dxfId="7" priority="12" operator="endsWith" text="*">
+      <formula>RIGHT((E14),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D20">
-    <cfRule type="endsWith" dxfId="5" priority="8" operator="endsWith" text="*">
-      <formula>RIGHT((D18),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E18:E20">
+    <cfRule type="endsWith" dxfId="6" priority="11" operator="endsWith" text="*">
+      <formula>RIGHT((E18),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
-    <cfRule type="endsWith" dxfId="4" priority="7" operator="endsWith" text="*">
-      <formula>RIGHT((D22),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E22:E24">
+    <cfRule type="endsWith" dxfId="5" priority="10" operator="endsWith" text="*">
+      <formula>RIGHT((E22),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="endsWith" dxfId="3" priority="5" operator="endsWith" text="*">
-      <formula>RIGHT((D26),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E26:E28">
+    <cfRule type="endsWith" dxfId="4" priority="8" operator="endsWith" text="*">
+      <formula>RIGHT((E26),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D32">
-    <cfRule type="endsWith" dxfId="2" priority="6" operator="endsWith" text="*">
-      <formula>RIGHT((D30),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E30:E32">
+    <cfRule type="endsWith" dxfId="3" priority="9" operator="endsWith" text="*">
+      <formula>RIGHT((E30),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="endsWith" dxfId="1" priority="3" operator="endsWith" text="*">
-      <formula>RIGHT((D34),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E34:E37">
+    <cfRule type="endsWith" dxfId="2" priority="6" operator="endsWith" text="*">
+      <formula>RIGHT((E34),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D40">
-    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="*">
-      <formula>RIGHT((D39),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E39:E40">
+    <cfRule type="endsWith" dxfId="1" priority="4" operator="endsWith" text="*">
+      <formula>RIGHT((E39),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD966"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD966"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C23">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8093EB7-FF9D-A047-893E-C4DCBBC552B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3637FF8F-90B1-D94C-83CA-21901FA91644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="500" windowWidth="20720" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="500" windowWidth="24820" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
     <sheet name="Electives" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Schedule" sheetId="4" r:id="rId4"/>
+    <sheet name="Schedule" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$2:$K$42</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="175">
   <si>
     <t>Course Code</t>
   </si>
@@ -528,9 +528,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>DTSA</t>
-  </si>
-  <si>
     <t>Finished for Credit</t>
   </si>
   <si>
@@ -543,12 +540,6 @@
     <t>Statistical Inference &amp; Hypothesis Testing inDS Apps</t>
   </si>
   <si>
-    <t>days in session</t>
-  </si>
-  <si>
-    <t>1.36 hours per day</t>
-  </si>
-  <si>
     <t>3 OF 9</t>
   </si>
   <si>
@@ -567,31 +558,30 @@
     <t>essay</t>
   </si>
   <si>
-    <t>percentage</t>
-  </si>
-  <si>
     <t>Proj</t>
   </si>
   <si>
-    <t>exam</t>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Course Description</t>
+  </si>
+  <si>
+    <t>15 courses where final is 20 percent or less</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -684,14 +674,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,6 +860,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1069,435 +1059,435 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1506,52 +1496,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="32" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="81">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2387,7 +2429,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>134</v>
@@ -2513,7 +2555,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="108" t="s">
         <v>13</v>
@@ -2627,7 +2669,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="108" t="s">
         <v>26</v>
@@ -3205,7 +3247,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="173" t="s">
         <v>136</v>
@@ -3248,42 +3290,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="75" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="80" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="73" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="78" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="71" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="76" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="70" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="75" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="73" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="71" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3312,43 +3354,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="70" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="69" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="61" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="66" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="60" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="65" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="59" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="64" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="57" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="62" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3490,7 +3532,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="186" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="95" t="s">
@@ -3896,7 +3938,7 @@
     </row>
     <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="172" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3924,47 +3966,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="endsWith" dxfId="56" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="61" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D17">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="52" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="57" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="51" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="56" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3993,98 +4035,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="49" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J3">
-    <cfRule type="containsText" dxfId="41" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="46" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
-    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J7">
-    <cfRule type="containsText" dxfId="39" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="44" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7">
-    <cfRule type="containsText" dxfId="38" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="43" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J10">
-    <cfRule type="containsText" dxfId="37" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="42" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J13">
-    <cfRule type="containsText" dxfId="36" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="41" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="35" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="40" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J15">
-    <cfRule type="containsText" dxfId="34" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="39" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:J17">
-    <cfRule type="containsText" dxfId="33" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="38" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="32" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="37" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K10">
-    <cfRule type="containsText" dxfId="31" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="36" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K13">
-    <cfRule type="containsText" dxfId="30" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="35" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="29" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="34" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="28" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="33" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K17">
-    <cfRule type="containsText" dxfId="27" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="32" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 K2:K3">
-    <cfRule type="containsText" dxfId="26" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="31" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4100,9 +4142,9 @@
   </sheetPr>
   <dimension ref="A1:AF1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4121,17 +4163,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="191"/>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
+      <c r="A1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5338,15 +5380,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="193" t="s">
+      <c r="E35" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="192"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="189"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -5359,15 +5401,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="193" t="s">
+      <c r="E36" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="192"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="189"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5413,15 +5455,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="193" t="s">
+      <c r="E38" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
-      <c r="J38" s="192"/>
-      <c r="K38" s="192"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="189"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5434,15 +5476,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="194" t="s">
+      <c r="E39" s="191" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="195"/>
-      <c r="K39" s="195"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="192"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -14296,7 +14338,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{8C91CB1A-E796-3343-9804-0D08AA5DE123}">
+      <autoFilter ref="A2:K42" xr:uid="{75BAD67C-9351-3043-9100-0313E659D61F}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14313,42 +14355,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="25" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="30" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="21" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="26" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="25" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14377,25 +14419,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14406,77 +14448,114 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9180E-E31E-2D47-9384-8D5049DEA67E}">
-  <dimension ref="A1:L42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF7805C-9A25-014E-8DE3-513BC4007718}">
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="185" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="196" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="185" customWidth="1"/>
-    <col min="5" max="5" width="70" style="185" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="185" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="185"/>
+    <col min="3" max="3" width="11.6640625" style="187" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.1640625" style="185" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="185" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="185"/>
-    <col min="8" max="8" width="6.33203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="185" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="185" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="185"/>
+    <col min="7" max="7" width="13.33203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="185"/>
+    <col min="10" max="10" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="185" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.83203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="185"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="185" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="185" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="196" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="187" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="185" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="185" t="s">
         <v>173</v>
       </c>
       <c r="G1" s="185" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H1" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="185" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="202"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="185" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="185" t="s">
+      <c r="C3" s="197">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="186" t="s">
+      <c r="E3" s="194" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="185" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="185">
+        <v>1</v>
+      </c>
+      <c r="K3" s="187">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="195" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="185">
+        <v>2</v>
+      </c>
+      <c r="K4" s="187">
+        <v>0.35</v>
+      </c>
+      <c r="L4" s="185" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="195" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="185" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="185" t="s">
+      <c r="B5" s="193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="197">
+        <v>0.17</v>
+      </c>
+      <c r="D5" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="186" t="s">
+      <c r="E5" s="194" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="185" t="s">
@@ -14485,15 +14564,30 @@
       <c r="H5" s="185">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="185" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="185" t="s">
+      <c r="J5" s="185">
+        <v>3</v>
+      </c>
+      <c r="K5" s="187">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L5" s="185" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="195" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="197">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="186" t="s">
+      <c r="E6" s="194" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="185" t="s">
@@ -14502,35 +14596,47 @@
       <c r="H6" s="185">
         <v>38</v>
       </c>
-      <c r="I6" s="185">
-        <f>SUM(H5+H6)</f>
-        <v>72</v>
-      </c>
       <c r="J6" s="185">
+        <v>4</v>
+      </c>
+      <c r="K6" s="187">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="189">
-        <f>SUM(72/53)</f>
-        <v>1.3584905660377358</v>
-      </c>
-      <c r="L6" s="185" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="185">
+        <v>5</v>
+      </c>
+      <c r="K7" s="187">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="185" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="195" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="185" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="185" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="196">
+        <v>170</v>
+      </c>
+      <c r="C8" s="187">
         <v>0.5</v>
       </c>
       <c r="D8" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="195" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="185" t="s">
@@ -14539,38 +14645,76 @@
       <c r="G8" s="185" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="185">
+        <v>6</v>
+      </c>
+      <c r="K8" s="187">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="185" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="195" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="185" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="196">
+        <v>170</v>
+      </c>
+      <c r="C9" s="187">
         <v>0.35</v>
       </c>
       <c r="D9" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="186" t="s">
+      <c r="E9" s="195" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="185" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="185">
+        <v>7</v>
+      </c>
+      <c r="K9" s="187">
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="185" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="195" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="185">
+        <v>8</v>
+      </c>
+      <c r="K10" s="187">
+        <v>0.22</v>
+      </c>
+      <c r="L10" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="195" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="185" t="s">
         <v>144</v>
       </c>
       <c r="B11" s="185" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="196">
+        <v>170</v>
+      </c>
+      <c r="C11" s="187">
         <v>0.28000000000000003</v>
       </c>
       <c r="D11" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="186" t="s">
+      <c r="E11" s="195" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="185" t="s">
@@ -14579,38 +14723,76 @@
       <c r="G11" s="185" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="185">
+        <v>9</v>
+      </c>
+      <c r="K11" s="187">
+        <v>0.33</v>
+      </c>
+      <c r="L11" s="185" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="195" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="185" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="196">
+        <v>170</v>
+      </c>
+      <c r="C12" s="187">
         <v>0.4</v>
       </c>
       <c r="D12" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="186" t="s">
+      <c r="E12" s="195" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="185" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="185">
+        <v>10</v>
+      </c>
+      <c r="K12" s="187">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="185" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="195" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="185">
+        <v>11</v>
+      </c>
+      <c r="K13" s="187">
+        <v>0.45</v>
+      </c>
+      <c r="L13" s="185" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="195" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="185" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="196">
+        <v>168</v>
+      </c>
+      <c r="C14" s="198">
         <v>0.2</v>
       </c>
-      <c r="D14" s="185" t="s">
+      <c r="D14" s="199" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="186" t="s">
+      <c r="E14" s="201" t="s">
         <v>82</v>
       </c>
       <c r="F14" s="185" t="s">
@@ -14619,18 +14801,30 @@
       <c r="G14" s="185" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="185">
+        <v>12</v>
+      </c>
+      <c r="K14" s="187">
+        <v>0.3</v>
+      </c>
+      <c r="L14" s="185" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="195" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="196">
+        <v>168</v>
+      </c>
+      <c r="C15" s="187">
         <v>0.5</v>
       </c>
       <c r="D15" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="186" t="s">
+      <c r="E15" s="195" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="185" t="s">
@@ -14639,38 +14833,50 @@
       <c r="G15" s="185" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="185">
+        <v>13</v>
+      </c>
+      <c r="K15" s="187">
+        <v>0.31</v>
+      </c>
+      <c r="L15" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="196" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="196">
+        <v>168</v>
+      </c>
+      <c r="C16" s="187">
         <v>0.3</v>
       </c>
       <c r="D16" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="186" t="s">
+      <c r="E16" s="195" t="s">
         <v>87</v>
       </c>
       <c r="G16" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="185" t="s">
         <v>146</v>
       </c>
       <c r="B18" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="196">
+      <c r="C18" s="187">
         <v>0.25</v>
       </c>
       <c r="D18" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="186" t="s">
+      <c r="E18" s="195" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="185" t="s">
@@ -14679,367 +14885,398 @@
       <c r="G18" s="185" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="185" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="196">
+      <c r="C19" s="198">
         <v>0.2</v>
       </c>
-      <c r="D19" s="185" t="s">
+      <c r="D19" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="186" t="s">
+      <c r="E19" s="201" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="196">
+      <c r="C20" s="187">
         <v>0.22</v>
       </c>
       <c r="D20" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="186" t="s">
+      <c r="E20" s="195" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="185" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="185" t="s">
         <v>147</v>
       </c>
       <c r="B22" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="C22" s="187">
+        <v>0.33</v>
+      </c>
       <c r="D22" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="186" t="s">
+      <c r="E22" s="195" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="25"/>
+        <v>168</v>
+      </c>
+      <c r="C23" s="187">
+        <v>0.3</v>
+      </c>
       <c r="D23" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="186" t="s">
+      <c r="E23" s="195" t="s">
         <v>78</v>
       </c>
       <c r="G23" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="28"/>
+        <v>168</v>
+      </c>
+      <c r="C24" s="187">
+        <v>0.45</v>
+      </c>
       <c r="D24" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="186" t="s">
+      <c r="E24" s="195" t="s">
         <v>80</v>
       </c>
       <c r="G24" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="185" t="s">
         <v>149</v>
       </c>
       <c r="B26" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="188" t="s">
+      <c r="C26" s="198">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="186" t="s">
+      <c r="E26" s="201" t="s">
         <v>66</v>
       </c>
       <c r="G26" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="187" t="s">
+      <c r="C27" s="198">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="186" t="s">
+      <c r="E27" s="201" t="s">
         <v>70</v>
       </c>
       <c r="G27" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="187" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="198">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="186" t="s">
+      <c r="E28" s="201" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="185" t="s">
         <v>150</v>
       </c>
       <c r="B30" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="185" t="s">
+      <c r="C30" s="198">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="186" t="s">
+      <c r="E30" s="201" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="185" t="s">
+      <c r="C31" s="198">
+        <v>0.2</v>
+      </c>
+      <c r="D31" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="186" t="s">
+      <c r="E31" s="201" t="s">
         <v>60</v>
       </c>
       <c r="G31" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="185" t="s">
+      <c r="C32" s="198">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="186" t="s">
+      <c r="E32" s="201" t="s">
         <v>63</v>
       </c>
       <c r="G32" s="185" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="185" t="s">
         <v>151</v>
       </c>
       <c r="B34" s="185" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="C34" s="187">
+        <v>0.3</v>
       </c>
       <c r="D34" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="186" t="s">
+      <c r="E34" s="195" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="198">
+        <v>0.2</v>
+      </c>
+      <c r="D35" s="199" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="187" t="s">
+      <c r="E35" s="200" t="s">
         <v>125</v>
       </c>
       <c r="G35" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="198">
+        <v>0.2</v>
+      </c>
+      <c r="D36" s="199" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="187" t="s">
+      <c r="E36" s="200" t="s">
         <v>127</v>
       </c>
       <c r="G36" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="198">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="199" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="187" t="s">
+      <c r="E37" s="200" t="s">
         <v>129</v>
       </c>
       <c r="G37" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="185" t="s">
         <v>152</v>
       </c>
       <c r="B39" s="185" t="s">
         <v>97</v>
       </c>
+      <c r="C39" s="187">
+        <v>0.31</v>
+      </c>
       <c r="D39" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="187" t="s">
+      <c r="E39" s="196" t="s">
         <v>119</v>
       </c>
       <c r="G39" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="185" t="s">
+      <c r="C40" s="198">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="199" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="187" t="s">
+      <c r="E40" s="200" t="s">
         <v>112</v>
       </c>
       <c r="G40" s="185" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="185" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="185" t="s">
-        <v>160</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="E3 E5:E6">
-    <cfRule type="endsWith" dxfId="10" priority="18" operator="endsWith" text="*">
+  <conditionalFormatting sqref="E3 E5:E6 M9:M10">
+    <cfRule type="endsWith" dxfId="15" priority="21" operator="endsWith" text="*">
       <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="endsWith" dxfId="9" priority="16" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="14" priority="20" operator="endsWith" text="*">
       <formula>RIGHT((E8),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="endsWith" dxfId="8" priority="14" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="13" priority="19" operator="endsWith" text="*">
       <formula>RIGHT((E11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="endsWith" dxfId="7" priority="12" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="12" priority="18" operator="endsWith" text="*">
       <formula>RIGHT((E14),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="endsWith" dxfId="6" priority="11" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="11" priority="17" operator="endsWith" text="*">
       <formula>RIGHT((E18),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E24">
-    <cfRule type="endsWith" dxfId="5" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="10" priority="16" operator="endsWith" text="*">
       <formula>RIGHT((E22),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E28">
-    <cfRule type="endsWith" dxfId="4" priority="8" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="9" priority="14" operator="endsWith" text="*">
       <formula>RIGHT((E26),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E32">
-    <cfRule type="endsWith" dxfId="3" priority="9" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="8" priority="15" operator="endsWith" text="*">
       <formula>RIGHT((E30),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E37">
-    <cfRule type="endsWith" dxfId="2" priority="6" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="7" priority="13" operator="endsWith" text="*">
       <formula>RIGHT((E34),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E40">
-    <cfRule type="endsWith" dxfId="1" priority="4" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="6" priority="12" operator="endsWith" text="*">
       <formula>RIGHT((E39),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFD966"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
+  <conditionalFormatting sqref="M3:M4">
+    <cfRule type="endsWith" dxfId="5" priority="7" operator="endsWith" text="*">
+      <formula>RIGHT((M3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFD966"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
+  <conditionalFormatting sqref="M5:M6">
+    <cfRule type="endsWith" dxfId="4" priority="6" operator="endsWith" text="*">
+      <formula>RIGHT((M5),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(I22))))</formula>
+  <conditionalFormatting sqref="M7:M8">
+    <cfRule type="endsWith" dxfId="3" priority="5" operator="endsWith" text="*">
+      <formula>RIGHT((M7),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M13">
+    <cfRule type="endsWith" dxfId="2" priority="3" operator="endsWith" text="*">
+      <formula>RIGHT((M11),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="endsWith" dxfId="1" priority="2" operator="endsWith" text="*">
+      <formula>RIGHT((M14),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="*">
+      <formula>RIGHT((M15),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3637FF8F-90B1-D94C-83CA-21901FA91644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F676CB7-4144-8947-BBCF-44EB3DA278D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="500" windowWidth="24820" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="500" windowWidth="16780" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="179">
   <si>
     <t>Course Code</t>
   </si>
@@ -571,17 +571,36 @@
   </si>
   <si>
     <t>15 courses where final is 20 percent or less</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>pct. Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course </t>
+  </si>
+  <si>
+    <t>course desc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1059,435 +1078,435 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1496,50 +1515,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="14" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="32" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="32" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1548,55 +1567,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="75">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3290,42 +3261,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="80" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="74" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="78" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="76" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="70" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="75" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="69" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3354,43 +3325,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="70" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="63" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="66" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="60" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="65" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="59" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="64" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="58" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="62" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="56" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3966,47 +3937,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="endsWith" dxfId="61" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="55" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D17">
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="53" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="57" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="51" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="50" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
-    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4035,98 +4006,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="43" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J3">
-    <cfRule type="containsText" dxfId="46" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="40" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
-    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J7">
-    <cfRule type="containsText" dxfId="44" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7">
-    <cfRule type="containsText" dxfId="43" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J10">
-    <cfRule type="containsText" dxfId="42" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="36" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J13">
-    <cfRule type="containsText" dxfId="41" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="35" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="40" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="34" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J15">
-    <cfRule type="containsText" dxfId="39" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="33" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:J17">
-    <cfRule type="containsText" dxfId="38" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="32" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="37" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="31" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K10">
-    <cfRule type="containsText" dxfId="36" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="30" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K13">
-    <cfRule type="containsText" dxfId="35" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="29" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="34" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="28" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="33" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="27" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K17">
-    <cfRule type="containsText" dxfId="32" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="26" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 K2:K3">
-    <cfRule type="containsText" dxfId="31" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="25" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4163,17 +4134,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="188"/>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
+      <c r="A1" s="197"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5380,15 +5351,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="190" t="s">
+      <c r="E35" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="189"/>
-      <c r="K35" s="189"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="198"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -5401,15 +5372,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="190" t="s">
+      <c r="E36" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="189"/>
-      <c r="K36" s="189"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="198"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5455,15 +5426,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="190" t="s">
+      <c r="E38" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="189"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="189"/>
-      <c r="K38" s="189"/>
+      <c r="F38" s="198"/>
+      <c r="G38" s="198"/>
+      <c r="H38" s="198"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="198"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5476,15 +5447,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="191" t="s">
+      <c r="E39" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="192"/>
-      <c r="K39" s="192"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="201"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -14338,7 +14309,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{75BAD67C-9351-3043-9100-0313E659D61F}">
+      <autoFilter ref="A2:K42" xr:uid="{4866CFC3-0FE3-2446-97EC-BEFE97443051}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14355,42 +14326,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="30" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="24" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="26" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="20" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="19" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14419,25 +14390,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14451,8 +14422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF7805C-9A25-014E-8DE3-513BC4007718}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14466,7 +14437,7 @@
     <col min="7" max="7" width="13.33203125" style="185" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.83203125" style="185"/>
     <col min="10" max="10" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="185" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="185" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.83203125" style="185" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="185"/>
@@ -14494,68 +14465,93 @@
       <c r="H1" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="202"/>
+      <c r="J1" s="185" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="185" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="187" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="185" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="185">
+        <v>1</v>
+      </c>
+      <c r="K2" s="187">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="190" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="185" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="197">
+      <c r="C3" s="192">
         <v>0.16</v>
       </c>
-      <c r="D3" s="193" t="s">
+      <c r="D3" s="188" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="194" t="s">
+      <c r="E3" s="189" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="185" t="s">
         <v>158</v>
       </c>
       <c r="J3" s="185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3" s="187">
         <v>0.5</v>
       </c>
       <c r="L3" s="185" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="195" t="s">
-        <v>39</v>
+        <v>83</v>
+      </c>
+      <c r="M3" s="190" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J4" s="185">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K4" s="187">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="L4" s="185" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="195" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+      <c r="M4" s="190" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="193" t="s">
+      <c r="B5" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="197">
+      <c r="C5" s="192">
         <v>0.17</v>
       </c>
-      <c r="D5" s="193" t="s">
+      <c r="D5" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="194" t="s">
+      <c r="E5" s="189" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="185" t="s">
@@ -14565,29 +14561,29 @@
         <v>34</v>
       </c>
       <c r="J5" s="185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="187">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="L5" s="185" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="195" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="M5" s="190" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="197">
+      <c r="C6" s="192">
         <v>0.1</v>
       </c>
-      <c r="D6" s="193" t="s">
+      <c r="D6" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="194" t="s">
+      <c r="E6" s="189" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="185" t="s">
@@ -14597,30 +14593,30 @@
         <v>38</v>
       </c>
       <c r="J6" s="185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" s="187">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="L6" s="185" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="195" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="M6" s="190" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J7" s="185">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K7" s="187">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="L7" s="185" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="195" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="M7" s="190" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14636,7 +14632,7 @@
       <c r="D8" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="195" t="s">
+      <c r="E8" s="190" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="185" t="s">
@@ -14646,16 +14642,16 @@
         <v>158</v>
       </c>
       <c r="J8" s="185">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K8" s="187">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="L8" s="185" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="195" t="s">
-        <v>87</v>
+        <v>118</v>
+      </c>
+      <c r="M8" s="191" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14668,37 +14664,37 @@
       <c r="D9" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="195" t="s">
+      <c r="E9" s="190" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="185" t="s">
         <v>158</v>
       </c>
       <c r="J9" s="185">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K9" s="187">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="L9" s="185" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="195" t="s">
-        <v>25</v>
+        <v>77</v>
+      </c>
+      <c r="M9" s="190" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J10" s="185">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K10" s="187">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="L10" s="185" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="195" t="s">
-        <v>36</v>
+        <v>89</v>
+      </c>
+      <c r="M10" s="190" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14714,7 +14710,7 @@
       <c r="D11" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="195" t="s">
+      <c r="E11" s="190" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="185" t="s">
@@ -14724,16 +14720,16 @@
         <v>158</v>
       </c>
       <c r="J11" s="185">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K11" s="187">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="L11" s="185" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="195" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="M11" s="190" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14746,37 +14742,37 @@
       <c r="D12" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="195" t="s">
+      <c r="E12" s="190" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="185" t="s">
         <v>158</v>
       </c>
       <c r="J12" s="185">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K12" s="187">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L12" s="185" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="195" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="M12" s="190" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J13" s="185">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K13" s="187">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="L13" s="185" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="195" t="s">
-        <v>80</v>
+        <v>24</v>
+      </c>
+      <c r="M13" s="190" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14786,13 +14782,13 @@
       <c r="B14" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="198">
+      <c r="C14" s="193">
         <v>0.2</v>
       </c>
-      <c r="D14" s="199" t="s">
+      <c r="D14" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="201" t="s">
+      <c r="E14" s="196" t="s">
         <v>82</v>
       </c>
       <c r="F14" s="185" t="s">
@@ -14802,16 +14798,16 @@
         <v>158</v>
       </c>
       <c r="J14" s="185">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K14" s="187">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="L14" s="185" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="195" t="s">
-        <v>90</v>
+        <v>35</v>
+      </c>
+      <c r="M14" s="190" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14824,7 +14820,7 @@
       <c r="D15" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="195" t="s">
+      <c r="E15" s="190" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="185" t="s">
@@ -14832,18 +14828,6 @@
       </c>
       <c r="G15" s="185" t="s">
         <v>158</v>
-      </c>
-      <c r="J15" s="185">
-        <v>13</v>
-      </c>
-      <c r="K15" s="187">
-        <v>0.31</v>
-      </c>
-      <c r="L15" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="M15" s="196" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14856,11 +14840,16 @@
       <c r="D16" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="195" t="s">
+      <c r="E16" s="190" t="s">
         <v>87</v>
       </c>
       <c r="G16" s="185" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="185" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14876,7 +14865,7 @@
       <c r="D18" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="195" t="s">
+      <c r="E18" s="190" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="185" t="s">
@@ -14884,22 +14873,19 @@
       </c>
       <c r="G18" s="185" t="s">
         <v>158</v>
-      </c>
-      <c r="J18" s="185" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="198">
+      <c r="C19" s="193">
         <v>0.2</v>
       </c>
-      <c r="D19" s="199" t="s">
+      <c r="D19" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="201" t="s">
+      <c r="E19" s="196" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="185" t="s">
@@ -14916,7 +14902,7 @@
       <c r="D20" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="195" t="s">
+      <c r="E20" s="190" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="185" t="s">
@@ -14941,7 +14927,7 @@
       <c r="D22" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="195" t="s">
+      <c r="E22" s="190" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="185" t="s">
@@ -14958,7 +14944,7 @@
       <c r="D23" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="195" t="s">
+      <c r="E23" s="190" t="s">
         <v>78</v>
       </c>
       <c r="G23" s="185" t="s">
@@ -14975,7 +14961,7 @@
       <c r="D24" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="195" t="s">
+      <c r="E24" s="190" t="s">
         <v>80</v>
       </c>
       <c r="G24" s="185" t="s">
@@ -14989,13 +14975,13 @@
       <c r="B26" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="198">
+      <c r="C26" s="193">
         <v>0.2</v>
       </c>
-      <c r="D26" s="200" t="s">
+      <c r="D26" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="201" t="s">
+      <c r="E26" s="196" t="s">
         <v>66</v>
       </c>
       <c r="G26" s="185" t="s">
@@ -15006,13 +14992,13 @@
       <c r="B27" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="198">
+      <c r="C27" s="193">
         <v>0.2</v>
       </c>
-      <c r="D27" s="200" t="s">
+      <c r="D27" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="201" t="s">
+      <c r="E27" s="196" t="s">
         <v>70</v>
       </c>
       <c r="G27" s="185" t="s">
@@ -15023,13 +15009,13 @@
       <c r="B28" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="198">
+      <c r="C28" s="193">
         <v>0.1</v>
       </c>
-      <c r="D28" s="200" t="s">
+      <c r="D28" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="201" t="s">
+      <c r="E28" s="196" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="185" t="s">
@@ -15043,13 +15029,13 @@
       <c r="B30" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="198">
+      <c r="C30" s="193">
         <v>0.2</v>
       </c>
-      <c r="D30" s="199" t="s">
+      <c r="D30" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="201" t="s">
+      <c r="E30" s="202" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="185" t="s">
@@ -15060,13 +15046,13 @@
       <c r="B31" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="198">
+      <c r="C31" s="193">
         <v>0.2</v>
       </c>
-      <c r="D31" s="199" t="s">
+      <c r="D31" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="201" t="s">
+      <c r="E31" s="196" t="s">
         <v>60</v>
       </c>
       <c r="G31" s="185" t="s">
@@ -15077,13 +15063,13 @@
       <c r="B32" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="198">
+      <c r="C32" s="193">
         <v>0.2</v>
       </c>
-      <c r="D32" s="199" t="s">
+      <c r="D32" s="194" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="201" t="s">
+      <c r="E32" s="196" t="s">
         <v>63</v>
       </c>
       <c r="G32" s="185" t="s">
@@ -15103,7 +15089,7 @@
       <c r="D34" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="195" t="s">
+      <c r="E34" s="190" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="185" t="s">
@@ -15114,13 +15100,13 @@
       <c r="B35" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="198">
+      <c r="C35" s="193">
         <v>0.2</v>
       </c>
-      <c r="D35" s="199" t="s">
+      <c r="D35" s="194" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="200" t="s">
+      <c r="E35" s="195" t="s">
         <v>125</v>
       </c>
       <c r="G35" s="185" t="s">
@@ -15131,13 +15117,13 @@
       <c r="B36" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="198">
+      <c r="C36" s="193">
         <v>0.2</v>
       </c>
-      <c r="D36" s="199" t="s">
+      <c r="D36" s="194" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="200" t="s">
+      <c r="E36" s="195" t="s">
         <v>127</v>
       </c>
       <c r="G36" s="185" t="s">
@@ -15148,13 +15134,13 @@
       <c r="B37" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="198">
+      <c r="C37" s="193">
         <v>0.2</v>
       </c>
-      <c r="D37" s="199" t="s">
+      <c r="D37" s="194" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="200" t="s">
+      <c r="E37" s="195" t="s">
         <v>129</v>
       </c>
       <c r="G37" s="185" t="s">
@@ -15174,7 +15160,7 @@
       <c r="D39" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="196" t="s">
+      <c r="E39" s="191" t="s">
         <v>119</v>
       </c>
       <c r="G39" s="185" t="s">
@@ -15185,13 +15171,13 @@
       <c r="B40" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="198">
+      <c r="C40" s="193">
         <v>0.1</v>
       </c>
-      <c r="D40" s="199" t="s">
+      <c r="D40" s="194" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="200" t="s">
+      <c r="E40" s="195" t="s">
         <v>112</v>
       </c>
       <c r="G40" s="185" t="s">
@@ -15199,84 +15185,54 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 E5:E6 M9:M10">
-    <cfRule type="endsWith" dxfId="15" priority="21" operator="endsWith" text="*">
-      <formula>RIGHT((E3),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E3 E5:E6 M2:M14">
+    <cfRule type="endsWith" dxfId="9" priority="21" operator="endsWith" text="*">
+      <formula>RIGHT((E2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="endsWith" dxfId="14" priority="20" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="8" priority="20" operator="endsWith" text="*">
       <formula>RIGHT((E8),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="endsWith" dxfId="13" priority="19" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="7" priority="19" operator="endsWith" text="*">
       <formula>RIGHT((E11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="endsWith" dxfId="12" priority="18" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="6" priority="18" operator="endsWith" text="*">
       <formula>RIGHT((E14),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="endsWith" dxfId="11" priority="17" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="5" priority="17" operator="endsWith" text="*">
       <formula>RIGHT((E18),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E24">
-    <cfRule type="endsWith" dxfId="10" priority="16" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="4" priority="16" operator="endsWith" text="*">
       <formula>RIGHT((E22),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E28">
-    <cfRule type="endsWith" dxfId="9" priority="14" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="3" priority="14" operator="endsWith" text="*">
       <formula>RIGHT((E26),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E32">
-    <cfRule type="endsWith" dxfId="8" priority="15" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="2" priority="15" operator="endsWith" text="*">
       <formula>RIGHT((E30),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E37">
-    <cfRule type="endsWith" dxfId="7" priority="13" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="1" priority="13" operator="endsWith" text="*">
       <formula>RIGHT((E34),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E40">
-    <cfRule type="endsWith" dxfId="6" priority="12" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="0" priority="12" operator="endsWith" text="*">
       <formula>RIGHT((E39),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M4">
-    <cfRule type="endsWith" dxfId="5" priority="7" operator="endsWith" text="*">
-      <formula>RIGHT((M3),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
-    <cfRule type="endsWith" dxfId="4" priority="6" operator="endsWith" text="*">
-      <formula>RIGHT((M5),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M8">
-    <cfRule type="endsWith" dxfId="3" priority="5" operator="endsWith" text="*">
-      <formula>RIGHT((M7),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M13">
-    <cfRule type="endsWith" dxfId="2" priority="3" operator="endsWith" text="*">
-      <formula>RIGHT((M11),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="endsWith" dxfId="1" priority="2" operator="endsWith" text="*">
-      <formula>RIGHT((M14),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="*">
-      <formula>RIGHT((M15),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F676CB7-4144-8947-BBCF-44EB3DA278D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494CE952-D24B-5F47-88DF-A4A3D65E315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="500" windowWidth="16780" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14460" yWindow="500" windowWidth="19140" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
     <sheet name="Electives" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Schedule" sheetId="5" r:id="rId4"/>
+    <sheet name="Schedule 2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$2:$K$42</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="179">
   <si>
     <t>Course Code</t>
   </si>
@@ -589,7 +590,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -693,8 +694,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,6 +893,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,7 +1096,7 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1547,6 +1562,9 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1558,16 +1576,80 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="33" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="82">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3261,42 +3343,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="74" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="81" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="80" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="79" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="70" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="77" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="69" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="76" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3325,43 +3407,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="70" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="60" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="67" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="59" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="66" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="58" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="65" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="56" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="63" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3937,47 +4019,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="endsWith" dxfId="55" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="62" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D17">
-    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="53" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="60" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="51" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="58" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="57" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="53" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4006,98 +4088,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J3">
-    <cfRule type="containsText" dxfId="40" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="47" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
-    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="46" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J7">
-    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7">
-    <cfRule type="containsText" dxfId="37" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="44" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J10">
-    <cfRule type="containsText" dxfId="36" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="43" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J13">
-    <cfRule type="containsText" dxfId="35" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="42" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="34" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="41" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J15">
-    <cfRule type="containsText" dxfId="33" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="40" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:J17">
-    <cfRule type="containsText" dxfId="32" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="39" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="31" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="38" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K10">
-    <cfRule type="containsText" dxfId="30" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="37" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K13">
-    <cfRule type="containsText" dxfId="29" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="36" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="28" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="35" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="27" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="34" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K17">
-    <cfRule type="containsText" dxfId="26" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="33" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 K2:K3">
-    <cfRule type="containsText" dxfId="25" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="32" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4134,17 +4216,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="197"/>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
+      <c r="A1" s="198"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5351,15 +5433,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="199" t="s">
+      <c r="E35" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="198"/>
-      <c r="G35" s="198"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="198"/>
-      <c r="K35" s="198"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="199"/>
+      <c r="H35" s="199"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="199"/>
+      <c r="K35" s="199"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -5372,15 +5454,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="199" t="s">
+      <c r="E36" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="198"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="198"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="198"/>
-      <c r="K36" s="198"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="199"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="199"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5426,15 +5508,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="199" t="s">
+      <c r="E38" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="198"/>
-      <c r="G38" s="198"/>
-      <c r="H38" s="198"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="198"/>
-      <c r="K38" s="198"/>
+      <c r="F38" s="199"/>
+      <c r="G38" s="199"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="199"/>
+      <c r="K38" s="199"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5447,15 +5529,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="200" t="s">
+      <c r="E39" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="201"/>
-      <c r="K39" s="201"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="202"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="202"/>
+      <c r="K39" s="202"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -14309,7 +14391,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{4866CFC3-0FE3-2446-97EC-BEFE97443051}">
+      <autoFilter ref="A2:K42" xr:uid="{343C4DD0-6B70-7D46-921F-327F6C0AFD21}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14326,42 +14408,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="24" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="31" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="20" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="27" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="26" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14390,25 +14472,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14422,8 +14504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF7805C-9A25-014E-8DE3-513BC4007718}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15035,7 +15117,7 @@
       <c r="D30" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="202" t="s">
+      <c r="E30" s="197" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="185" t="s">
@@ -15185,54 +15267,858 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 E5:E6 M2:M14">
-    <cfRule type="endsWith" dxfId="9" priority="21" operator="endsWith" text="*">
-      <formula>RIGHT((E2),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="endsWith" dxfId="8" priority="20" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="16" priority="20" operator="endsWith" text="*">
       <formula>RIGHT((E8),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="endsWith" dxfId="7" priority="19" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="15" priority="19" operator="endsWith" text="*">
       <formula>RIGHT((E11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="endsWith" dxfId="6" priority="18" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="14" priority="18" operator="endsWith" text="*">
       <formula>RIGHT((E14),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="endsWith" dxfId="5" priority="17" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="13" priority="17" operator="endsWith" text="*">
       <formula>RIGHT((E18),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E24">
-    <cfRule type="endsWith" dxfId="4" priority="16" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="12" priority="16" operator="endsWith" text="*">
       <formula>RIGHT((E22),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E28">
-    <cfRule type="endsWith" dxfId="3" priority="14" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="11" priority="14" operator="endsWith" text="*">
       <formula>RIGHT((E26),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E32">
-    <cfRule type="endsWith" dxfId="2" priority="15" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="10" priority="15" operator="endsWith" text="*">
       <formula>RIGHT((E30),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E37">
-    <cfRule type="endsWith" dxfId="1" priority="13" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="9" priority="13" operator="endsWith" text="*">
       <formula>RIGHT((E34),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E40">
-    <cfRule type="endsWith" dxfId="0" priority="12" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="8" priority="12" operator="endsWith" text="*">
       <formula>RIGHT((E39),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M14 E3 E5:E6">
+    <cfRule type="endsWith" dxfId="7" priority="21" operator="endsWith" text="*">
+      <formula>RIGHT((E2),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2002B0-CD3E-3243-9D7D-6B4B46807CF5}">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="185" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="185"/>
+    <col min="3" max="3" width="11.6640625" style="187" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.1640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="185" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="185"/>
+    <col min="10" max="10" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.83203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="185"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="206" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="206" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="206" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="207" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="206" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="206" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="206" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="206" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="207" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="206" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="185">
+        <v>1</v>
+      </c>
+      <c r="K2" s="187">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="190" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="185" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="192">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="188" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="189" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="185">
+        <v>5</v>
+      </c>
+      <c r="K3" s="187">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="185" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="190" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="185">
+        <v>11</v>
+      </c>
+      <c r="K4" s="187">
+        <v>0.45</v>
+      </c>
+      <c r="L4" s="185" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="190" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="185" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="192">
+        <v>0.17</v>
+      </c>
+      <c r="D5" s="188" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="189" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="185">
+        <v>34</v>
+      </c>
+      <c r="J5" s="185">
+        <v>4</v>
+      </c>
+      <c r="K5" s="187">
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="190" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="192">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="188" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="189" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="185">
+        <v>38</v>
+      </c>
+      <c r="J6" s="185">
+        <v>2</v>
+      </c>
+      <c r="K6" s="187">
+        <v>0.35</v>
+      </c>
+      <c r="L6" s="185" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="190" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="185">
+        <v>9</v>
+      </c>
+      <c r="K7" s="187">
+        <v>0.33</v>
+      </c>
+      <c r="L7" s="185" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="190" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="185" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="187">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="190" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="185" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="185">
+        <v>13</v>
+      </c>
+      <c r="K8" s="187">
+        <v>0.31</v>
+      </c>
+      <c r="L8" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="191" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="187">
+        <v>0.35</v>
+      </c>
+      <c r="D9" s="185" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="190" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="J9" s="185">
+        <v>10</v>
+      </c>
+      <c r="K9" s="187">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="185" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="190" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="187">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D10" s="185" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="190" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="185">
+        <v>12</v>
+      </c>
+      <c r="K10" s="187">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="185" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="190" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="190"/>
+      <c r="K11" s="187"/>
+      <c r="M11" s="190"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="185" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="187">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="190" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="185">
+        <v>6</v>
+      </c>
+      <c r="K12" s="187">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="185" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="190" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="187">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="185" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="185">
+        <v>3</v>
+      </c>
+      <c r="K13" s="187">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L13" s="185" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="190" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="194" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="196" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="185">
+        <v>7</v>
+      </c>
+      <c r="K14" s="187">
+        <v>0.25</v>
+      </c>
+      <c r="L14" s="185" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="190" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="203" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="204"/>
+      <c r="E15" s="205"/>
+      <c r="K15" s="204"/>
+      <c r="M15" s="205"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="185" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="194" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="196" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="185">
+        <v>8</v>
+      </c>
+      <c r="K16" s="187">
+        <v>0.22</v>
+      </c>
+      <c r="L16" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="190" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="187">
+        <v>0.22</v>
+      </c>
+      <c r="D17" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="190" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="185"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="185" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="187">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="185" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="190" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="187">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="185" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="190" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="185" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="185"/>
+    </row>
+    <row r="22" spans="1:7" s="209" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="208" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="210"/>
+    </row>
+    <row r="23" spans="1:7" s="203" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="211"/>
+      <c r="C23" s="204"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="185" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="187">
+        <v>0.33</v>
+      </c>
+      <c r="D24" s="185" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="190" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="187">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="185" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="190" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="187">
+        <v>0.45</v>
+      </c>
+      <c r="D26" s="185" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="185" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="195" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="196" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="196" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="193">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="195" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="196" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="185" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="197" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="194" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D34" s="194" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="196" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="185" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="185" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="187">
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="185" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="190" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="185" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="194" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="195" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="185" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="194" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="195" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="185" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D39" s="194" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="185" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="185" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="185" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="187">
+        <v>0.31</v>
+      </c>
+      <c r="D41" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="191" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="185" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="193">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="194" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="195" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="185" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E19:E20 E8:E17">
+    <cfRule type="endsWith" dxfId="6" priority="9" operator="endsWith" text="*">
+      <formula>RIGHT((E8),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E26">
+    <cfRule type="endsWith" dxfId="5" priority="5" operator="endsWith" text="*">
+      <formula>RIGHT((E24),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E30">
+    <cfRule type="endsWith" dxfId="4" priority="3" operator="endsWith" text="*">
+      <formula>RIGHT((E28),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E34">
+    <cfRule type="endsWith" dxfId="3" priority="4" operator="endsWith" text="*">
+      <formula>RIGHT((E32),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E39">
+    <cfRule type="endsWith" dxfId="2" priority="2" operator="endsWith" text="*">
+      <formula>RIGHT((E36),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:E42">
+    <cfRule type="endsWith" dxfId="1" priority="1" operator="endsWith" text="*">
+      <formula>RIGHT((E41),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M16 E3 E5:E6">
+    <cfRule type="endsWith" dxfId="0" priority="10" operator="endsWith" text="*">
+      <formula>RIGHT((E2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494CE952-D24B-5F47-88DF-A4A3D65E315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBED133-0EBA-844A-B4FA-59087FCD4E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14460" yWindow="500" windowWidth="19140" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,7 +1096,7 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1565,6 +1565,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="33" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1576,17 +1582,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="14" fillId="33" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1757,16 +1752,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1781,8 +1776,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1797,8 +1792,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1813,8 +1816,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1823,14 +1826,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1989,8 +1984,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2005,8 +2000,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2021,16 +2016,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2045,8 +2040,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2061,8 +2064,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2071,14 +2074,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2149,8 +2144,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2165,8 +2160,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2181,8 +2184,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2197,8 +2200,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2207,14 +2210,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3361,25 +3356,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="77" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="77" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="76" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="76" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="75" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="73" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
@@ -3407,14 +3402,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
@@ -4029,33 +4024,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="60" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="58" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="58" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="57" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
@@ -4088,14 +4083,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
@@ -4216,17 +4211,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="198"/>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
+      <c r="A1" s="204"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5433,15 +5428,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="200" t="s">
+      <c r="E35" s="206" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="199"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="205"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -5454,15 +5449,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="200" t="s">
+      <c r="E36" s="206" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="199"/>
-      <c r="G36" s="199"/>
-      <c r="H36" s="199"/>
-      <c r="I36" s="199"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="199"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="205"/>
+      <c r="I36" s="205"/>
+      <c r="J36" s="205"/>
+      <c r="K36" s="205"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5508,15 +5503,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="200" t="s">
+      <c r="E38" s="206" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="199"/>
-      <c r="G38" s="199"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="199"/>
-      <c r="K38" s="199"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="205"/>
+      <c r="K38" s="205"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5529,15 +5524,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="201" t="s">
+      <c r="E39" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="202"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="202"/>
-      <c r="K39" s="202"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="208"/>
+      <c r="K39" s="208"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -14391,7 +14386,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{343C4DD0-6B70-7D46-921F-327F6C0AFD21}">
+      <autoFilter ref="A2:K42" xr:uid="{7CD8257A-98BA-B740-A788-8EE2353FD84F}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14418,30 +14413,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="27" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="27" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="26" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
@@ -14472,11 +14467,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
@@ -15326,7 +15321,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15346,38 +15341,38 @@
     <col min="14" max="16384" width="10.83203125" style="185"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="206" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="206" t="s">
+    <row r="1" spans="1:13" s="199" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="199" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="206" t="s">
+      <c r="B1" s="199" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="200" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="199" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="206" t="s">
+      <c r="E1" s="199" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="206" t="s">
+      <c r="G1" s="199" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="206" t="s">
+      <c r="H1" s="199" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="206" t="s">
+      <c r="J1" s="199" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="206" t="s">
+      <c r="K1" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="207" t="s">
+      <c r="L1" s="200" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="206" t="s">
+      <c r="M1" s="199" t="s">
         <v>178</v>
       </c>
     </row>
@@ -15558,16 +15553,16 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="187">
+      <c r="B9" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="192">
         <v>0.35</v>
       </c>
-      <c r="D9" s="185" t="s">
+      <c r="D9" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="190" t="s">
+      <c r="E9" s="189" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="185" t="s">
@@ -15707,11 +15702,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="203" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="204"/>
-      <c r="E15" s="205"/>
-      <c r="K15" s="204"/>
-      <c r="M15" s="205"/>
+    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="198"/>
+      <c r="E15" s="190"/>
+      <c r="K15" s="198"/>
+      <c r="M15" s="190"/>
     </row>
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="185" t="s">
@@ -15805,15 +15800,15 @@
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="185"/>
     </row>
-    <row r="22" spans="1:7" s="209" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="208" t="s">
+    <row r="22" spans="1:7" s="202" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="201" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="210"/>
-    </row>
-    <row r="23" spans="1:7" s="203" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="211"/>
-      <c r="C23" s="204"/>
+      <c r="C22" s="203"/>
+    </row>
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="199"/>
+      <c r="C23" s="198"/>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="185" t="s">
@@ -16086,7 +16081,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E19:E20 E8:E17">
+  <conditionalFormatting sqref="E8:E17 E19:E20">
     <cfRule type="endsWith" dxfId="6" priority="9" operator="endsWith" text="*">
       <formula>RIGHT((E8),LEN("*"))=("*")</formula>
     </cfRule>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBED133-0EBA-844A-B4FA-59087FCD4E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C104D4E2-C20E-634B-9350-3ADB6C50566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="500" windowWidth="19140" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12560" yWindow="500" windowWidth="19140" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Schedule" sheetId="5" r:id="rId4"/>
     <sheet name="Schedule 2" sheetId="6" r:id="rId5"/>
+    <sheet name="Finals" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$2:$K$42</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="182">
   <si>
     <t>Course Code</t>
   </si>
@@ -584,13 +585,26 @@
   </si>
   <si>
     <t>course desc.</t>
+  </si>
+  <si>
+    <t>A full report where you cover what you did, the visualizations you created to find insights including why you chose those particular visualizations and what insights you where able to find.</t>
+  </si>
+  <si>
+    <t>final description from slack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Final Submission for the credit course is a compilation of the discussion posts and accounts for 35% of total grade.  Remember, if you post discussions in the non-credit course, you will lose access to those posts if/when you switch to the credit course.From the Submission Instructions:
+For this final assignment, you will revisit your answer to a specific discussion board question (or portion of it) from each of the five weeks of this course. In each case, you may:
+a) repeat your answer exactly as you gave it originally, or
+b) revise and expand upon your original answer, or
+c) start anew in answering the question. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -697,6 +711,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1096,7 +1118,7 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1582,6 +1604,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1752,16 +1784,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1776,8 +1808,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1792,8 +1824,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1808,8 +1848,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1818,14 +1858,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1984,8 +2016,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2000,8 +2032,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2016,8 +2048,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFD5A6BD"/>
           <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2032,16 +2080,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2056,8 +2096,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2066,14 +2106,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2144,8 +2176,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2160,8 +2192,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2176,8 +2216,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2192,8 +2232,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2202,14 +2242,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3356,25 +3388,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="77" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="77" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((F2),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="76" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="76" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="75" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
@@ -3402,14 +3434,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
@@ -4024,33 +4056,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="60" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="58" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="58" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((E2),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="57" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="53" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
@@ -4083,14 +4115,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
@@ -4190,7 +4222,7 @@
   </sheetPr>
   <dimension ref="A1:AF1012"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
@@ -14386,7 +14418,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{7CD8257A-98BA-B740-A788-8EE2353FD84F}">
+      <autoFilter ref="A2:K42" xr:uid="{47DDAC26-A9B7-7D44-9282-3793739B1EE7}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14413,30 +14445,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="27" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="27" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((D3),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="26" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
@@ -14467,11 +14499,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
@@ -14499,8 +14531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF7805C-9A25-014E-8DE3-513BC4007718}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14732,16 +14764,16 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="187">
+      <c r="B9" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="192">
         <v>0.35</v>
       </c>
-      <c r="D9" s="185" t="s">
+      <c r="D9" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="190" t="s">
+      <c r="E9" s="189" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="185" t="s">
@@ -15320,7 +15352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2002B0-CD3E-3243-9D7D-6B4B46807CF5}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -16118,4 +16150,47 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270BECA4-6AAE-274B-B7D6-00511C3836D6}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="174"/>
+    <col min="2" max="2" width="90.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="209" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="212" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="209" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="173">
+        <v>5303</v>
+      </c>
+      <c r="B2" s="210" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="173">
+        <v>5304</v>
+      </c>
+      <c r="B3" s="210" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C104D4E2-C20E-634B-9350-3ADB6C50566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950D1D93-F159-3A4B-AF95-600CA8D18BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="500" windowWidth="19140" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12560" yWindow="500" windowWidth="19140" windowHeight="20500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -2491,7 +2491,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="A9:XFD9"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14531,7 +14531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF7805C-9A25-014E-8DE3-513BC4007718}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -16156,8 +16156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270BECA4-6AAE-274B-B7D6-00511C3836D6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950D1D93-F159-3A4B-AF95-600CA8D18BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E8B3A-880A-9E45-8259-C34A6B1B9879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="500" windowWidth="19140" windowHeight="20500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12560" yWindow="500" windowWidth="19140" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Courses" sheetId="3" r:id="rId1"/>
@@ -1593,6 +1593,16 @@
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="14" fillId="33" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1604,39 +1614,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="82">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3370,42 +3354,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="81" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="79" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="80" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="78" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="79" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="77" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="75" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="76" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="74" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3434,43 +3418,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="67" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="65" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="66" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="64" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="65" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="63" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="63" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="61" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4046,47 +4030,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="endsWith" dxfId="62" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="60" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D17">
-    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="60" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="58" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="56" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="55" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
-    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4115,98 +4099,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J3">
-    <cfRule type="containsText" dxfId="47" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="45" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
-    <cfRule type="containsText" dxfId="46" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J7">
-    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="43" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7">
-    <cfRule type="containsText" dxfId="44" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="42" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J10">
-    <cfRule type="containsText" dxfId="43" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="41" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J13">
-    <cfRule type="containsText" dxfId="42" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="40" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="41" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="39" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J15">
-    <cfRule type="containsText" dxfId="40" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="38" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:J17">
-    <cfRule type="containsText" dxfId="39" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="38" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="36" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K10">
-    <cfRule type="containsText" dxfId="37" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="35" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K13">
-    <cfRule type="containsText" dxfId="36" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="34" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="35" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="33" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="34" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="32" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K17">
-    <cfRule type="containsText" dxfId="33" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="31" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 K2:K3">
-    <cfRule type="containsText" dxfId="32" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="30" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4243,17 +4227,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="204"/>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
+      <c r="A1" s="208"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5460,15 +5444,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="206" t="s">
+      <c r="E35" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="205"/>
-      <c r="K35" s="205"/>
+      <c r="F35" s="209"/>
+      <c r="G35" s="209"/>
+      <c r="H35" s="209"/>
+      <c r="I35" s="209"/>
+      <c r="J35" s="209"/>
+      <c r="K35" s="209"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -5481,15 +5465,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="206" t="s">
+      <c r="E36" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="205"/>
-      <c r="K36" s="205"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="209"/>
+      <c r="I36" s="209"/>
+      <c r="J36" s="209"/>
+      <c r="K36" s="209"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -5535,15 +5519,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="206" t="s">
+      <c r="E38" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="205"/>
-      <c r="K38" s="205"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
+      <c r="I38" s="209"/>
+      <c r="J38" s="209"/>
+      <c r="K38" s="209"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -5556,15 +5540,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="207" t="s">
+      <c r="E39" s="211" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="208"/>
-      <c r="G39" s="208"/>
-      <c r="H39" s="208"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="208"/>
-      <c r="K39" s="208"/>
+      <c r="F39" s="212"/>
+      <c r="G39" s="212"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="212"/>
+      <c r="K39" s="212"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -14418,7 +14402,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{47DDAC26-A9B7-7D44-9282-3793739B1EE7}">
+      <autoFilter ref="A2:K42" xr:uid="{E5209212-5B29-004F-94C9-B431E52F7F01}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14435,42 +14419,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="31" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="29" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="27" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="25" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="24" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14499,25 +14483,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14531,8 +14515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF7805C-9A25-014E-8DE3-513BC4007718}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14889,16 +14873,16 @@
         <v>145</v>
       </c>
       <c r="B14" s="185" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="194" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="196" t="s">
-        <v>82</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="187">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="185" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="190" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="185" t="s">
         <v>155</v>
@@ -14923,14 +14907,14 @@
       <c r="B15" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="187">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="185" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="190" t="s">
-        <v>84</v>
+      <c r="C15" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="194" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="196" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="185" t="s">
         <v>156</v>
@@ -14944,13 +14928,13 @@
         <v>168</v>
       </c>
       <c r="C16" s="187">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="185" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E16" s="190" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G16" s="185" t="s">
         <v>159</v>
@@ -14966,16 +14950,16 @@
         <v>146</v>
       </c>
       <c r="B18" s="185" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="C18" s="187">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D18" s="185" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E18" s="190" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F18" s="185" t="s">
         <v>157</v>
@@ -15294,24 +15278,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="endsWith" dxfId="16" priority="20" operator="endsWith" text="*">
+  <conditionalFormatting sqref="E8:E9 E14:E16 E18:E20">
+    <cfRule type="endsWith" dxfId="14" priority="20" operator="endsWith" text="*">
       <formula>RIGHT((E8),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="endsWith" dxfId="15" priority="19" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="13" priority="19" operator="endsWith" text="*">
       <formula>RIGHT((E11),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E16">
-    <cfRule type="endsWith" dxfId="14" priority="18" operator="endsWith" text="*">
-      <formula>RIGHT((E14),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E20">
-    <cfRule type="endsWith" dxfId="13" priority="17" operator="endsWith" text="*">
-      <formula>RIGHT((E18),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E24">
@@ -16156,7 +16130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270BECA4-6AAE-274B-B7D6-00511C3836D6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -16166,19 +16140,19 @@
     <col min="2" max="2" width="90.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="209" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="211" t="s">
+    <row r="1" spans="1:2" s="204" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="206" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="207" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="209" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" s="204" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="173">
         <v>5303</v>
       </c>
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="205" t="s">
         <v>181</v>
       </c>
     </row>
@@ -16186,7 +16160,7 @@
       <c r="A3" s="173">
         <v>5304</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="205" t="s">
         <v>179</v>
       </c>
     </row>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E8B3A-880A-9E45-8259-C34A6B1B9879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5430763-79B8-8A4A-867B-560B1070D840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12560" yWindow="500" windowWidth="19140" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="182">
   <si>
     <t>Course Code</t>
   </si>
@@ -604,11 +604,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1115,435 +1122,435 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1552,68 +1559,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="14" fillId="32" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="32" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="33" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="14" fillId="33" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -14402,7 +14412,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{E5209212-5B29-004F-94C9-B431E52F7F01}">
+      <autoFilter ref="A2:K42" xr:uid="{305CFCC5-3FA1-CA4C-96D9-73C2FF1BD08C}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14516,7 +14526,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14573,16 +14583,16 @@
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J2" s="185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K2" s="187">
         <v>0.5</v>
       </c>
       <c r="L2" s="185" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="M2" s="190" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14605,30 +14615,30 @@
         <v>158</v>
       </c>
       <c r="J3" s="185">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K3" s="187">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="L3" s="185" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M3" s="190" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J4" s="185">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K4" s="187">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="L4" s="185" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M4" s="190" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14654,16 +14664,16 @@
         <v>34</v>
       </c>
       <c r="J5" s="185">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K5" s="187">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="L5" s="185" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M5" s="190" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14686,46 +14696,46 @@
         <v>38</v>
       </c>
       <c r="J6" s="185">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K6" s="187">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="L6" s="185" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="190" t="s">
-        <v>50</v>
+        <v>118</v>
+      </c>
+      <c r="M6" s="191" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J7" s="185">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7" s="187">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="L7" s="185" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M7" s="190" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="185" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="187">
+      <c r="B8" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="192">
         <v>0.5</v>
       </c>
-      <c r="D8" s="185" t="s">
+      <c r="D8" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="189" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="185" t="s">
@@ -14735,16 +14745,16 @@
         <v>158</v>
       </c>
       <c r="J8" s="185">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="187">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="L8" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" s="191" t="s">
-        <v>119</v>
+        <v>89</v>
+      </c>
+      <c r="M8" s="190" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14764,30 +14774,30 @@
         <v>158</v>
       </c>
       <c r="J9" s="185">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K9" s="187">
         <v>0.3</v>
       </c>
       <c r="L9" s="185" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M9" s="190" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J10" s="185">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K10" s="187">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L10" s="185" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="M10" s="190" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14813,16 +14823,16 @@
         <v>158</v>
       </c>
       <c r="J11" s="185">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K11" s="187">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="L11" s="185" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="M11" s="190" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14842,30 +14852,16 @@
         <v>158</v>
       </c>
       <c r="J12" s="185">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K12" s="187">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="L12" s="185" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M12" s="190" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J13" s="185">
-        <v>7</v>
-      </c>
-      <c r="K13" s="187">
-        <v>0.25</v>
-      </c>
-      <c r="L13" s="185" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="190" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14890,18 +14886,6 @@
       <c r="G14" s="185" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="185">
-        <v>8</v>
-      </c>
-      <c r="K14" s="187">
-        <v>0.22</v>
-      </c>
-      <c r="L14" s="185" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="190" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="185" t="s">
@@ -14913,7 +14897,7 @@
       <c r="D15" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="196" t="s">
+      <c r="E15" s="213" t="s">
         <v>82</v>
       </c>
       <c r="F15" s="185" t="s">
@@ -14921,6 +14905,9 @@
       </c>
       <c r="G15" s="185" t="s">
         <v>158</v>
+      </c>
+      <c r="J15" s="185" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14940,12 +14927,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J17" s="185" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="185" t="s">
         <v>146</v>
       </c>
@@ -14968,7 +14950,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="185" t="s">
         <v>28</v>
       </c>
@@ -14985,7 +14967,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="185" t="s">
         <v>28</v>
       </c>
@@ -15002,12 +14984,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="185" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="185" t="s">
         <v>147</v>
       </c>
@@ -15027,7 +15009,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="185" t="s">
         <v>168</v>
       </c>
@@ -15044,7 +15026,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="185" t="s">
         <v>168</v>
       </c>
@@ -15061,7 +15043,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="185" t="s">
         <v>149</v>
       </c>
@@ -15081,7 +15063,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="185" t="s">
         <v>28</v>
       </c>
@@ -15098,7 +15080,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="185" t="s">
         <v>167</v>
       </c>
@@ -15115,7 +15097,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="185" t="s">
         <v>150</v>
       </c>
@@ -15135,7 +15117,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="185" t="s">
         <v>28</v>
       </c>
@@ -15152,7 +15134,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="185" t="s">
         <v>28</v>
       </c>
@@ -15278,9 +15260,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E8:E9 E14:E16 E18:E20">
+  <conditionalFormatting sqref="E8:E9 E14:E16 E18:E20 M2:M12">
     <cfRule type="endsWith" dxfId="14" priority="20" operator="endsWith" text="*">
-      <formula>RIGHT((E8),LEN("*"))=("*")</formula>
+      <formula>RIGHT((E2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
@@ -15313,9 +15295,9 @@
       <formula>RIGHT((E39),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M14 E3 E5:E6">
+  <conditionalFormatting sqref="E3 E5:E6">
     <cfRule type="endsWith" dxfId="7" priority="21" operator="endsWith" text="*">
-      <formula>RIGHT((E2),LEN("*"))=("*")</formula>
+      <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E3D69A-706B-494F-8D2B-F3DBA7FB7EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2DDF46-E66E-5448-BD9D-9541DA3FA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="500" windowWidth="19140" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="178">
   <si>
     <t>Course Code</t>
   </si>
@@ -510,18 +510,6 @@
   </si>
   <si>
     <t>start study for 5001 - 5003</t>
-  </si>
-  <si>
-    <t>take 5001 - if ready</t>
-  </si>
-  <si>
-    <t>take 5001 or 5002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drop  5735  </t>
-  </si>
-  <si>
-    <t>take 5735</t>
   </si>
   <si>
     <t>C</t>
@@ -1762,126 +1750,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFFD966"/>
           <bgColor rgb="FFFFD966"/>
         </patternFill>
@@ -2010,8 +1878,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2026,8 +1894,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2042,8 +1910,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFD5A6BD"/>
           <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2058,16 +1942,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2082,8 +1958,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2092,14 +1968,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2170,8 +2038,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2186,8 +2054,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2202,8 +2078,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2218,8 +2094,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2234,8 +2110,120 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12684,7 +12672,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{4F54D17E-3B6B-684A-904F-90DF787C4A40}">
+      <autoFilter ref="A2:K42" xr:uid="{A6A99558-41E4-4842-B288-E5D3D04B07DD}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12701,42 +12689,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="29" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="79" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="78" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="25" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="75" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((D3),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="74" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12765,25 +12753,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="69" priority="12" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="67" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="65" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12816,7 +12804,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>134</v>
@@ -12942,7 +12930,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="142" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E4" s="108" t="s">
         <v>13</v>
@@ -13056,7 +13044,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E7" s="108" t="s">
         <v>26</v>
@@ -13634,7 +13622,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="173" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B23" s="173" t="s">
         <v>136</v>
@@ -13677,43 +13665,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="79" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="64" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="78" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="75" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="60" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((F2),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="59" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="74" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="73" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
@@ -13741,47 +13729,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="65" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="50" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="64" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="49" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="63" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="48" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="61" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="46" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -14325,7 +14314,7 @@
     </row>
     <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="172" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14353,47 +14342,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="endsWith" dxfId="60" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="45" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((C2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D17">
-    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="56" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="41" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((E2),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="40" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="55" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
-    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14422,111 +14411,115 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J3">
-    <cfRule type="containsText" dxfId="45" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="30" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
-    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="29" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J7">
-    <cfRule type="containsText" dxfId="43" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7">
-    <cfRule type="containsText" dxfId="42" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="27" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J10">
-    <cfRule type="containsText" dxfId="41" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="26" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J13">
-    <cfRule type="containsText" dxfId="40" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="25" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="39" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="24" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J15">
-    <cfRule type="containsText" dxfId="38" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="23" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:J17">
-    <cfRule type="containsText" dxfId="37" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="36" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="21" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K10">
-    <cfRule type="containsText" dxfId="35" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="20" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K13">
-    <cfRule type="containsText" dxfId="34" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="19" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="33" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="18" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="32" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="17" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K17">
-    <cfRule type="containsText" dxfId="31" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="16" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 K2:K3">
-    <cfRule type="containsText" dxfId="30" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="15" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF7805C-9A25-014E-8DE3-513BC4007718}">
-  <dimension ref="A1:M40"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14536,66 +14529,65 @@
     <col min="3" max="3" width="11.6640625" style="187" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="185" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.1640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="185" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="185"/>
-    <col min="10" max="10" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.83203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="185"/>
+    <col min="6" max="6" width="13.33203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="185"/>
+    <col min="9" max="9" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.83203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="185"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="185" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="185" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C1" s="187" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="185" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="185" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="185" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="185" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="185" t="s">
+      <c r="J1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="185" t="s">
+      <c r="K1" s="187" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="185" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="185" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="185" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="185" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" s="187" t="s">
-        <v>177</v>
-      </c>
-      <c r="M1" s="185" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J2" s="185">
+      <c r="L1" s="185" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="185">
         <v>5</v>
       </c>
-      <c r="K2" s="187">
+      <c r="J2" s="187">
         <v>0.5</v>
       </c>
-      <c r="L2" s="185" t="s">
+      <c r="K2" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="190" t="s">
+      <c r="L2" s="190" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="185" t="s">
         <v>141</v>
       </c>
@@ -14611,37 +14603,37 @@
       <c r="E3" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="185">
+      <c r="F3" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="185">
         <v>11</v>
       </c>
-      <c r="K3" s="187">
+      <c r="J3" s="187">
         <v>0.45</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="K3" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="190" t="s">
+      <c r="L3" s="190" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J4" s="185">
+    <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="185">
         <v>4</v>
       </c>
-      <c r="K4" s="187">
+      <c r="J4" s="187">
         <v>0.4</v>
       </c>
-      <c r="L4" s="185" t="s">
+      <c r="K4" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="190" t="s">
+      <c r="L4" s="190" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="185" t="s">
         <v>140</v>
       </c>
@@ -14657,26 +14649,26 @@
       <c r="E5" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="185">
+      <c r="F5" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="185">
         <v>34</v>
       </c>
-      <c r="J5" s="185">
+      <c r="I5" s="185">
         <v>9</v>
       </c>
-      <c r="K5" s="187">
+      <c r="J5" s="187">
         <v>0.33</v>
       </c>
-      <c r="L5" s="185" t="s">
+      <c r="K5" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="190" t="s">
+      <c r="L5" s="190" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="188" t="s">
         <v>16</v>
       </c>
@@ -14689,40 +14681,40 @@
       <c r="E6" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="185">
+      <c r="F6" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="185">
         <v>38</v>
       </c>
-      <c r="J6" s="185">
+      <c r="I6" s="185">
         <v>13</v>
       </c>
-      <c r="K6" s="187">
+      <c r="J6" s="187">
         <v>0.31</v>
       </c>
-      <c r="L6" s="185" t="s">
+      <c r="K6" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="191" t="s">
+      <c r="L6" s="191" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J7" s="185">
+    <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="185">
         <v>10</v>
       </c>
-      <c r="K7" s="187">
+      <c r="J7" s="187">
         <v>0.3</v>
       </c>
-      <c r="L7" s="185" t="s">
+      <c r="K7" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="190" t="s">
+      <c r="L7" s="190" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="185" t="s">
         <v>143</v>
       </c>
@@ -14739,25 +14731,22 @@
         <v>39</v>
       </c>
       <c r="F8" s="185" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" s="185">
+        <v>154</v>
+      </c>
+      <c r="I8" s="185">
         <v>12</v>
       </c>
-      <c r="K8" s="187">
+      <c r="J8" s="187">
         <v>0.3</v>
       </c>
-      <c r="L8" s="185" t="s">
+      <c r="K8" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="190" t="s">
+      <c r="L8" s="190" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="188" t="s">
         <v>16</v>
       </c>
@@ -14770,101 +14759,98 @@
       <c r="E9" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="J9" s="185">
+      <c r="F9" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="185">
         <v>6</v>
       </c>
-      <c r="K9" s="187">
+      <c r="J9" s="187">
         <v>0.3</v>
       </c>
-      <c r="L9" s="185" t="s">
+      <c r="K9" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="190" t="s">
+      <c r="L9" s="190" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J10" s="185">
+    <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="185">
         <v>3</v>
       </c>
-      <c r="K10" s="187">
+      <c r="J10" s="187">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L10" s="185" t="s">
+      <c r="K10" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="190" t="s">
+      <c r="L10" s="190" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="187">
+      <c r="B11" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="192">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D11" s="185" t="s">
+      <c r="D11" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="190" t="s">
+      <c r="E11" s="189" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="185">
+      <c r="I11" s="185">
         <v>7</v>
       </c>
-      <c r="K11" s="187">
+      <c r="J11" s="187">
         <v>0.25</v>
       </c>
-      <c r="L11" s="185" t="s">
+      <c r="K11" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="190" t="s">
+      <c r="L11" s="190" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="187">
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="192">
         <v>0.4</v>
       </c>
-      <c r="D12" s="185" t="s">
+      <c r="D12" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="190" t="s">
+      <c r="E12" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="J12" s="185">
+      <c r="F12" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="185">
         <v>8</v>
       </c>
-      <c r="K12" s="187">
+      <c r="J12" s="187">
         <v>0.22</v>
       </c>
-      <c r="L12" s="185" t="s">
+      <c r="K12" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="190" t="s">
+      <c r="L12" s="190" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="185" t="s">
         <v>145</v>
       </c>
@@ -14881,15 +14867,12 @@
         <v>25</v>
       </c>
       <c r="F14" s="185" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C15" s="193">
         <v>0.2</v>
@@ -14901,18 +14884,15 @@
         <v>82</v>
       </c>
       <c r="F15" s="185" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="J15" s="185" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="I15" s="185" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C16" s="187">
         <v>0.5</v>
@@ -14923,16 +14903,16 @@
       <c r="E16" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="185" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="185" t="s">
         <v>146</v>
       </c>
       <c r="B18" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C18" s="187">
         <v>0.3</v>
@@ -14944,13 +14924,10 @@
         <v>87</v>
       </c>
       <c r="F18" s="185" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="185" t="s">
         <v>28</v>
       </c>
@@ -14963,11 +14940,11 @@
       <c r="E19" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="185" t="s">
         <v>28</v>
       </c>
@@ -14980,21 +14957,21 @@
       <c r="E20" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="185" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="185" t="s">
         <v>147</v>
       </c>
       <c r="B22" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C22" s="187">
         <v>0.33</v>
@@ -15005,13 +14982,13 @@
       <c r="E22" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C23" s="187">
         <v>0.3</v>
@@ -15022,13 +14999,13 @@
       <c r="E23" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C24" s="187">
         <v>0.45</v>
@@ -15039,11 +15016,11 @@
       <c r="E24" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="185" t="s">
         <v>149</v>
       </c>
@@ -15059,11 +15036,11 @@
       <c r="E26" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="185" t="s">
         <v>28</v>
       </c>
@@ -15076,13 +15053,13 @@
       <c r="E27" s="196" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="185" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C28" s="193">
         <v>0.1</v>
@@ -15093,11 +15070,11 @@
       <c r="E28" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="185" t="s">
         <v>150</v>
       </c>
@@ -15113,11 +15090,11 @@
       <c r="E30" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="185" t="s">
         <v>28</v>
       </c>
@@ -15130,11 +15107,11 @@
       <c r="E31" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="185" t="s">
         <v>28</v>
       </c>
@@ -15147,16 +15124,16 @@
       <c r="E32" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="185" t="s">
         <v>151</v>
       </c>
       <c r="B34" s="185" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C34" s="187">
         <v>0.3</v>
@@ -15167,13 +15144,13 @@
       <c r="E34" s="190" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="185" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C35" s="193">
         <v>0.2</v>
@@ -15184,13 +15161,13 @@
       <c r="E35" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="G35" s="185" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C36" s="193">
         <v>0.2</v>
@@ -15201,13 +15178,13 @@
       <c r="E36" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="G36" s="185" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C37" s="193">
         <v>0.2</v>
@@ -15218,11 +15195,11 @@
       <c r="E37" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="G37" s="185" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="185" t="s">
         <v>152</v>
       </c>
@@ -15238,11 +15215,11 @@
       <c r="E39" s="191" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="185" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="185" t="s">
         <v>28</v>
       </c>
@@ -15255,8 +15232,8 @@
       <c r="E40" s="195" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="185" t="s">
-        <v>159</v>
+      <c r="F40" s="185" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -15295,12 +15272,13 @@
       <formula>RIGHT((E39),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M12 E8:E9 E14:E16 E18:E20">
+  <conditionalFormatting sqref="L2:L12 E8:E9 E14:E16 E18:E20">
     <cfRule type="endsWith" dxfId="7" priority="20" operator="endsWith" text="*">
       <formula>RIGHT((E2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="62" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -15334,34 +15312,34 @@
         <v>142</v>
       </c>
       <c r="B1" s="199" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C1" s="200" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D1" s="199" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E1" s="199" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G1" s="199" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H1" s="199" t="s">
         <v>137</v>
       </c>
       <c r="J1" s="199" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K1" s="199" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L1" s="200" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M1" s="199" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15395,7 +15373,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J3" s="185">
         <v>5</v>
@@ -15441,7 +15419,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H5" s="185">
         <v>34</v>
@@ -15473,7 +15451,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H6" s="185">
         <v>38</v>
@@ -15510,7 +15488,7 @@
         <v>143</v>
       </c>
       <c r="B8" s="185" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C8" s="187">
         <v>0.5</v>
@@ -15525,7 +15503,7 @@
         <v>153</v>
       </c>
       <c r="G8" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J8" s="185">
         <v>13</v>
@@ -15554,7 +15532,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J9" s="185">
         <v>10</v>
@@ -15571,7 +15549,7 @@
     </row>
     <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="185" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C10" s="187">
         <v>0.28000000000000003</v>
@@ -15583,7 +15561,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J10" s="185">
         <v>12</v>
@@ -15608,7 +15586,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="185" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C12" s="187">
         <v>0.4</v>
@@ -15646,7 +15624,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J13" s="185">
         <v>3</v>
@@ -15675,7 +15653,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J14" s="185">
         <v>7</v>
@@ -15701,7 +15679,7 @@
         <v>145</v>
       </c>
       <c r="B16" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C16" s="193">
         <v>0.2</v>
@@ -15713,7 +15691,7 @@
         <v>82</v>
       </c>
       <c r="G16" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J16" s="185">
         <v>8</v>
@@ -15742,7 +15720,7 @@
         <v>36</v>
       </c>
       <c r="G17" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15753,7 +15731,7 @@
         <v>146</v>
       </c>
       <c r="B19" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C19" s="187">
         <v>0.5</v>
@@ -15765,12 +15743,12 @@
         <v>84</v>
       </c>
       <c r="G19" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C20" s="187">
         <v>0.3</v>
@@ -15782,7 +15760,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="185" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15803,7 +15781,7 @@
         <v>147</v>
       </c>
       <c r="B24" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C24" s="187">
         <v>0.33</v>
@@ -15815,12 +15793,12 @@
         <v>75</v>
       </c>
       <c r="G24" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C25" s="187">
         <v>0.3</v>
@@ -15832,12 +15810,12 @@
         <v>78</v>
       </c>
       <c r="G25" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C26" s="187">
         <v>0.45</v>
@@ -15849,7 +15827,7 @@
         <v>80</v>
       </c>
       <c r="G26" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15869,7 +15847,7 @@
         <v>66</v>
       </c>
       <c r="G28" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15886,12 +15864,12 @@
         <v>70</v>
       </c>
       <c r="G29" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="185" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C30" s="193">
         <v>0.1</v>
@@ -15903,7 +15881,7 @@
         <v>72</v>
       </c>
       <c r="G30" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15923,7 +15901,7 @@
         <v>56</v>
       </c>
       <c r="G32" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15940,7 +15918,7 @@
         <v>60</v>
       </c>
       <c r="G33" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15957,7 +15935,7 @@
         <v>63</v>
       </c>
       <c r="G34" s="185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15965,7 +15943,7 @@
         <v>151</v>
       </c>
       <c r="B36" s="185" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C36" s="187">
         <v>0.3</v>
@@ -15977,12 +15955,12 @@
         <v>90</v>
       </c>
       <c r="G36" s="185" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C37" s="193">
         <v>0.2</v>
@@ -15994,12 +15972,12 @@
         <v>125</v>
       </c>
       <c r="G37" s="185" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C38" s="193">
         <v>0.2</v>
@@ -16011,12 +15989,12 @@
         <v>127</v>
       </c>
       <c r="G38" s="185" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C39" s="193">
         <v>0.2</v>
@@ -16028,7 +16006,7 @@
         <v>129</v>
       </c>
       <c r="G39" s="185" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16048,7 +16026,7 @@
         <v>119</v>
       </c>
       <c r="G41" s="185" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16065,7 +16043,7 @@
         <v>112</v>
       </c>
       <c r="G42" s="185" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -16105,6 +16083,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -16124,10 +16103,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="204" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="206" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B1" s="207" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="204" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
@@ -16135,7 +16114,7 @@
         <v>5303</v>
       </c>
       <c r="B2" s="205" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
@@ -16143,10 +16122,11 @@
         <v>5304</v>
       </c>
       <c r="B3" s="205" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2DDF46-E66E-5448-BD9D-9541DA3FA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC26BB0-FC7A-9B42-B6ED-845A8EF4E9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1878,8 +1878,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1894,8 +1894,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1910,16 +1910,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1934,8 +1934,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1950,8 +1958,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1960,14 +1968,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2038,8 +2038,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2054,8 +2054,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2070,8 +2078,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2086,8 +2094,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2096,14 +2104,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2166,16 +2166,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2190,8 +2190,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2206,8 +2206,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2222,8 +2230,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2232,14 +2240,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2476,7 +2476,7 @@
   </sheetPr>
   <dimension ref="A1:AF1012"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
@@ -12672,7 +12672,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{A6A99558-41E4-4842-B288-E5D3D04B07DD}">
+      <autoFilter ref="A2:K42" xr:uid="{89468899-B6A2-4E4F-B322-18206B245EC0}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12699,30 +12699,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="75" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="75" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="74" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="74" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
@@ -12753,11 +12753,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="69" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
@@ -13683,25 +13683,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="60" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="60" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="59" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
@@ -13729,14 +13729,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
@@ -14352,33 +14352,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="41" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="41" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="40" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((E2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
@@ -14411,14 +14411,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
@@ -14518,8 +14518,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="F40" sqref="A1:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15277,8 +15277,8 @@
       <formula>RIGHT((E2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="62" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC26BB0-FC7A-9B42-B6ED-845A8EF4E9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0374A6D2-65F9-8442-9D38-195288D058E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="179">
   <si>
     <t>Course Code</t>
   </si>
@@ -586,6 +586,9 @@
 a) repeat your answer exactly as you gave it originally, or
 b) revise and expand upon your original answer, or
 c) start anew in answering the question. </t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -2476,7 +2479,7 @@
   </sheetPr>
   <dimension ref="A1:AF1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
@@ -12672,7 +12675,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{89468899-B6A2-4E4F-B322-18206B245EC0}">
+      <autoFilter ref="A2:K42" xr:uid="{67C79278-903F-2840-B4A9-512A5C217681}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12785,8 +12788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12885,6 +12888,9 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="173" t="s">
+        <v>178</v>
+      </c>
       <c r="B3" s="173" t="s">
         <v>133</v>
       </c>
@@ -12923,6 +12929,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="173" t="s">
+        <v>178</v>
+      </c>
       <c r="B4" s="173" t="s">
         <v>133</v>
       </c>
@@ -13075,6 +13084,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="173" t="s">
+        <v>178</v>
+      </c>
       <c r="C8" s="95" t="s">
         <v>38</v>
       </c>
@@ -13110,6 +13122,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="173" t="s">
+        <v>178</v>
+      </c>
       <c r="C9" s="103" t="s">
         <v>44</v>
       </c>
@@ -13145,6 +13160,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="173" t="s">
+        <v>178</v>
+      </c>
       <c r="C10" s="103" t="s">
         <v>49</v>
       </c>
@@ -13180,6 +13198,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="173" t="s">
+        <v>178</v>
+      </c>
       <c r="B11" s="173" t="s">
         <v>133</v>
       </c>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0374A6D2-65F9-8442-9D38-195288D058E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C328214-64E4-D349-943F-6ED11DF8A9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12675,7 +12675,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{67C79278-903F-2840-B4A9-512A5C217681}">
+      <autoFilter ref="A2:K42" xr:uid="{DECCEB85-6404-5741-AC0E-1DA1E30629D2}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12788,8 +12788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13800,7 +13800,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14539,8 +14539,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="F40" sqref="A1:F40"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15308,7 +15308,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15508,8 +15508,8 @@
       <c r="A8" s="185" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="185" t="s">
-        <v>166</v>
+      <c r="B8" s="188" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="187">
         <v>0.5</v>
@@ -15569,8 +15569,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="185" t="s">
-        <v>166</v>
+      <c r="B10" s="188" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="187">
         <v>0.28000000000000003</v>
@@ -16112,7 +16112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270BECA4-6AAE-274B-B7D6-00511C3836D6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C328214-64E4-D349-943F-6ED11DF8A9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D37D46-AFFE-574A-958F-32207D43AC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,7 +723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -922,6 +922,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -1116,7 +1122,7 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1615,6 +1621,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="34" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1881,8 +1889,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1897,8 +1905,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1913,8 +1921,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFD5A6BD"/>
           <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1929,16 +1953,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1953,8 +1969,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1963,14 +1979,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2041,8 +2049,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2057,8 +2065,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2073,8 +2089,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2089,8 +2105,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2099,14 +2115,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2169,16 +2177,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2193,8 +2201,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2209,8 +2217,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2225,8 +2241,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2235,14 +2251,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12675,7 +12683,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{DECCEB85-6404-5741-AC0E-1DA1E30629D2}">
+      <autoFilter ref="A2:K42" xr:uid="{E575F43A-2D91-7543-BD97-A362181BD964}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12702,30 +12710,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="75" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="75" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((D3),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="74" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="74" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
@@ -12756,11 +12764,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="69" priority="12" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
@@ -13704,25 +13712,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="60" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="60" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((F2),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="59" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
@@ -13750,14 +13758,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
@@ -14373,33 +14381,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="beginsWith" dxfId="41" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="41" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((E2),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="40" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((E2),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F17">
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 K1 E16:F17">
@@ -14432,14 +14440,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 E5:F5">
@@ -14539,8 +14547,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14876,36 +14884,36 @@
         <v>145</v>
       </c>
       <c r="B14" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="187">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="185" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="190" t="s">
-        <v>25</v>
+        <v>164</v>
+      </c>
+      <c r="C14" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="194" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="208" t="s">
+        <v>82</v>
       </c>
       <c r="F14" s="185" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="185" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="194" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="208" t="s">
-        <v>82</v>
+      <c r="B15" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="192">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="188" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="189" t="s">
+        <v>84</v>
       </c>
       <c r="F15" s="185" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I15" s="185" t="s">
         <v>170</v>
@@ -14916,16 +14924,16 @@
         <v>164</v>
       </c>
       <c r="C16" s="187">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D16" s="185" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E16" s="190" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F16" s="185" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14933,16 +14941,16 @@
         <v>146</v>
       </c>
       <c r="B18" s="185" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="C18" s="187">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D18" s="185" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="E18" s="190" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="F18" s="185" t="s">
         <v>154</v>
@@ -14982,10 +14990,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="185" t="s">
+    <row r="21" spans="1:6" s="214" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="214" t="s">
         <v>148</v>
       </c>
+      <c r="C21" s="215"/>
     </row>
     <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="185" t="s">
@@ -15258,7 +15267,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 E5:E6">
+  <conditionalFormatting sqref="E3 E5:E6 E18:E20 E14:E16">
     <cfRule type="endsWith" dxfId="14" priority="21" operator="endsWith" text="*">
       <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
@@ -15293,7 +15302,7 @@
       <formula>RIGHT((E39),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L12 E8:E9 E14:E16 E18:E20">
+  <conditionalFormatting sqref="L2:L12 E8:E9">
     <cfRule type="endsWith" dxfId="7" priority="20" operator="endsWith" text="*">
       <formula>RIGHT((E2),LEN("*"))=("*")</formula>
     </cfRule>
@@ -15308,7 +15317,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D37D46-AFFE-574A-958F-32207D43AC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54E1C68-A964-D34A-9A3C-58B2B9179E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="179">
   <si>
     <t>Course Code</t>
   </si>
@@ -519,9 +519,6 @@
   </si>
   <si>
     <t>Finished for Credit</t>
-  </si>
-  <si>
-    <t>1 of 21</t>
   </si>
   <si>
     <t>Greedy Algorithms, Minimum Spanning Trees etc.</t>
@@ -588,7 +585,10 @@
 c) start anew in answering the question. </t>
   </si>
   <si>
-    <t>x</t>
+    <t>1 of 9</t>
+  </si>
+  <si>
+    <t>9 of 21</t>
   </si>
 </sst>
 </file>
@@ -1607,9 +1607,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="34" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1621,8 +1620,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="34" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -2508,17 +2508,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="209"/>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
+      <c r="A1" s="210"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3725,15 +3725,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="211" t="s">
+      <c r="E35" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="210"/>
-      <c r="K35" s="210"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="211"/>
+      <c r="J35" s="211"/>
+      <c r="K35" s="211"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -3746,15 +3746,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="211" t="s">
+      <c r="E36" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="210"/>
-      <c r="G36" s="210"/>
-      <c r="H36" s="210"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="210"/>
-      <c r="K36" s="210"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="211"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -3800,15 +3800,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="211" t="s">
+      <c r="E38" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="210"/>
-      <c r="G38" s="210"/>
-      <c r="H38" s="210"/>
-      <c r="I38" s="210"/>
-      <c r="J38" s="210"/>
-      <c r="K38" s="210"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="211"/>
+      <c r="J38" s="211"/>
+      <c r="K38" s="211"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -3821,15 +3821,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="212" t="s">
+      <c r="E39" s="213" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="213"/>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="214"/>
+      <c r="I39" s="214"/>
+      <c r="J39" s="214"/>
+      <c r="K39" s="214"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -12683,7 +12683,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{E575F43A-2D91-7543-BD97-A362181BD964}">
+      <autoFilter ref="A2:K42" xr:uid="{765ADDB6-5341-0940-99ED-A3C42EC9CA05}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12794,10 +12794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12897,7 +12897,7 @@
     </row>
     <row r="3" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="173" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B3" s="173" t="s">
         <v>133</v>
@@ -12938,7 +12938,7 @@
     </row>
     <row r="4" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="173" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B4" s="173" t="s">
         <v>133</v>
@@ -12947,7 +12947,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="108" t="s">
         <v>13</v>
@@ -13061,7 +13061,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="108" t="s">
         <v>26</v>
@@ -13093,7 +13093,7 @@
     </row>
     <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="173" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C8" s="95" t="s">
         <v>38</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="173" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C9" s="103" t="s">
         <v>44</v>
@@ -13169,7 +13169,7 @@
     </row>
     <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="173" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C10" s="103" t="s">
         <v>49</v>
@@ -13207,7 +13207,7 @@
     </row>
     <row r="11" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="173" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B11" s="173" t="s">
         <v>133</v>
@@ -13355,6 +13355,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="173" t="s">
+        <v>133</v>
+      </c>
       <c r="B15" s="173" t="s">
         <v>133</v>
       </c>
@@ -13393,6 +13396,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="173" t="s">
+        <v>133</v>
+      </c>
       <c r="B16" s="173" t="s">
         <v>133</v>
       </c>
@@ -13651,7 +13657,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="173" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B23" s="173" t="s">
         <v>136</v>
@@ -13678,8 +13684,8 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="183">
-        <f>SUM(1/21)</f>
-        <v>4.7619047619047616E-2</v>
+        <f>SUM(9/21)</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="B27" s="183">
         <f>SUM(13 / 21)</f>
@@ -13691,6 +13697,9 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C28" s="172"/>
       <c r="D28" s="181"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D31" s="173"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
@@ -13805,617 +13814,630 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="177"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="176" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="D2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="E2" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="F2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="G2" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="92">
+      <c r="H2" s="92">
         <v>0.3</v>
       </c>
-      <c r="H2" s="72">
+      <c r="I2" s="72">
         <v>17</v>
       </c>
-      <c r="I2" s="93" t="s">
+      <c r="J2" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="K2" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="L2" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="94" t="s">
+      <c r="M2" s="94" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176" t="s">
+    <row r="3" spans="1:13" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="178"/>
+      <c r="B3" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="C3" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="D3" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="E3" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="F3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="G3" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="74">
+      <c r="H3" s="74">
         <v>0.3</v>
       </c>
-      <c r="H3" s="72">
+      <c r="I3" s="72">
         <v>23</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="J3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="K3" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="L3" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="M3" s="94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="186" t="s">
+    <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="186" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="C4" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="D4" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="E4" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="F4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="G4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="99">
+      <c r="H4" s="99">
         <v>0.2</v>
       </c>
-      <c r="H4" s="97">
+      <c r="I4" s="97">
         <v>12</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="J4" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="K4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="L4" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="102" t="s">
+      <c r="M4" s="102" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="177"/>
-      <c r="B5" s="103" t="s">
+    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="177"/>
+      <c r="C5" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>0.2</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>13</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="K5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="105" t="s">
+      <c r="L5" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="106" t="s">
+      <c r="M5" s="106" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="177"/>
-      <c r="B6" s="107" t="s">
+    <row r="6" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="177"/>
+      <c r="C6" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="D6" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="E6" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="F6" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="G6" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="111">
+      <c r="H6" s="111">
         <v>0.2</v>
       </c>
-      <c r="H6" s="109">
+      <c r="I6" s="109">
         <v>10</v>
       </c>
-      <c r="I6" s="109" t="s">
+      <c r="J6" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="112" t="s">
+      <c r="K6" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="113" t="s">
+      <c r="L6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="114" t="s">
+      <c r="M6" s="114" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="178"/>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="178"/>
+      <c r="C7" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="D7" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="E7" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="F7" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="G7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="74">
+      <c r="H7" s="74">
         <v>0.31</v>
       </c>
-      <c r="H7" s="72">
+      <c r="I7" s="72">
         <v>35</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="J7" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="K7" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="76" t="s">
+      <c r="L7" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="73"/>
-    </row>
-    <row r="8" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="177"/>
-      <c r="B8" s="95" t="s">
+      <c r="M7" s="73"/>
+    </row>
+    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="177"/>
+      <c r="C8" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="D8" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="E8" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="F8" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="G8" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="99">
+      <c r="H8" s="99">
         <v>0.2</v>
       </c>
-      <c r="H8" s="97">
+      <c r="I8" s="97">
         <v>18</v>
       </c>
-      <c r="I8" s="97" t="s">
+      <c r="J8" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="117" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="118" t="s">
+      <c r="M8" s="118" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="177"/>
-      <c r="B9" s="103" t="s">
+    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="177"/>
+      <c r="C9" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="119" t="s">
+      <c r="G9" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>0.2</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>9</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="K9" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="120" t="s">
+      <c r="L9" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="121" t="s">
+      <c r="M9" s="121" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="177"/>
-      <c r="B10" s="107" t="s">
+    <row r="10" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="177"/>
+      <c r="C10" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="D10" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="E10" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="109" t="s">
+      <c r="F10" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="G10" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="123">
+      <c r="H10" s="123">
         <v>0.2</v>
       </c>
-      <c r="H10" s="109">
+      <c r="I10" s="109">
         <v>17</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="J10" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="112" t="s">
+      <c r="K10" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="124" t="s">
+      <c r="L10" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="125" t="s">
+      <c r="M10" s="125" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="178"/>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="178"/>
+      <c r="C11" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="D11" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="E11" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="F11" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="G11" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="83">
+      <c r="H11" s="83">
         <v>0.1</v>
       </c>
-      <c r="H11" s="84">
+      <c r="I11" s="84">
         <v>18</v>
       </c>
-      <c r="I11" s="85" t="s">
+      <c r="J11" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="86" t="s">
+      <c r="K11" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="87" t="s">
+      <c r="L11" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="88" t="s">
+      <c r="M11" s="88" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="177"/>
-      <c r="B12" s="33"/>
+    <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="177"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="35"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="182"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="33"/>
-    </row>
-    <row r="13" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="177"/>
-      <c r="B13" s="33"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="177"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="35">
-        <f>SUM(H2:H11)</f>
+      <c r="E13" s="33"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="35">
+        <f>SUM(I2:I11)</f>
         <v>172</v>
       </c>
-      <c r="I13" s="35">
-        <f>SUM(H13/24)</f>
+      <c r="J13" s="35">
+        <f>SUM(I13/24)</f>
         <v>7.166666666666667</v>
       </c>
-      <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="177"/>
-      <c r="B14" s="33"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="177"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="35"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="182"/>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="177"/>
-    </row>
-    <row r="16" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="177"/>
-      <c r="B16" s="126" t="s">
+      <c r="L14" s="35"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="177"/>
+    </row>
+    <row r="16" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="177"/>
+      <c r="C16" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="D16" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="E16" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="F16" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="G16" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="99">
+      <c r="H16" s="99">
         <v>0.1</v>
       </c>
-      <c r="H16" s="97">
+      <c r="I16" s="97">
         <v>63</v>
       </c>
-      <c r="I16" s="97" t="s">
+      <c r="J16" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="100" t="s">
+      <c r="K16" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="101" t="s">
+      <c r="L16" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="128"/>
-    </row>
-    <row r="17" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="177"/>
-      <c r="B17" s="129" t="s">
+      <c r="M16" s="128"/>
+    </row>
+    <row r="17" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="177"/>
+      <c r="C17" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="D17" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="E17" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="F17" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="130" t="s">
+      <c r="G17" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="109" t="s">
+      <c r="H17" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="109">
+      <c r="I17" s="109">
         <v>13</v>
       </c>
-      <c r="I17" s="109" t="s">
+      <c r="J17" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="112" t="s">
+      <c r="K17" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="113" t="s">
+      <c r="L17" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="131"/>
-    </row>
-    <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="172" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="184">
+      <c r="M17" s="131"/>
+    </row>
+    <row r="18" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="186" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="172" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="184">
         <f>SUM(3 / 9)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <conditionalFormatting sqref="C2:C17">
+  <conditionalFormatting sqref="D2:D17">
     <cfRule type="endsWith" dxfId="45" priority="10" operator="endsWith" text="*">
-      <formula>RIGHT((C2),LEN("*"))=("*")</formula>
+      <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D17">
+  <conditionalFormatting sqref="E1:E17">
     <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="Elective">
-      <formula>NOT(ISERROR(SEARCH(("Elective"),(D1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D17">
-    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(D2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(D2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
+    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F17">
     <cfRule type="beginsWith" dxfId="41" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((E2),LEN("R"))=("R")</formula>
+      <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="40" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((E2),LEN("Python"))=("Python")</formula>
+      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F17">
+  <conditionalFormatting sqref="F2:G17">
     <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(E2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(E2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(E2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(E2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F5 K1 E16:F17">
+  <conditionalFormatting sqref="F4:G5 L1 F16:G17">
     <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(K1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G17">
+  <conditionalFormatting sqref="H2:H17">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -14427,7 +14449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
+  <conditionalFormatting sqref="I2:I17">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="9"/>
@@ -14439,100 +14461,100 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I17">
+  <conditionalFormatting sqref="J2:J17">
     <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(I2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH(("B"),(I2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(I2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J1 E5:F5">
+  <conditionalFormatting sqref="J1:K1 F5:G5">
     <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J3">
+  <conditionalFormatting sqref="J2:K3">
     <cfRule type="containsText" dxfId="30" priority="72" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M25))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:J4 G4 L4 K4:K7">
+  <conditionalFormatting sqref="J4:K4 H4 M4 L4:L7">
     <cfRule type="containsText" dxfId="29" priority="36" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(M34))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:J7">
+  <conditionalFormatting sqref="J4:K7">
     <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:J7">
+  <conditionalFormatting sqref="J7:K7">
     <cfRule type="containsText" dxfId="27" priority="199" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:J10">
+  <conditionalFormatting sqref="J8:K10">
     <cfRule type="containsText" dxfId="26" priority="128" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M27))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:J13">
+  <conditionalFormatting sqref="J11:K13">
     <cfRule type="containsText" dxfId="25" priority="212" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M32))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:J14">
+  <conditionalFormatting sqref="J14:K14">
     <cfRule type="containsText" dxfId="24" priority="205" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M34))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:J15">
+  <conditionalFormatting sqref="J15:K15">
     <cfRule type="containsText" dxfId="23" priority="124" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M33))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:J17">
+  <conditionalFormatting sqref="J16:K17">
     <cfRule type="containsText" dxfId="22" priority="68" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(M30))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
+  <conditionalFormatting sqref="L7">
     <cfRule type="containsText" dxfId="21" priority="201" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K10">
+  <conditionalFormatting sqref="L8:L10">
     <cfRule type="containsText" dxfId="20" priority="130" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q27))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K13">
+  <conditionalFormatting sqref="L11:L13">
     <cfRule type="containsText" dxfId="19" priority="214" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q32))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="L14">
     <cfRule type="containsText" dxfId="18" priority="207" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q34))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="L15">
     <cfRule type="containsText" dxfId="17" priority="126" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q33))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K17">
+  <conditionalFormatting sqref="L16:L17">
     <cfRule type="containsText" dxfId="16" priority="70" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q30))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2 K2:K3">
+  <conditionalFormatting sqref="M2 L2:L3">
     <cfRule type="containsText" dxfId="15" priority="73" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(Q25))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14547,8 +14569,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14572,34 +14594,34 @@
         <v>142</v>
       </c>
       <c r="B1" s="185" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="185" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="185" t="s">
         <v>161</v>
-      </c>
-      <c r="C1" s="187" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="185" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="185" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="185" t="s">
-        <v>162</v>
       </c>
       <c r="G1" s="185" t="s">
         <v>137</v>
       </c>
       <c r="I1" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="185" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="185" t="s">
+      <c r="K1" s="187" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="187" t="s">
+      <c r="L1" s="185" t="s">
         <v>173</v>
-      </c>
-      <c r="L1" s="185" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14883,16 +14905,16 @@
       <c r="A14" s="185" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="185" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="193">
+      <c r="B14" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="192">
         <v>0.2</v>
       </c>
-      <c r="D14" s="194" t="s">
+      <c r="D14" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="208" t="s">
+      <c r="E14" s="215" t="s">
         <v>82</v>
       </c>
       <c r="F14" s="185" t="s">
@@ -14916,12 +14938,12 @@
         <v>155</v>
       </c>
       <c r="I15" s="185" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="187">
         <v>0.3</v>
@@ -14990,18 +15012,18 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="214" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="214" t="s">
+    <row r="21" spans="1:6" s="208" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="208" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="215"/>
+      <c r="C21" s="209"/>
     </row>
     <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="185" t="s">
         <v>147</v>
       </c>
       <c r="B22" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="187">
         <v>0.33</v>
@@ -15018,7 +15040,7 @@
     </row>
     <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="187">
         <v>0.3</v>
@@ -15035,7 +15057,7 @@
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="187">
         <v>0.45</v>
@@ -15089,7 +15111,7 @@
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="193">
         <v>0.1</v>
@@ -15163,7 +15185,7 @@
         <v>151</v>
       </c>
       <c r="B34" s="185" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" s="187">
         <v>0.3</v>
@@ -15180,7 +15202,7 @@
     </row>
     <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" s="193">
         <v>0.2</v>
@@ -15197,7 +15219,7 @@
     </row>
     <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" s="193">
         <v>0.2</v>
@@ -15214,7 +15236,7 @@
     </row>
     <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="193">
         <v>0.2</v>
@@ -15267,7 +15289,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 E5:E6 E18:E20 E14:E16">
+  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E20">
     <cfRule type="endsWith" dxfId="14" priority="21" operator="endsWith" text="*">
       <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
@@ -15342,34 +15364,34 @@
         <v>142</v>
       </c>
       <c r="B1" s="199" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="200" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="199" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="199" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="199" t="s">
         <v>161</v>
-      </c>
-      <c r="C1" s="200" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="199" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="199" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="199" t="s">
-        <v>162</v>
       </c>
       <c r="H1" s="199" t="s">
         <v>137</v>
       </c>
       <c r="J1" s="199" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="199" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="199" t="s">
+      <c r="L1" s="200" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="200" t="s">
+      <c r="M1" s="199" t="s">
         <v>173</v>
-      </c>
-      <c r="M1" s="199" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15616,7 +15638,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="185" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="187">
         <v>0.4</v>
@@ -15709,7 +15731,7 @@
         <v>145</v>
       </c>
       <c r="B16" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="193">
         <v>0.2</v>
@@ -15761,7 +15783,7 @@
         <v>146</v>
       </c>
       <c r="B19" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="187">
         <v>0.5</v>
@@ -15778,7 +15800,7 @@
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="187">
         <v>0.3</v>
@@ -15811,7 +15833,7 @@
         <v>147</v>
       </c>
       <c r="B24" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="187">
         <v>0.33</v>
@@ -15828,7 +15850,7 @@
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="187">
         <v>0.3</v>
@@ -15845,7 +15867,7 @@
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="187">
         <v>0.45</v>
@@ -15899,7 +15921,7 @@
     </row>
     <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="185" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="193">
         <v>0.1</v>
@@ -15973,7 +15995,7 @@
         <v>151</v>
       </c>
       <c r="B36" s="185" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36" s="187">
         <v>0.3</v>
@@ -15990,7 +16012,7 @@
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="193">
         <v>0.2</v>
@@ -16007,7 +16029,7 @@
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="193">
         <v>0.2</v>
@@ -16024,7 +16046,7 @@
     </row>
     <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="193">
         <v>0.2</v>
@@ -16133,10 +16155,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="204" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="206" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="207" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="204" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
@@ -16144,7 +16166,7 @@
         <v>5303</v>
       </c>
       <c r="B2" s="205" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
@@ -16152,7 +16174,7 @@
         <v>5304</v>
       </c>
       <c r="B3" s="205" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54E1C68-A964-D34A-9A3C-58B2B9179E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B5170-7DED-CC40-A999-B6121ADC1B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28160" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1609,6 +1609,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="15" fillId="34" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1620,9 +1623,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1889,8 +1889,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1905,8 +1905,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1921,16 +1921,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1945,8 +1945,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1961,8 +1969,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1971,14 +1979,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2049,8 +2049,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2065,8 +2065,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2081,8 +2089,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2097,8 +2105,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2107,14 +2115,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2177,16 +2177,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2201,8 +2201,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2217,8 +2217,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2233,8 +2241,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2243,14 +2251,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2508,17 +2508,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="210"/>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
+      <c r="A1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3725,15 +3725,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="212" t="s">
+      <c r="E35" s="213" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="211"/>
-      <c r="G35" s="211"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="211"/>
-      <c r="J35" s="211"/>
-      <c r="K35" s="211"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="212"/>
+      <c r="J35" s="212"/>
+      <c r="K35" s="212"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -3746,15 +3746,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="212" t="s">
+      <c r="E36" s="213" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="211"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="211"/>
-      <c r="K36" s="211"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="212"/>
+      <c r="J36" s="212"/>
+      <c r="K36" s="212"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -3800,15 +3800,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="212" t="s">
+      <c r="E38" s="213" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="211"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="211"/>
-      <c r="K38" s="211"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="212"/>
+      <c r="K38" s="212"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -3821,15 +3821,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="213" t="s">
+      <c r="E39" s="214" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="214"/>
-      <c r="I39" s="214"/>
-      <c r="J39" s="214"/>
-      <c r="K39" s="214"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="215"/>
+      <c r="J39" s="215"/>
+      <c r="K39" s="215"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -12683,7 +12683,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{765ADDB6-5341-0940-99ED-A3C42EC9CA05}">
+      <autoFilter ref="A2:K42" xr:uid="{C7CE2B32-2AAD-2E44-BB85-5B4A92E4B80E}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12710,30 +12710,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="75" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="75" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="74" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="74" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
@@ -12764,11 +12764,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="69" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
@@ -12797,7 +12797,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13721,25 +13721,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="60" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="60" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="59" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="Project">
+      <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="4" operator="containsText" text="Project">
-      <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
@@ -13767,14 +13767,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
@@ -14403,33 +14403,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="Core">
+      <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="Core">
-      <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="beginsWith" dxfId="41" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="41" priority="17" operator="beginsWith" text="Python">
+      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="40" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="17" operator="beginsWith" text="Python">
-      <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G17">
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:G5 L1 F16:G17">
@@ -14462,14 +14462,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1 F5:G5">
@@ -14570,7 +14570,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14914,7 +14914,7 @@
       <c r="D14" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="215" t="s">
+      <c r="E14" s="210" t="s">
         <v>82</v>
       </c>
       <c r="F14" s="185" t="s">
@@ -14942,16 +14942,16 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="185" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="187">
+      <c r="B16" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="192">
         <v>0.3</v>
       </c>
-      <c r="D16" s="185" t="s">
+      <c r="D16" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="190" t="s">
+      <c r="E16" s="189" t="s">
         <v>87</v>
       </c>
       <c r="F16" s="185" t="s">
@@ -15339,7 +15339,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C8" sqref="C8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15542,13 +15542,13 @@
       <c r="B8" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="187">
+      <c r="C8" s="192">
         <v>0.5</v>
       </c>
-      <c r="D8" s="185" t="s">
+      <c r="D8" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="189" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="185" t="s">
@@ -15603,13 +15603,13 @@
       <c r="B10" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="187">
+      <c r="C10" s="192">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D10" s="185" t="s">
+      <c r="D10" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="190" t="s">
+      <c r="E10" s="189" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="185" t="s">
@@ -16143,7 +16143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270BECA4-6AAE-274B-B7D6-00511C3836D6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B5170-7DED-CC40-A999-B6121ADC1B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15030053-64F5-4340-9870-1BAAA98ABC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28160" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28160" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="182">
   <si>
     <t>Course Code</t>
   </si>
@@ -589,6 +589,15 @@
   </si>
   <si>
     <t>9 of 21</t>
+  </si>
+  <si>
+    <t>Currently Taking</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Final is 20% or less of final grade</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1131,7 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1623,6 +1632,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -12683,7 +12694,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{C7CE2B32-2AAD-2E44-BB85-5B4A92E4B80E}">
+      <autoFilter ref="A2:K42" xr:uid="{F0FC2380-8E5D-C446-9C24-C11C47E11F76}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12796,7 +12807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -14569,8 +14580,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14958,14 +14969,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="185" t="s">
+      <c r="B18" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="187">
+      <c r="C18" s="217">
         <v>0.25</v>
       </c>
       <c r="D18" s="185" t="s">
@@ -14978,7 +14989,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="185" t="s">
         <v>28</v>
       </c>
@@ -14995,7 +15006,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="185" t="s">
         <v>28</v>
       </c>
@@ -15012,13 +15023,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="208" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="208" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="208" t="s">
         <v>148</v>
       </c>
       <c r="C21" s="209"/>
     </row>
-    <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="185" t="s">
         <v>147</v>
       </c>
@@ -15038,7 +15049,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="185" t="s">
         <v>163</v>
       </c>
@@ -15055,7 +15066,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="185" t="s">
         <v>163</v>
       </c>
@@ -15071,15 +15082,25 @@
       <c r="F24" s="185" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="216"/>
+      <c r="I24" s="185" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="188"/>
+      <c r="I25" s="185" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="185" t="s">
+      <c r="B26" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="193">
+      <c r="C26" s="217">
         <v>0.2</v>
       </c>
       <c r="D26" s="195" t="s">
@@ -15091,8 +15112,12 @@
       <c r="F26" s="185" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="194"/>
+      <c r="I26" s="185" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="185" t="s">
         <v>28</v>
       </c>
@@ -15109,7 +15134,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="185" t="s">
         <v>162</v>
       </c>
@@ -15126,7 +15151,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="185" t="s">
         <v>150</v>
       </c>
@@ -15146,7 +15171,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="185" t="s">
         <v>28</v>
       </c>
@@ -15163,7 +15188,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="185" t="s">
         <v>28</v>
       </c>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15030053-64F5-4340-9870-1BAAA98ABC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62630854-E745-A548-8189-F7780AA1F43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28160" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1621,6 +1621,8 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1632,8 +1634,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1900,8 +1900,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1916,8 +1916,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1932,8 +1932,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFD5A6BD"/>
           <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1948,16 +1964,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1972,8 +1980,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1982,14 +1990,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2060,8 +2060,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2076,8 +2076,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2092,8 +2100,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2108,8 +2116,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2118,14 +2126,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2188,16 +2188,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2212,8 +2212,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2228,8 +2228,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD5A6BD"/>
-          <bgColor rgb="FFD5A6BD"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2244,8 +2252,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2254,14 +2262,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2519,17 +2519,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="211"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
+      <c r="A1" s="213"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3736,15 +3736,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="213" t="s">
+      <c r="E35" s="215" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="212"/>
-      <c r="G35" s="212"/>
-      <c r="H35" s="212"/>
-      <c r="I35" s="212"/>
-      <c r="J35" s="212"/>
-      <c r="K35" s="212"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="214"/>
+      <c r="K35" s="214"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -3757,15 +3757,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="213" t="s">
+      <c r="E36" s="215" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="212"/>
-      <c r="G36" s="212"/>
-      <c r="H36" s="212"/>
-      <c r="I36" s="212"/>
-      <c r="J36" s="212"/>
-      <c r="K36" s="212"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="214"/>
+      <c r="K36" s="214"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -3811,15 +3811,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="213" t="s">
+      <c r="E38" s="215" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="212"/>
-      <c r="G38" s="212"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="212"/>
-      <c r="J38" s="212"/>
-      <c r="K38" s="212"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="214"/>
+      <c r="K38" s="214"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -3832,15 +3832,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="214" t="s">
+      <c r="E39" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="215"/>
-      <c r="K39" s="215"/>
+      <c r="F39" s="217"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="217"/>
+      <c r="I39" s="217"/>
+      <c r="J39" s="217"/>
+      <c r="K39" s="217"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -12694,7 +12694,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{F0FC2380-8E5D-C446-9C24-C11C47E11F76}">
+      <autoFilter ref="A2:K42" xr:uid="{DEB85679-8CC5-D446-B167-4B3D65556F11}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12721,30 +12721,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="75" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="75" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((D3),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="74" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="74" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
@@ -12775,11 +12775,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="69" priority="12" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
@@ -13732,25 +13732,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="60" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="60" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((F2),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="59" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
@@ -13778,14 +13778,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
@@ -14414,33 +14414,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="pathway">
+      <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="pathway">
-      <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="beginsWith" dxfId="41" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="41" priority="16" operator="beginsWith" text="R">
+      <formula>LEFT((F2),LEN("R"))=("R")</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="40" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="16" operator="beginsWith" text="R">
-      <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G17">
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="Programming">
-      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Essay">
+      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Essay">
-      <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Exam">
+      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Exam">
-      <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Programming">
+      <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:G5 L1 F16:G17">
@@ -14473,14 +14473,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17">
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1 F5:G5">
@@ -14581,7 +14581,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14650,7 +14650,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="188" t="s">
@@ -14682,6 +14682,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="188"/>
       <c r="I4" s="185">
         <v>4</v>
       </c>
@@ -14696,7 +14697,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="188" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="188" t="s">
@@ -14731,6 +14732,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="188"/>
       <c r="B6" s="188" t="s">
         <v>16</v>
       </c>
@@ -14763,6 +14765,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="188"/>
       <c r="I7" s="185">
         <v>10</v>
       </c>
@@ -14777,7 +14780,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="188" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="188" t="s">
@@ -14809,6 +14812,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="188"/>
       <c r="B9" s="188" t="s">
         <v>16</v>
       </c>
@@ -14838,6 +14842,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="188"/>
       <c r="I10" s="185">
         <v>3</v>
       </c>
@@ -14852,7 +14857,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="188" t="s">
         <v>144</v>
       </c>
       <c r="B11" s="188" t="s">
@@ -14884,6 +14889,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="188"/>
       <c r="B12" s="188" t="s">
         <v>16</v>
       </c>
@@ -14912,8 +14918,11 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="188"/>
+    </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="188" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="188" t="s">
@@ -14933,6 +14942,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="188"/>
       <c r="B15" s="188" t="s">
         <v>16</v>
       </c>
@@ -14953,6 +14963,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="188"/>
       <c r="B16" s="188" t="s">
         <v>16</v>
       </c>
@@ -14973,10 +14984,10 @@
       <c r="A18" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="217">
+      <c r="C18" s="212">
         <v>0.25</v>
       </c>
       <c r="D18" s="185" t="s">
@@ -15082,7 +15093,7 @@
       <c r="F24" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="216"/>
+      <c r="H24" s="211"/>
       <c r="I24" s="185" t="s">
         <v>179</v>
       </c>
@@ -15097,10 +15108,10 @@
       <c r="A26" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="216" t="s">
+      <c r="B26" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="217">
+      <c r="C26" s="212">
         <v>0.2</v>
       </c>
       <c r="D26" s="195" t="s">

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62630854-E745-A548-8189-F7780AA1F43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8D4559-1A67-ED48-9BFA-D82E610CE5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28160" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="183">
   <si>
     <t>Course Code</t>
   </si>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>Final is 20% or less of final grade</t>
+  </si>
+  <si>
+    <t>test-may20</t>
   </si>
 </sst>
 </file>
@@ -12694,7 +12697,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{DEB85679-8CC5-D446-B167-4B3D65556F11}">
+      <autoFilter ref="A2:K42" xr:uid="{07EE8B5C-D318-184F-AF51-5903314D0B20}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14581,7 +14584,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15122,6 +15125,9 @@
       </c>
       <c r="F26" s="185" t="s">
         <v>154</v>
+      </c>
+      <c r="G26" s="185" t="s">
+        <v>182</v>
       </c>
       <c r="H26" s="194"/>
       <c r="I26" s="185" t="s">

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8D4559-1A67-ED48-9BFA-D82E610CE5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD8899-8F15-7043-92FB-4E1D06EBDB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28160" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="182">
   <si>
     <t>Course Code</t>
   </si>
@@ -598,9 +598,6 @@
   </si>
   <si>
     <t>Final is 20% or less of final grade</t>
-  </si>
-  <si>
-    <t>test-may20</t>
   </si>
 </sst>
 </file>
@@ -12697,7 +12694,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{07EE8B5C-D318-184F-AF51-5903314D0B20}">
+      <autoFilter ref="A2:K42" xr:uid="{9ADD8C31-2A94-3642-9415-55207C013E43}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -15126,9 +15123,6 @@
       <c r="F26" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="185" t="s">
-        <v>182</v>
-      </c>
       <c r="H26" s="194"/>
       <c r="I26" s="185" t="s">
         <v>181</v>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD8899-8F15-7043-92FB-4E1D06EBDB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8AD4C1-3564-5043-B2D1-B5877E95EF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28160" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="183">
   <si>
     <t>Course Code</t>
   </si>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>Final is 20% or less of final grade</t>
+  </si>
+  <si>
+    <t>Exam 4/24/24</t>
   </si>
 </sst>
 </file>
@@ -12694,7 +12697,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{9ADD8C31-2A94-3642-9415-55207C013E43}">
+      <autoFilter ref="A2:K42" xr:uid="{B8F0F62B-BBEC-4A41-A843-23A6E9E64A79}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -15123,6 +15126,9 @@
       <c r="F26" s="185" t="s">
         <v>154</v>
       </c>
+      <c r="G26" s="185" t="s">
+        <v>182</v>
+      </c>
       <c r="H26" s="194"/>
       <c r="I26" s="185" t="s">
         <v>181</v>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8AD4C1-3564-5043-B2D1-B5877E95EF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE00C5A-1266-8E4C-A4F9-4FBDE64FE223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28160" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="500" windowWidth="17120" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="184">
   <si>
     <t>Course Code</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>Exam 4/24/24</t>
+  </si>
+  <si>
+    <t>exam - 4-24</t>
   </si>
 </sst>
 </file>
@@ -12697,7 +12700,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{B8F0F62B-BBEC-4A41-A843-23A6E9E64A79}">
+      <autoFilter ref="A2:K42" xr:uid="{92D9C233-81F2-574B-A1C3-D7952ADD29E2}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14583,7 +14586,7 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -15380,8 +15383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2002B0-CD3E-3243-9D7D-6B4B46807CF5}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15939,6 +15942,9 @@
       </c>
       <c r="E28" s="196" t="s">
         <v>66</v>
+      </c>
+      <c r="F28" s="185" t="s">
+        <v>183</v>
       </c>
       <c r="G28" s="185" t="s">
         <v>154</v>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE00C5A-1266-8E4C-A4F9-4FBDE64FE223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC56A34-ADFA-564E-B419-138C3EB80E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="500" windowWidth="17120" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1137,7 +1137,7 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1640,6 +1640,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -12700,7 +12701,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{92D9C233-81F2-574B-A1C3-D7952ADD29E2}">
+      <autoFilter ref="A2:K42" xr:uid="{4A7BE891-7EAC-984F-8D04-65015180C6BC}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -15384,7 +15385,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15931,16 +15932,16 @@
       <c r="A28" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="193">
+      <c r="B28" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="192">
         <v>0.2</v>
       </c>
-      <c r="D28" s="195" t="s">
+      <c r="D28" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="196" t="s">
+      <c r="E28" s="189" t="s">
         <v>66</v>
       </c>
       <c r="F28" s="185" t="s">

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC56A34-ADFA-564E-B419-138C3EB80E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF65D2-A032-C748-AE7A-49ED710E1412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="184">
   <si>
     <t>Course Code</t>
   </si>
@@ -1629,6 +1629,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="15" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1640,14 +1641,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2526,17 +2534,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="213"/>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
+      <c r="A1" s="214"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3743,15 +3751,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="215" t="s">
+      <c r="E35" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="214"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="214"/>
-      <c r="J35" s="214"/>
-      <c r="K35" s="214"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="215"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -3764,15 +3772,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="215" t="s">
+      <c r="E36" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="214"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="214"/>
-      <c r="I36" s="214"/>
-      <c r="J36" s="214"/>
-      <c r="K36" s="214"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="215"/>
+      <c r="J36" s="215"/>
+      <c r="K36" s="215"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -3818,15 +3826,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="215" t="s">
+      <c r="E38" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="214"/>
-      <c r="K38" s="214"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="215"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -3839,15 +3847,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="216" t="s">
+      <c r="E39" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="217"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="217"/>
-      <c r="I39" s="217"/>
-      <c r="J39" s="217"/>
-      <c r="K39" s="217"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="218"/>
+      <c r="K39" s="218"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -12701,7 +12709,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{4A7BE891-7EAC-984F-8D04-65015180C6BC}">
+      <autoFilter ref="A2:K42" xr:uid="{F5A33C9A-82C9-9347-A907-F62F2C3E2CE7}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12718,42 +12726,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="79" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="80" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="78" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="78" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="75" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="76" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="74" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="75" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="73" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="71" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12782,25 +12790,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="69" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="70" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="67" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="65" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="66" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13721,42 +13729,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="64" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="65" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="64" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="60" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="61" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="59" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="60" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13785,43 +13793,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="50" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="51" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="49" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="50" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="48" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="49" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="46" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="47" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14411,47 +14419,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="endsWith" dxfId="45" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="46" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E17">
-    <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="beginsWith" dxfId="41" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="42" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="41" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G17">
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:G5 L1 F16:G17">
-    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14480,98 +14488,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1 F5:G5">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K3">
-    <cfRule type="containsText" dxfId="30" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="31" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K4 H4 M4 L4:L7">
-    <cfRule type="containsText" dxfId="29" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K7">
-    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:K7">
-    <cfRule type="containsText" dxfId="27" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="28" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K10">
-    <cfRule type="containsText" dxfId="26" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="27" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K13">
-    <cfRule type="containsText" dxfId="25" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="26" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:K14">
-    <cfRule type="containsText" dxfId="24" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="25" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K15">
-    <cfRule type="containsText" dxfId="23" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="24" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K17">
-    <cfRule type="containsText" dxfId="22" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="23" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="21" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="22" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L10">
-    <cfRule type="containsText" dxfId="20" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="21" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L13">
-    <cfRule type="containsText" dxfId="19" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="20" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="18" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="19" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="17" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="18" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L17">
-    <cfRule type="containsText" dxfId="16" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="17" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2 L2:L3">
-    <cfRule type="containsText" dxfId="15" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="16" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14587,8 +14595,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15115,16 +15123,16 @@
       <c r="A26" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="211" t="s">
+      <c r="B26" s="188" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="212">
+      <c r="C26" s="192">
         <v>0.2</v>
       </c>
-      <c r="D26" s="195" t="s">
+      <c r="D26" s="213" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="196" t="s">
+      <c r="E26" s="189" t="s">
         <v>66</v>
       </c>
       <c r="F26" s="185" t="s">
@@ -15336,42 +15344,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E20">
-    <cfRule type="endsWith" dxfId="14" priority="21" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="15" priority="21" operator="endsWith" text="*">
       <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="endsWith" dxfId="13" priority="19" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="14" priority="19" operator="endsWith" text="*">
       <formula>RIGHT((E11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E24">
-    <cfRule type="endsWith" dxfId="12" priority="16" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="13" priority="16" operator="endsWith" text="*">
       <formula>RIGHT((E22),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E28">
-    <cfRule type="endsWith" dxfId="11" priority="14" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="12" priority="14" operator="endsWith" text="*">
       <formula>RIGHT((E26),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E32">
-    <cfRule type="endsWith" dxfId="10" priority="15" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="11" priority="15" operator="endsWith" text="*">
       <formula>RIGHT((E30),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E37">
-    <cfRule type="endsWith" dxfId="9" priority="13" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="10" priority="13" operator="endsWith" text="*">
       <formula>RIGHT((E34),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E40">
-    <cfRule type="endsWith" dxfId="8" priority="12" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="9" priority="12" operator="endsWith" text="*">
       <formula>RIGHT((E39),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L12 E8:E9">
-    <cfRule type="endsWith" dxfId="7" priority="20" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="8" priority="20" operator="endsWith" text="*">
       <formula>RIGHT((E2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15382,10 +15390,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2002B0-CD3E-3243-9D7D-6B4B46807CF5}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15828,16 +15836,16 @@
       <c r="A19" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="185" t="s">
+      <c r="B19" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="187">
+      <c r="C19" s="192">
         <v>0.5</v>
       </c>
-      <c r="D19" s="185" t="s">
+      <c r="D19" s="188" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="190" t="s">
+      <c r="E19" s="189" t="s">
         <v>84</v>
       </c>
       <c r="G19" s="185" t="s">
@@ -15845,16 +15853,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="185" t="s">
+      <c r="B20" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="187">
+      <c r="C20" s="192">
         <v>0.3</v>
       </c>
-      <c r="D20" s="185" t="s">
+      <c r="D20" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="190" t="s">
+      <c r="E20" s="189" t="s">
         <v>87</v>
       </c>
       <c r="G20" s="185" t="s">
@@ -15938,7 +15946,7 @@
       <c r="C28" s="192">
         <v>0.2</v>
       </c>
-      <c r="D28" s="218" t="s">
+      <c r="D28" s="213" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="189" t="s">
@@ -16147,40 +16155,59 @@
         <v>155</v>
       </c>
     </row>
+    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D44" s="188" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="210" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E8:E17 E19:E20">
-    <cfRule type="endsWith" dxfId="6" priority="9" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="7" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((E8),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="endsWith" dxfId="5" priority="5" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="6" priority="6" operator="endsWith" text="*">
       <formula>RIGHT((E24),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E30">
-    <cfRule type="endsWith" dxfId="4" priority="3" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="5" priority="4" operator="endsWith" text="*">
       <formula>RIGHT((E28),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:E34">
-    <cfRule type="endsWith" dxfId="3" priority="4" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="4" priority="5" operator="endsWith" text="*">
       <formula>RIGHT((E32),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E39">
-    <cfRule type="endsWith" dxfId="2" priority="2" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="3" priority="3" operator="endsWith" text="*">
       <formula>RIGHT((E36),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="endsWith" dxfId="1" priority="1" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="2" priority="2" operator="endsWith" text="*">
       <formula>RIGHT((E41),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M16 E3 E5:E6">
-    <cfRule type="endsWith" dxfId="0" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="1" priority="11" operator="endsWith" text="*">
       <formula>RIGHT((E2),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="*">
+      <formula>RIGHT((E44),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF65D2-A032-C748-AE7A-49ED710E1412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2498CA57-CBC3-A947-B7F0-2A15C726DCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="184">
   <si>
     <t>Course Code</t>
   </si>
@@ -588,9 +588,6 @@
     <t>1 of 9</t>
   </si>
   <si>
-    <t>9 of 21</t>
-  </si>
-  <si>
     <t>Currently Taking</t>
   </si>
   <si>
@@ -604,6 +601,9 @@
   </si>
   <si>
     <t>exam - 4-24</t>
+  </si>
+  <si>
+    <t>10 of 21</t>
   </si>
 </sst>
 </file>
@@ -12709,7 +12709,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{F5A33C9A-82C9-9347-A907-F62F2C3E2CE7}">
+      <autoFilter ref="A2:K42" xr:uid="{06B05128-D74F-6542-9B1E-D194F89CC8B1}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12822,8 +12822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13571,6 +13571,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="173" t="s">
+        <v>133</v>
+      </c>
       <c r="B20" s="173" t="s">
         <v>133</v>
       </c>
@@ -13683,7 +13686,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="173" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B23" s="173" t="s">
         <v>136</v>
@@ -13710,8 +13713,8 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="183">
-        <f>SUM(9/21)</f>
-        <v>0.42857142857142855</v>
+        <f>SUM(10/21)</f>
+        <v>0.47619047619047616</v>
       </c>
       <c r="B27" s="183">
         <f>SUM(13 / 21)</f>
@@ -14595,7 +14598,7 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -15110,13 +15113,13 @@
       </c>
       <c r="H24" s="211"/>
       <c r="I24" s="185" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="188"/>
       <c r="I25" s="185" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15139,11 +15142,11 @@
         <v>154</v>
       </c>
       <c r="G26" s="185" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H26" s="194"/>
       <c r="I26" s="185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15953,7 +15956,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G28" s="185" t="s">
         <v>154</v>
@@ -16200,14 +16203,14 @@
       <formula>RIGHT((E41),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M16 E3 E5:E6">
-    <cfRule type="endsWith" dxfId="1" priority="11" operator="endsWith" text="*">
-      <formula>RIGHT((E2),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="endsWith" dxfId="1" priority="1" operator="endsWith" text="*">
+      <formula>RIGHT((E44),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="*">
-      <formula>RIGHT((E44),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="M2:M16 E3 E5:E6">
+    <cfRule type="endsWith" dxfId="0" priority="11" operator="endsWith" text="*">
+      <formula>RIGHT((E2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2498CA57-CBC3-A947-B7F0-2A15C726DCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD14E82-AC42-1A44-8562-354B882F9428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1137,7 +1137,7 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1641,13 +1641,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="82">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2513,8 +2523,8 @@
   </sheetPr>
   <dimension ref="A1:AF1012"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -12709,7 +12719,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{06B05128-D74F-6542-9B1E-D194F89CC8B1}">
+      <autoFilter ref="A2:K42" xr:uid="{4B73A8C0-D910-DC47-919B-6558268CDC01}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12726,42 +12736,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="80" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="81" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="80" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="78" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="79" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="76" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="77" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="75" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="76" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12790,25 +12800,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="70" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="71" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="66" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="67" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12822,7 +12832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -13732,42 +13742,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="65" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="66" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="64" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="64" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="61" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="62" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="61" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="59" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13796,43 +13806,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="55" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="51" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="52" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="50" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="51" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="49" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="50" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="47" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="48" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14422,47 +14432,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="endsWith" dxfId="46" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="47" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E17">
-    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="45" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="beginsWith" dxfId="42" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="43" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="41" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="42" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G17">
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:G5 L1 F16:G17">
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14491,98 +14501,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17">
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1 F5:G5">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K3">
-    <cfRule type="containsText" dxfId="31" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="32" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K4 H4 M4 L4:L7">
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="31" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K7">
-    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:K7">
-    <cfRule type="containsText" dxfId="28" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K10">
-    <cfRule type="containsText" dxfId="27" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="28" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K13">
-    <cfRule type="containsText" dxfId="26" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="27" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:K14">
-    <cfRule type="containsText" dxfId="25" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="26" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K15">
-    <cfRule type="containsText" dxfId="24" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="25" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K17">
-    <cfRule type="containsText" dxfId="23" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="24" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="22" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="23" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L10">
-    <cfRule type="containsText" dxfId="21" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="22" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L13">
-    <cfRule type="containsText" dxfId="20" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="21" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="19" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="20" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="18" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="19" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L17">
-    <cfRule type="containsText" dxfId="17" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="18" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2 L2:L3">
-    <cfRule type="containsText" dxfId="16" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="17" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14596,10 +14606,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15019,77 +15029,63 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="193">
+      <c r="B19" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="192">
         <v>0.2</v>
       </c>
-      <c r="D19" s="194" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="196" t="s">
-        <v>32</v>
+      <c r="D19" s="213" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="189" t="s">
+        <v>66</v>
       </c>
       <c r="F19" s="185" t="s">
         <v>154</v>
+      </c>
+      <c r="G19" s="185" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="187">
-        <v>0.22</v>
-      </c>
-      <c r="D20" s="185" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="190" t="s">
-        <v>36</v>
+      <c r="C20" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="196" t="s">
+        <v>70</v>
       </c>
       <c r="F20" s="185" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="208" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="208" t="s">
+    <row r="22" spans="1:9" s="208" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="208" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="209"/>
-    </row>
-    <row r="22" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="185" t="s">
+      <c r="C22" s="209"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="185" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="187">
-        <v>0.33</v>
-      </c>
-      <c r="D22" s="185" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="190" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="185" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="187">
-        <v>0.3</v>
-      </c>
-      <c r="D23" s="185" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="190" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="194" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="196" t="s">
+        <v>32</v>
       </c>
       <c r="F23" s="185" t="s">
         <v>154</v>
@@ -15097,70 +15093,53 @@
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="185" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="C24" s="187">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="D24" s="185" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E24" s="190" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F24" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="211"/>
-      <c r="I24" s="185" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="188"/>
-      <c r="I25" s="185" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="185" t="s">
+    </row>
+    <row r="25" spans="1:9" s="219" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="185" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="193">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="195" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="196" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="188" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="192">
-        <v>0.2</v>
-      </c>
-      <c r="D26" s="213" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="189" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="185" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26" s="194"/>
-      <c r="I26" s="185" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D27" s="195" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="196" t="s">
-        <v>70</v>
+        <v>163</v>
+      </c>
+      <c r="C27" s="187">
+        <v>0.33</v>
+      </c>
+      <c r="D27" s="185" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="190" t="s">
+        <v>75</v>
       </c>
       <c r="F27" s="185" t="s">
         <v>154</v>
@@ -15168,42 +15147,52 @@
     </row>
     <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="193">
-        <v>0.1</v>
-      </c>
-      <c r="D28" s="195" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="196" t="s">
-        <v>72</v>
+        <v>163</v>
+      </c>
+      <c r="C28" s="187">
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="185" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="190" t="s">
+        <v>78</v>
       </c>
       <c r="F28" s="185" t="s">
         <v>154</v>
       </c>
     </row>
+    <row r="29" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="185" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="187">
+        <v>0.45</v>
+      </c>
+      <c r="D29" s="185" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="211"/>
+      <c r="I29" s="185" t="s">
+        <v>178</v>
+      </c>
+    </row>
     <row r="30" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="185" t="s">
+      <c r="H30" s="188"/>
+      <c r="I30" s="185" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="194" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="197" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="185" t="s">
         <v>28</v>
       </c>
@@ -15211,13 +15200,17 @@
         <v>0.2</v>
       </c>
       <c r="D31" s="194" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="196" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E31" s="197" t="s">
+        <v>56</v>
       </c>
       <c r="F31" s="185" t="s">
         <v>154</v>
+      </c>
+      <c r="H31" s="194"/>
+      <c r="I31" s="185" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15228,47 +15221,47 @@
         <v>0.2</v>
       </c>
       <c r="D32" s="194" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E32" s="196" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F32" s="185" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="185" t="s">
+    <row r="33" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="194" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="196" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="185" t="s">
+      <c r="B35" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="187">
+      <c r="C35" s="187">
         <v>0.3</v>
       </c>
-      <c r="D34" s="185" t="s">
+      <c r="D35" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="190" t="s">
+      <c r="E35" s="190" t="s">
         <v>90</v>
-      </c>
-      <c r="F34" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="185" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D35" s="194" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="195" t="s">
-        <v>125</v>
       </c>
       <c r="F35" s="185" t="s">
         <v>155</v>
@@ -15282,10 +15275,10 @@
         <v>0.2</v>
       </c>
       <c r="D36" s="194" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E36" s="195" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F36" s="185" t="s">
         <v>155</v>
@@ -15299,91 +15292,127 @@
         <v>0.2</v>
       </c>
       <c r="D37" s="194" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E37" s="195" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F37" s="185" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="185" t="s">
+    <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="185" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="194" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="185" t="s">
+      <c r="B40" s="185" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="187">
+      <c r="C40" s="187">
         <v>0.31</v>
       </c>
-      <c r="D39" s="185" t="s">
+      <c r="D40" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="191" t="s">
+      <c r="E40" s="191" t="s">
         <v>119</v>
-      </c>
-      <c r="F39" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="193">
-        <v>0.1</v>
-      </c>
-      <c r="D40" s="194" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="195" t="s">
-        <v>112</v>
       </c>
       <c r="F40" s="185" t="s">
         <v>155</v>
       </c>
     </row>
+    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="193">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="194" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="195" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="219"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="219"/>
+      <c r="E43" s="220"/>
+      <c r="F43" s="219"/>
+    </row>
+    <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="219"/>
+      <c r="C44" s="198"/>
+      <c r="D44" s="219"/>
+      <c r="E44" s="220"/>
+      <c r="F44" s="219"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E20">
-    <cfRule type="endsWith" dxfId="15" priority="21" operator="endsWith" text="*">
+  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E31 E19:E20 E23:E25">
+    <cfRule type="endsWith" dxfId="16" priority="23" operator="endsWith" text="*">
       <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="endsWith" dxfId="14" priority="19" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="15" priority="21" operator="endsWith" text="*">
       <formula>RIGHT((E11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E24">
-    <cfRule type="endsWith" dxfId="13" priority="16" operator="endsWith" text="*">
-      <formula>RIGHT((E22),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="endsWith" dxfId="14" priority="18" operator="endsWith" text="*">
+      <formula>RIGHT((E27),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
-    <cfRule type="endsWith" dxfId="12" priority="14" operator="endsWith" text="*">
-      <formula>RIGHT((E26),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E31:E36">
+    <cfRule type="endsWith" dxfId="13" priority="17" operator="endsWith" text="*">
+      <formula>RIGHT((E31),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E32">
-    <cfRule type="endsWith" dxfId="11" priority="15" operator="endsWith" text="*">
-      <formula>RIGHT((E30),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E35:E41">
+    <cfRule type="endsWith" dxfId="12" priority="15" operator="endsWith" text="*">
+      <formula>RIGHT((E35),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E37">
-    <cfRule type="endsWith" dxfId="10" priority="13" operator="endsWith" text="*">
-      <formula>RIGHT((E34),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E40">
-    <cfRule type="endsWith" dxfId="9" priority="12" operator="endsWith" text="*">
-      <formula>RIGHT((E39),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E43:E44">
+    <cfRule type="endsWith" dxfId="11" priority="14" operator="endsWith" text="*">
+      <formula>RIGHT((E43),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L12 E8:E9">
-    <cfRule type="endsWith" dxfId="8" priority="20" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="10" priority="22" operator="endsWith" text="*">
       <formula>RIGHT((E2),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="endsWith" dxfId="9" priority="2" operator="endsWith" text="*">
+      <formula>RIGHT((E18),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40:E41">
+    <cfRule type="endsWith" dxfId="8" priority="1" operator="endsWith" text="*">
+      <formula>RIGHT((E40),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15396,7 +15425,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:E44"/>
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15694,16 +15723,16 @@
       <c r="A12" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="185" t="s">
+      <c r="B12" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="187">
+      <c r="C12" s="192">
         <v>0.4</v>
       </c>
-      <c r="D12" s="185" t="s">
+      <c r="D12" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="190" t="s">
+      <c r="E12" s="189" t="s">
         <v>53</v>
       </c>
       <c r="J12" s="185">
@@ -15787,16 +15816,16 @@
       <c r="A16" s="185" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="193">
+      <c r="C16" s="192">
         <v>0.2</v>
       </c>
-      <c r="D16" s="194" t="s">
+      <c r="D16" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="196" t="s">
+      <c r="E16" s="189" t="s">
         <v>82</v>
       </c>
       <c r="G16" s="185" t="s">

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD14E82-AC42-1A44-8562-354B882F9428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4FC49F-419C-C94B-8266-88B089F43F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,7 +1137,7 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1641,39 +1641,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="82">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -12719,7 +12693,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{4B73A8C0-D910-DC47-919B-6558268CDC01}">
+      <autoFilter ref="A2:K42" xr:uid="{DC83ADB7-DC95-5143-B61F-10F4AFD8FA2A}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12736,42 +12710,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="81" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="78" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="80" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="79" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="77" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="74" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="76" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="73" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="71" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="69" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12800,25 +12774,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="71" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="66" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="67" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13742,42 +13716,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="66" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="63" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="62" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="64" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="61" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="62" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="61" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="58" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13806,43 +13780,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="52" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="52" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="49" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="51" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="48" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="50" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="47" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="48" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="45" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14432,47 +14406,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="endsWith" dxfId="47" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="44" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E17">
-    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="containsText" dxfId="45" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="beginsWith" dxfId="43" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="40" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="39" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G17">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:G5 L1 F16:G17">
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14501,98 +14475,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17">
-    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1 F5:G5">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K3">
-    <cfRule type="containsText" dxfId="32" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K4 H4 M4 L4:L7">
-    <cfRule type="containsText" dxfId="31" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="28" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K7">
-    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="27" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:K7">
-    <cfRule type="containsText" dxfId="29" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="26" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K10">
-    <cfRule type="containsText" dxfId="28" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="25" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K13">
-    <cfRule type="containsText" dxfId="27" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="24" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:K14">
-    <cfRule type="containsText" dxfId="26" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="23" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K15">
-    <cfRule type="containsText" dxfId="25" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K17">
-    <cfRule type="containsText" dxfId="24" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="21" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="23" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="20" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L10">
-    <cfRule type="containsText" dxfId="22" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="19" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L13">
-    <cfRule type="containsText" dxfId="21" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="18" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="20" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="17" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="19" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="16" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L17">
-    <cfRule type="containsText" dxfId="18" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="15" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2 L2:L3">
-    <cfRule type="containsText" dxfId="17" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="14" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14609,7 +14583,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15055,11 +15029,11 @@
       <c r="C20" s="193">
         <v>0.2</v>
       </c>
-      <c r="D20" s="195" t="s">
-        <v>69</v>
+      <c r="D20" s="194" t="s">
+        <v>31</v>
       </c>
       <c r="E20" s="196" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F20" s="185" t="s">
         <v>154</v>
@@ -15081,11 +15055,11 @@
       <c r="C23" s="193">
         <v>0.2</v>
       </c>
-      <c r="D23" s="194" t="s">
-        <v>31</v>
+      <c r="D23" s="195" t="s">
+        <v>69</v>
       </c>
       <c r="E23" s="196" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F23" s="185" t="s">
         <v>154</v>
@@ -15108,7 +15082,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="219" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="185" t="s">
         <v>162</v>
       </c>
@@ -15355,64 +15329,46 @@
         <v>155</v>
       </c>
     </row>
+    <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="185"/>
+    </row>
     <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="219"/>
       <c r="C43" s="198"/>
-      <c r="D43" s="219"/>
-      <c r="E43" s="220"/>
-      <c r="F43" s="219"/>
+      <c r="E43" s="191"/>
     </row>
     <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="219"/>
       <c r="C44" s="198"/>
-      <c r="D44" s="219"/>
-      <c r="E44" s="220"/>
-      <c r="F44" s="219"/>
+      <c r="E44" s="191"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E31 E19:E20 E23:E25">
-    <cfRule type="endsWith" dxfId="16" priority="23" operator="endsWith" text="*">
+  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E23:E25 E18:E20">
+    <cfRule type="endsWith" dxfId="13" priority="23" operator="endsWith" text="*">
       <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="endsWith" dxfId="15" priority="21" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="12" priority="21" operator="endsWith" text="*">
       <formula>RIGHT((E11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E29">
-    <cfRule type="endsWith" dxfId="14" priority="18" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="11" priority="18" operator="endsWith" text="*">
       <formula>RIGHT((E27),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E36">
-    <cfRule type="endsWith" dxfId="13" priority="17" operator="endsWith" text="*">
+  <conditionalFormatting sqref="E31:E41">
+    <cfRule type="endsWith" dxfId="10" priority="1" operator="endsWith" text="*">
       <formula>RIGHT((E31),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E41">
-    <cfRule type="endsWith" dxfId="12" priority="15" operator="endsWith" text="*">
-      <formula>RIGHT((E35),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E43:E44">
-    <cfRule type="endsWith" dxfId="11" priority="14" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="9" priority="14" operator="endsWith" text="*">
       <formula>RIGHT((E43),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L12 E8:E9">
-    <cfRule type="endsWith" dxfId="10" priority="22" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="8" priority="22" operator="endsWith" text="*">
       <formula>RIGHT((E2),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="endsWith" dxfId="9" priority="2" operator="endsWith" text="*">
-      <formula>RIGHT((E18),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:E41">
-    <cfRule type="endsWith" dxfId="8" priority="1" operator="endsWith" text="*">
-      <formula>RIGHT((E40),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4FC49F-419C-C94B-8266-88B089F43F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179FEF5-7DA5-614A-B8A7-15BCDD4D6817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11740" yWindow="500" windowWidth="21860" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2498,7 +2498,7 @@
   <dimension ref="A1:AF1012"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -12693,7 +12693,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{DC83ADB7-DC95-5143-B61F-10F4AFD8FA2A}">
+      <autoFilter ref="A2:K42" xr:uid="{C5C17756-AAA6-BA4F-8384-F9FD6B145262}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -13830,7 +13830,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14582,8 +14582,8 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14638,16 +14638,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I2" s="185">
+      <c r="I2" s="188">
         <v>5</v>
       </c>
-      <c r="J2" s="187">
+      <c r="J2" s="192">
         <v>0.5</v>
       </c>
-      <c r="K2" s="185" t="s">
+      <c r="K2" s="188" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="190" t="s">
+      <c r="L2" s="189" t="s">
         <v>84</v>
       </c>
     </row>
@@ -15341,7 +15341,7 @@
       <c r="E44" s="191"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E23:E25 E18:E20">
+  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E20 E23:E25">
     <cfRule type="endsWith" dxfId="13" priority="23" operator="endsWith" text="*">
       <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179FEF5-7DA5-614A-B8A7-15BCDD4D6817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A2D4BD-35EE-3842-9D03-66C88EE78D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="500" windowWidth="21860" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="500" windowWidth="28480" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12693,7 +12693,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{C5C17756-AAA6-BA4F-8384-F9FD6B145262}">
+      <autoFilter ref="A2:K42" xr:uid="{DF0546B8-A3FD-EF44-94DB-FB4F3C476C2D}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14582,8 +14582,8 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15138,16 +15138,16 @@
     </row>
     <row r="29" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="185" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="187">
-        <v>0.45</v>
-      </c>
-      <c r="D29" s="185" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="190" t="s">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="197" t="s">
+        <v>56</v>
       </c>
       <c r="F29" s="185" t="s">
         <v>154</v>
@@ -15168,16 +15168,16 @@
         <v>150</v>
       </c>
       <c r="B31" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D31" s="194" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="197" t="s">
-        <v>56</v>
+        <v>163</v>
+      </c>
+      <c r="C31" s="187">
+        <v>0.45</v>
+      </c>
+      <c r="D31" s="185" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="190" t="s">
+        <v>80</v>
       </c>
       <c r="F31" s="185" t="s">
         <v>154</v>
@@ -15341,34 +15341,34 @@
       <c r="E44" s="191"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E20 E23:E25">
-    <cfRule type="endsWith" dxfId="13" priority="23" operator="endsWith" text="*">
+  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E20 E23:E25 E27:E28 E31">
+    <cfRule type="endsWith" dxfId="13" priority="24" operator="endsWith" text="*">
       <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="endsWith" dxfId="12" priority="21" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="12" priority="22" operator="endsWith" text="*">
       <formula>RIGHT((E11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E29">
-    <cfRule type="endsWith" dxfId="11" priority="18" operator="endsWith" text="*">
-      <formula>RIGHT((E27),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E31:E41">
-    <cfRule type="endsWith" dxfId="10" priority="1" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="11" priority="2" operator="endsWith" text="*">
       <formula>RIGHT((E31),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E44">
-    <cfRule type="endsWith" dxfId="9" priority="14" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="10" priority="15" operator="endsWith" text="*">
       <formula>RIGHT((E43),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L12 E8:E9">
-    <cfRule type="endsWith" dxfId="8" priority="22" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="9" priority="23" operator="endsWith" text="*">
       <formula>RIGHT((E2),LEN("*"))=("*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="endsWith" dxfId="8" priority="1" operator="endsWith" text="*">
+      <formula>RIGHT((E29),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15381,7 +15381,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A2D4BD-35EE-3842-9D03-66C88EE78D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C7F86-C443-884D-BF72-676F6386E58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="500" windowWidth="28480" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,7 +1137,7 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1641,21 +1641,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="79">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="78">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -12693,7 +12689,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{DF0546B8-A3FD-EF44-94DB-FB4F3C476C2D}">
+      <autoFilter ref="A2:K42" xr:uid="{69E95EE1-584F-D14C-B0C1-07A2C330A6C2}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12710,42 +12706,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="78" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="77" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="76" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="75" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="74" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="73" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="73" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="72" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="70" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="68" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12774,25 +12770,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="66" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="66" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13716,42 +13712,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="63" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="62" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="62" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="61" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="60" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="58" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="57" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="53" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13780,43 +13776,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="51" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="49" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="48" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="48" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="47" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="47" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="46" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="45" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="44" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14406,47 +14402,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="endsWith" dxfId="44" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="43" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E17">
-    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="42" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="41" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="beginsWith" dxfId="40" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="39" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="39" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="38" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G17">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:G5 L1 F16:G17">
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14475,98 +14471,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17">
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1 F5:G5">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K3">
-    <cfRule type="containsText" dxfId="29" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="28" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K4 H4 M4 L4:L7">
-    <cfRule type="containsText" dxfId="28" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="27" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K7">
-    <cfRule type="containsText" dxfId="27" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:K7">
-    <cfRule type="containsText" dxfId="26" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="25" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K10">
-    <cfRule type="containsText" dxfId="25" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="24" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K13">
-    <cfRule type="containsText" dxfId="24" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="23" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:K14">
-    <cfRule type="containsText" dxfId="23" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K15">
-    <cfRule type="containsText" dxfId="22" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="21" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K17">
-    <cfRule type="containsText" dxfId="21" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="20" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="20" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="19" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L10">
-    <cfRule type="containsText" dxfId="19" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="18" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L13">
-    <cfRule type="containsText" dxfId="18" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="17" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="17" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="16" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="16" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="15" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L17">
-    <cfRule type="containsText" dxfId="15" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="14" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2 L2:L3">
-    <cfRule type="containsText" dxfId="14" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="13" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14580,10 +14576,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:F31"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15022,23 +15018,6 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="194" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="196" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
     <row r="22" spans="1:9" s="208" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="208" t="s">
         <v>148</v>
@@ -15067,16 +15046,16 @@
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="187">
-        <v>0.22</v>
-      </c>
-      <c r="D24" s="185" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="190" t="s">
-        <v>36</v>
+        <v>162</v>
+      </c>
+      <c r="C24" s="193">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="195" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="196" t="s">
+        <v>72</v>
       </c>
       <c r="F24" s="185" t="s">
         <v>154</v>
@@ -15084,20 +15063,24 @@
     </row>
     <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="185" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="C25" s="193">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="195" t="s">
-        <v>71</v>
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="194" t="s">
+        <v>31</v>
       </c>
       <c r="E25" s="196" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F25" s="185" t="s">
         <v>154</v>
       </c>
+    </row>
+    <row r="26" spans="1:9" s="219" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="198"/>
+      <c r="E26" s="220"/>
     </row>
     <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="185" t="s">
@@ -15140,14 +15123,14 @@
       <c r="B29" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="194" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="197" t="s">
-        <v>56</v>
+      <c r="C29" s="187">
+        <v>0.22</v>
+      </c>
+      <c r="D29" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="190" t="s">
+        <v>36</v>
       </c>
       <c r="F29" s="185" t="s">
         <v>154</v>
@@ -15168,16 +15151,16 @@
         <v>150</v>
       </c>
       <c r="B31" s="185" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="187">
-        <v>0.45</v>
-      </c>
-      <c r="D31" s="185" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="190" t="s">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D31" s="194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="197" t="s">
+        <v>56</v>
       </c>
       <c r="F31" s="185" t="s">
         <v>154</v>
@@ -15189,16 +15172,16 @@
     </row>
     <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D32" s="194" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="196" t="s">
-        <v>60</v>
+        <v>163</v>
+      </c>
+      <c r="C32" s="187">
+        <v>0.45</v>
+      </c>
+      <c r="D32" s="185" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="190" t="s">
+        <v>80</v>
       </c>
       <c r="F32" s="185" t="s">
         <v>154</v>
@@ -15212,47 +15195,47 @@
         <v>0.2</v>
       </c>
       <c r="D33" s="194" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E33" s="196" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F33" s="185" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="185" t="s">
+    <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D34" s="194" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="196" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="185" t="s">
+      <c r="B36" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="187">
+      <c r="C36" s="187">
         <v>0.3</v>
       </c>
-      <c r="D35" s="185" t="s">
+      <c r="D36" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="190" t="s">
+      <c r="E36" s="190" t="s">
         <v>90</v>
-      </c>
-      <c r="F35" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="185" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D36" s="194" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="195" t="s">
-        <v>125</v>
       </c>
       <c r="F36" s="185" t="s">
         <v>155</v>
@@ -15266,10 +15249,10 @@
         <v>0.2</v>
       </c>
       <c r="D37" s="194" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E37" s="195" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F37" s="185" t="s">
         <v>155</v>
@@ -15283,92 +15266,104 @@
         <v>0.2</v>
       </c>
       <c r="D38" s="194" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E38" s="195" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F38" s="185" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="185" t="s">
+    <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="185" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="193">
+        <v>0.2</v>
+      </c>
+      <c r="D39" s="194" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="185" t="s">
+      <c r="B41" s="185" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="187">
+      <c r="C41" s="187">
         <v>0.31</v>
       </c>
-      <c r="D40" s="185" t="s">
+      <c r="D41" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="191" t="s">
+      <c r="E41" s="191" t="s">
         <v>119</v>
-      </c>
-      <c r="F40" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="193">
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="194" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="195" t="s">
-        <v>112</v>
       </c>
       <c r="F41" s="185" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="185"/>
+      <c r="B42" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="193">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="194" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="195" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="185" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="198"/>
-      <c r="E43" s="191"/>
+      <c r="C43" s="185"/>
     </row>
     <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="198"/>
       <c r="E44" s="191"/>
     </row>
+    <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="198"/>
+      <c r="E45" s="191"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E20 E23:E25 E27:E28 E31">
-    <cfRule type="endsWith" dxfId="13" priority="24" operator="endsWith" text="*">
+  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E19 E23:E29 E31">
+    <cfRule type="endsWith" dxfId="12" priority="24" operator="endsWith" text="*">
       <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="endsWith" dxfId="12" priority="22" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="11" priority="22" operator="endsWith" text="*">
       <formula>RIGHT((E11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E41">
-    <cfRule type="endsWith" dxfId="11" priority="2" operator="endsWith" text="*">
-      <formula>RIGHT((E31),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E32:E42">
+    <cfRule type="endsWith" dxfId="10" priority="2" operator="endsWith" text="*">
+      <formula>RIGHT((E32),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43:E44">
-    <cfRule type="endsWith" dxfId="10" priority="15" operator="endsWith" text="*">
-      <formula>RIGHT((E43),LEN("*"))=("*")</formula>
+  <conditionalFormatting sqref="E44:E45">
+    <cfRule type="endsWith" dxfId="9" priority="15" operator="endsWith" text="*">
+      <formula>RIGHT((E44),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L12 E8:E9">
-    <cfRule type="endsWith" dxfId="9" priority="23" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="8" priority="23" operator="endsWith" text="*">
       <formula>RIGHT((E2),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="endsWith" dxfId="8" priority="1" operator="endsWith" text="*">
-      <formula>RIGHT((E29),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C7F86-C443-884D-BF72-676F6386E58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F937B409-C8D8-D94F-8E40-E83E9A813628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="500" windowWidth="28480" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11620" yWindow="500" windowWidth="21980" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="183">
   <si>
     <t>Course Code</t>
   </si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t>Core/Elective</t>
-  </si>
-  <si>
-    <t>Projj</t>
   </si>
   <si>
     <t>proj</t>
@@ -603,7 +600,7 @@
     <t>exam - 4-24</t>
   </si>
   <si>
-    <t>10 of 21</t>
+    <t>11 of 21</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1134,7 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1628,7 +1625,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1641,10 +1637,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -2514,17 +2506,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="214"/>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
+      <c r="A1" s="213"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3731,15 +3723,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="216" t="s">
+      <c r="E35" s="215" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="215"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="214"/>
+      <c r="K35" s="214"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -3752,15 +3744,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="216" t="s">
+      <c r="E36" s="215" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="215"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="215"/>
-      <c r="K36" s="215"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="214"/>
+      <c r="K36" s="214"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -3806,15 +3798,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="216" t="s">
+      <c r="E38" s="215" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="215"/>
-      <c r="K38" s="215"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="214"/>
+      <c r="K38" s="214"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -3827,15 +3819,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="217" t="s">
+      <c r="E39" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="218"/>
-      <c r="G39" s="218"/>
-      <c r="H39" s="218"/>
-      <c r="I39" s="218"/>
-      <c r="J39" s="218"/>
-      <c r="K39" s="218"/>
+      <c r="F39" s="217"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="217"/>
+      <c r="I39" s="217"/>
+      <c r="J39" s="217"/>
+      <c r="K39" s="217"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -12689,7 +12681,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{69E95EE1-584F-D14C-B0C1-07A2C330A6C2}">
+      <autoFilter ref="A2:K42" xr:uid="{4F6DFCB7-BA6C-3F4F-9997-28EB06E92DAE}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12803,7 +12795,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12984,6 +12976,9 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="173" t="s">
+        <v>133</v>
+      </c>
       <c r="B5" s="173" t="s">
         <v>133</v>
       </c>
@@ -13666,7 +13661,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="173" t="s">
         <v>136</v>
@@ -13693,8 +13688,8 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="183">
-        <f>SUM(10/21)</f>
-        <v>0.47619047619047616</v>
+        <f>SUM(11/21)</f>
+        <v>0.52380952380952384</v>
       </c>
       <c r="B27" s="183">
         <f>SUM(13 / 21)</f>
@@ -13826,7 +13821,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14371,7 +14366,7 @@
     </row>
     <row r="18" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="186" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="172" t="s">
         <v>159</v>
@@ -14578,8 +14573,8 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14606,13 +14601,13 @@
         <v>160</v>
       </c>
       <c r="C1" s="187" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="185" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="185" t="s">
+      <c r="E1" s="185" t="s">
         <v>167</v>
-      </c>
-      <c r="E1" s="185" t="s">
-        <v>168</v>
       </c>
       <c r="F1" s="185" t="s">
         <v>161</v>
@@ -14621,16 +14616,16 @@
         <v>137</v>
       </c>
       <c r="I1" s="185" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="185" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="185" t="s">
+      <c r="K1" s="187" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="187" t="s">
+      <c r="L1" s="185" t="s">
         <v>172</v>
-      </c>
-      <c r="L1" s="185" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14957,7 +14952,7 @@
         <v>155</v>
       </c>
       <c r="I15" s="185" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14978,20 +14973,23 @@
         <v>154</v>
       </c>
     </row>
+    <row r="17" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="188"/>
+    </row>
     <row r="18" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="188" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="211" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="212">
+      <c r="B18" s="188" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="192">
         <v>0.25</v>
       </c>
-      <c r="D18" s="185" t="s">
+      <c r="D18" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="190" t="s">
+      <c r="E18" s="189" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="185" t="s">
@@ -14999,13 +14997,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="188"/>
       <c r="B19" s="188" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="192">
         <v>0.2</v>
       </c>
-      <c r="D19" s="213" t="s">
+      <c r="D19" s="212" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="189" t="s">
@@ -15015,7 +15014,7 @@
         <v>154</v>
       </c>
       <c r="G19" s="185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="208" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15046,7 +15045,7 @@
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="185" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C24" s="193">
         <v>0.1</v>
@@ -15078,16 +15077,16 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="219" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="198"/>
-      <c r="E26" s="220"/>
+      <c r="E26" s="190"/>
     </row>
     <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="185" t="s">
         <v>149</v>
       </c>
       <c r="B27" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="187">
         <v>0.33</v>
@@ -15104,7 +15103,7 @@
     </row>
     <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="187">
         <v>0.3</v>
@@ -15137,13 +15136,13 @@
       </c>
       <c r="H29" s="211"/>
       <c r="I29" s="185" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H30" s="188"/>
       <c r="I30" s="185" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15167,12 +15166,12 @@
       </c>
       <c r="H31" s="194"/>
       <c r="I31" s="185" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="187">
         <v>0.45</v>
@@ -15226,7 +15225,7 @@
         <v>151</v>
       </c>
       <c r="B36" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" s="187">
         <v>0.3</v>
@@ -15243,7 +15242,7 @@
     </row>
     <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="193">
         <v>0.2</v>
@@ -15260,7 +15259,7 @@
     </row>
     <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="193">
         <v>0.2</v>
@@ -15277,7 +15276,7 @@
     </row>
     <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="193">
         <v>0.2</v>
@@ -15341,7 +15340,7 @@
       <c r="E45" s="191"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E19 E23:E29 E31">
+  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E19 E23:E29">
     <cfRule type="endsWith" dxfId="12" priority="24" operator="endsWith" text="*">
       <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
@@ -15351,9 +15350,9 @@
       <formula>RIGHT((E11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E42">
+  <conditionalFormatting sqref="E31:E42">
     <cfRule type="endsWith" dxfId="10" priority="2" operator="endsWith" text="*">
-      <formula>RIGHT((E32),LEN("*"))=("*")</formula>
+      <formula>RIGHT((E31),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:E45">
@@ -15376,7 +15375,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15404,13 +15403,13 @@
         <v>160</v>
       </c>
       <c r="C1" s="200" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="199" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="199" t="s">
+      <c r="E1" s="199" t="s">
         <v>167</v>
-      </c>
-      <c r="E1" s="199" t="s">
-        <v>168</v>
       </c>
       <c r="G1" s="199" t="s">
         <v>161</v>
@@ -15419,16 +15418,16 @@
         <v>137</v>
       </c>
       <c r="J1" s="199" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="199" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="199" t="s">
+      <c r="L1" s="200" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="200" t="s">
+      <c r="M1" s="199" t="s">
         <v>172</v>
-      </c>
-      <c r="M1" s="199" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15675,7 +15674,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="192">
         <v>0.4</v>
@@ -15700,16 +15699,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="188" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="187">
+      <c r="C13" s="192">
         <v>0.25</v>
       </c>
-      <c r="D13" s="185" t="s">
+      <c r="D13" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="190" t="s">
+      <c r="E13" s="189" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="185" t="s">
@@ -15768,7 +15767,7 @@
         <v>145</v>
       </c>
       <c r="B16" s="188" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="192">
         <v>0.2</v>
@@ -15820,7 +15819,7 @@
         <v>146</v>
       </c>
       <c r="B19" s="188" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="192">
         <v>0.5</v>
@@ -15837,7 +15836,7 @@
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="188" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="192">
         <v>0.3</v>
@@ -15870,7 +15869,7 @@
         <v>147</v>
       </c>
       <c r="B24" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="187">
         <v>0.33</v>
@@ -15887,7 +15886,7 @@
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="187">
         <v>0.3</v>
@@ -15904,7 +15903,7 @@
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="187">
         <v>0.45</v>
@@ -15929,14 +15928,14 @@
       <c r="C28" s="192">
         <v>0.2</v>
       </c>
-      <c r="D28" s="213" t="s">
+      <c r="D28" s="212" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="189" t="s">
         <v>66</v>
       </c>
       <c r="F28" s="185" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G28" s="185" t="s">
         <v>154</v>
@@ -15961,7 +15960,7 @@
     </row>
     <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="185" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="193">
         <v>0.1</v>
@@ -16035,7 +16034,7 @@
         <v>151</v>
       </c>
       <c r="B36" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" s="187">
         <v>0.3</v>
@@ -16052,7 +16051,7 @@
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="193">
         <v>0.2</v>
@@ -16069,7 +16068,7 @@
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="193">
         <v>0.2</v>
@@ -16086,7 +16085,7 @@
     </row>
     <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="193">
         <v>0.2</v>
@@ -16214,10 +16213,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="204" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="206" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="207" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="204" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
@@ -16225,7 +16224,7 @@
         <v>5303</v>
       </c>
       <c r="B2" s="205" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
@@ -16233,7 +16232,7 @@
         <v>5304</v>
       </c>
       <c r="B3" s="205" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F937B409-C8D8-D94F-8E40-E83E9A813628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5892C4-1029-304C-99AA-D46FB4F28D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="500" windowWidth="21980" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13000" yWindow="500" windowWidth="20600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12681,7 +12681,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{4F6DFCB7-BA6C-3F4F-9997-28EB06E92DAE}">
+      <autoFilter ref="A2:K42" xr:uid="{C22CD32D-BE9F-D34F-95CE-A778EA2A15BB}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14574,7 +14574,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5892C4-1029-304C-99AA-D46FB4F28D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE80DD-C4EF-B949-B6FD-9112C88E2B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13000" yWindow="500" windowWidth="20600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="188">
   <si>
     <t>Course Code</t>
   </si>
@@ -602,16 +602,38 @@
   <si>
     <t>11 of 21</t>
   </si>
+  <si>
+    <t>need 9 elective courses</t>
+  </si>
+  <si>
+    <t>Trees, SVM and Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>Resampling, Selection and Splines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCA 5112 </t>
+  </si>
+  <si>
+    <t>Introduction to Generative AI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,6 +752,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1131,435 +1159,435 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1568,90 +1596,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="32" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="32" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="33" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="33" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="34" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="34" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="78">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="77">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -12681,7 +12702,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{C22CD32D-BE9F-D34F-95CE-A778EA2A15BB}">
+      <autoFilter ref="A2:K42" xr:uid="{89A13DCE-26E2-7443-8312-0C8309C857E2}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12698,42 +12719,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="77" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="76" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="76" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="75" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="74" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="73" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="73" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="72" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="72" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="71" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="70" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="69" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="67" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12762,25 +12783,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="66" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13707,42 +13728,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="62" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="61" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="60" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="58" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="57" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="56" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13771,43 +13792,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="48" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="47" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="47" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="46" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="46" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="45" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="44" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="43" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13821,7 +13842,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14372,7 +14393,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="172" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="184">
         <f>SUM(3 / 9)</f>
@@ -14397,47 +14422,47 @@
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="endsWith" dxfId="43" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="42" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E17">
-    <cfRule type="containsText" dxfId="42" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="containsText" dxfId="41" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="beginsWith" dxfId="39" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="38" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="38" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="37" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G17">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:G5 L1 F16:G17">
-    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14466,98 +14491,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17">
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1 F5:G5">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K3">
-    <cfRule type="containsText" dxfId="28" priority="72" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="27" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K4 H4 M4 L4:L7">
-    <cfRule type="containsText" dxfId="27" priority="36" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="26" priority="36" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K7">
-    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:K7">
-    <cfRule type="containsText" dxfId="25" priority="199" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="24" priority="199" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K10">
-    <cfRule type="containsText" dxfId="24" priority="128" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="23" priority="128" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K13">
-    <cfRule type="containsText" dxfId="23" priority="212" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="212" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:K14">
-    <cfRule type="containsText" dxfId="22" priority="205" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="21" priority="205" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K15">
-    <cfRule type="containsText" dxfId="21" priority="124" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="20" priority="124" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K17">
-    <cfRule type="containsText" dxfId="20" priority="68" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="19" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="19" priority="201" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="18" priority="201" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L10">
-    <cfRule type="containsText" dxfId="18" priority="130" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="17" priority="130" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L13">
-    <cfRule type="containsText" dxfId="17" priority="214" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="16" priority="214" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="16" priority="207" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="15" priority="207" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R34))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="15" priority="126" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="14" priority="126" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L17">
-    <cfRule type="containsText" dxfId="14" priority="70" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="13" priority="70" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2 L2:L3">
-    <cfRule type="containsText" dxfId="13" priority="73" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="12" priority="73" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14571,10 +14596,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15296,7 +15321,7 @@
         <v>152</v>
       </c>
       <c r="B41" s="185" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="C41" s="187">
         <v>0.31</v>
@@ -15315,49 +15340,93 @@
       <c r="B42" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="193">
-        <v>0.1</v>
-      </c>
-      <c r="D42" s="194" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="195" t="s">
-        <v>112</v>
+      <c r="C42" s="187">
+        <v>0.25</v>
+      </c>
+      <c r="D42" s="185" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="185" t="s">
+        <v>185</v>
       </c>
       <c r="F42" s="185" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="185"/>
+      <c r="B43" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="187">
+        <v>0.25</v>
+      </c>
+      <c r="D43" s="185" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="218" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="185" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="198"/>
-      <c r="E44" s="191"/>
+      <c r="B44" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="193">
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="194" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="195" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="185" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="198"/>
-      <c r="E45" s="191"/>
+      <c r="B45" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="185" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="185" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="185" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="198"/>
+      <c r="E46" s="191"/>
+    </row>
+    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="198"/>
+      <c r="E47" s="191"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E19 E23:E29">
-    <cfRule type="endsWith" dxfId="12" priority="24" operator="endsWith" text="*">
+  <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="E3 E5:E6 E14:E16 E18:E19 E23:E29 E31:E41 E43:E44">
+    <cfRule type="endsWith" dxfId="11" priority="24" operator="endsWith" text="*">
       <formula>RIGHT((E3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="endsWith" dxfId="11" priority="22" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="10" priority="22" operator="endsWith" text="*">
       <formula>RIGHT((E11),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E42">
-    <cfRule type="endsWith" dxfId="10" priority="2" operator="endsWith" text="*">
-      <formula>RIGHT((E31),LEN("*"))=("*")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E45">
+  <conditionalFormatting sqref="E46:E47">
     <cfRule type="endsWith" dxfId="9" priority="15" operator="endsWith" text="*">
-      <formula>RIGHT((E44),LEN("*"))=("*")</formula>
+      <formula>RIGHT((E46),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L12 E8:E9">

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE80DD-C4EF-B949-B6FD-9112C88E2B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D207F681-38BE-E644-A24C-0CDD77208BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="500" windowWidth="20600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13080" yWindow="500" windowWidth="20520" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="193">
   <si>
     <t>Course Code</t>
   </si>
@@ -594,9 +594,6 @@
     <t>Final is 20% or less of final grade</t>
   </si>
   <si>
-    <t>Exam 4/24/24</t>
-  </si>
-  <si>
     <t>exam - 4-24</t>
   </si>
   <si>
@@ -616,6 +613,24 @@
   </si>
   <si>
     <t>Introduction to Generative AI</t>
+  </si>
+  <si>
+    <t>July-Aug</t>
+  </si>
+  <si>
+    <t>Aug-Oct</t>
+  </si>
+  <si>
+    <t>Oct-Dec</t>
+  </si>
+  <si>
+    <t>Jan-Mar</t>
+  </si>
+  <si>
+    <t>Mar-May</t>
+  </si>
+  <si>
+    <t>E - cross-listed</t>
   </si>
 </sst>
 </file>
@@ -763,7 +778,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,6 +983,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -1162,7 +1183,7 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1654,6 +1675,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1665,7 +1687,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="35" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -2527,17 +2554,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="213"/>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
+      <c r="A1" s="214"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3744,15 +3771,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="215" t="s">
+      <c r="E35" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="214"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="214"/>
-      <c r="J35" s="214"/>
-      <c r="K35" s="214"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="215"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -3765,15 +3792,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="215" t="s">
+      <c r="E36" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="214"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="214"/>
-      <c r="I36" s="214"/>
-      <c r="J36" s="214"/>
-      <c r="K36" s="214"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="215"/>
+      <c r="J36" s="215"/>
+      <c r="K36" s="215"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -3819,15 +3846,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="215" t="s">
+      <c r="E38" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="214"/>
-      <c r="K38" s="214"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="215"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -3840,15 +3867,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="216" t="s">
+      <c r="E39" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="217"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="217"/>
-      <c r="I39" s="217"/>
-      <c r="J39" s="217"/>
-      <c r="K39" s="217"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="218"/>
+      <c r="K39" s="218"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -12702,7 +12729,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{89A13DCE-26E2-7443-8312-0C8309C857E2}">
+      <autoFilter ref="A2:K42" xr:uid="{1AE56851-4EF3-EC43-9CF1-89FD23E15322}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12816,7 +12843,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13682,7 +13709,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="173" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B23" s="173" t="s">
         <v>136</v>
@@ -14395,7 +14422,7 @@
     </row>
     <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="172" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -14598,8 +14625,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14733,9 +14760,6 @@
       <c r="F5" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="185">
-        <v>34</v>
-      </c>
       <c r="I5" s="185">
         <v>9</v>
       </c>
@@ -14766,9 +14790,6 @@
       <c r="F6" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="185">
-        <v>38</v>
-      </c>
       <c r="I6" s="185">
         <v>13</v>
       </c>
@@ -15038,9 +15059,6 @@
       <c r="F19" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="185" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="22" spans="1:9" s="208" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="208" t="s">
@@ -15055,13 +15073,13 @@
       <c r="B23" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="193">
+      <c r="C23" s="219">
         <v>0.2</v>
       </c>
-      <c r="D23" s="195" t="s">
+      <c r="D23" s="220" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="196" t="s">
+      <c r="E23" s="221" t="s">
         <v>70</v>
       </c>
       <c r="F23" s="185" t="s">
@@ -15069,6 +15087,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="185" t="s">
+        <v>187</v>
+      </c>
       <c r="B24" s="185" t="s">
         <v>164</v>
       </c>
@@ -15089,13 +15110,13 @@
       <c r="B25" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="193">
+      <c r="C25" s="219">
         <v>0.2</v>
       </c>
-      <c r="D25" s="194" t="s">
+      <c r="D25" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="196" t="s">
+      <c r="E25" s="221" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="185" t="s">
@@ -15127,6 +15148,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="185" t="s">
+        <v>188</v>
+      </c>
       <c r="B28" s="185" t="s">
         <v>162</v>
       </c>
@@ -15195,6 +15219,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="185" t="s">
+        <v>189</v>
+      </c>
       <c r="B32" s="185" t="s">
         <v>162</v>
       </c>
@@ -15266,6 +15293,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="185" t="s">
+        <v>190</v>
+      </c>
       <c r="B37" s="185" t="s">
         <v>162</v>
       </c>
@@ -15337,6 +15367,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="185" t="s">
+        <v>191</v>
+      </c>
       <c r="B42" s="185" t="s">
         <v>28</v>
       </c>
@@ -15347,7 +15380,7 @@
         <v>120</v>
       </c>
       <c r="E42" s="185" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F42" s="185" t="s">
         <v>155</v>
@@ -15363,8 +15396,8 @@
       <c r="D43" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="218" t="s">
-        <v>184</v>
+      <c r="E43" s="213" t="s">
+        <v>183</v>
       </c>
       <c r="F43" s="185" t="s">
         <v>155</v>
@@ -15395,13 +15428,13 @@
         <v>97</v>
       </c>
       <c r="D45" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="185" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="185" t="s">
-        <v>187</v>
-      </c>
       <c r="F45" s="185" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16004,7 +16037,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G28" s="185" t="s">
         <v>154</v>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D207F681-38BE-E644-A24C-0CDD77208BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568F2AC5-D5E9-FE4C-B00B-1CECEAB06913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="500" windowWidth="20520" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5180" yWindow="500" windowWidth="20520" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1676,6 +1676,12 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="35" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1687,12 +1693,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="35" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -2554,17 +2554,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="214"/>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
+      <c r="A1" s="218"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3771,15 +3771,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="216" t="s">
+      <c r="E35" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="215"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
+      <c r="K35" s="219"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -3792,15 +3792,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="216" t="s">
+      <c r="E36" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="215"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="215"/>
-      <c r="K36" s="215"/>
+      <c r="F36" s="219"/>
+      <c r="G36" s="219"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="219"/>
+      <c r="K36" s="219"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -3846,15 +3846,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="216" t="s">
+      <c r="E38" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="215"/>
-      <c r="K38" s="215"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="219"/>
+      <c r="K38" s="219"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -3867,15 +3867,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="217" t="s">
+      <c r="E39" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="218"/>
-      <c r="G39" s="218"/>
-      <c r="H39" s="218"/>
-      <c r="I39" s="218"/>
-      <c r="J39" s="218"/>
-      <c r="K39" s="218"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="222"/>
+      <c r="K39" s="222"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -12729,7 +12729,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{1AE56851-4EF3-EC43-9CF1-89FD23E15322}">
+      <autoFilter ref="A2:K42" xr:uid="{8E7C9770-BBE5-564A-BEBC-BD9D9C8BE846}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -14625,8 +14625,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15070,16 +15070,16 @@
       <c r="A23" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="219">
+      <c r="B23" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="192">
         <v>0.2</v>
       </c>
-      <c r="D23" s="220" t="s">
+      <c r="D23" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="221" t="s">
+      <c r="E23" s="189" t="s">
         <v>70</v>
       </c>
       <c r="F23" s="185" t="s">
@@ -15093,13 +15093,13 @@
       <c r="B24" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="193">
+      <c r="C24" s="214">
         <v>0.1</v>
       </c>
-      <c r="D24" s="195" t="s">
+      <c r="D24" s="215" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="196" t="s">
+      <c r="E24" s="216" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="185" t="s">
@@ -15110,13 +15110,13 @@
       <c r="B25" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="219">
+      <c r="C25" s="214">
         <v>0.2</v>
       </c>
-      <c r="D25" s="222" t="s">
+      <c r="D25" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="221" t="s">
+      <c r="E25" s="216" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="185" t="s">

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568F2AC5-D5E9-FE4C-B00B-1CECEAB06913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FE6CC3-27FC-F24C-AF07-FB92352F6830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="500" windowWidth="20520" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11840" yWindow="520" windowWidth="21760" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="193">
   <si>
     <t>Course Code</t>
   </si>
@@ -597,9 +597,6 @@
     <t>exam - 4-24</t>
   </si>
   <si>
-    <t>11 of 21</t>
-  </si>
-  <si>
     <t>need 9 elective courses</t>
   </si>
   <si>
@@ -631,6 +628,9 @@
   </si>
   <si>
     <t>E - cross-listed</t>
+  </si>
+  <si>
+    <t>13 of 21</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1183,7 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1677,7 +1677,6 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="16" fillId="35" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2554,17 +2553,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="218"/>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
+      <c r="A1" s="217"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3771,15 +3770,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="220" t="s">
+      <c r="E35" s="219" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="219"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
-      <c r="K35" s="219"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="218"/>
+      <c r="K35" s="218"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -3792,15 +3791,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="220" t="s">
+      <c r="E36" s="219" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="219"/>
-      <c r="G36" s="219"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="219"/>
-      <c r="K36" s="219"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="218"/>
+      <c r="K36" s="218"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -3846,15 +3845,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="220" t="s">
+      <c r="E38" s="219" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="219"/>
-      <c r="K38" s="219"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="218"/>
+      <c r="K38" s="218"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -3867,15 +3866,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="221" t="s">
+      <c r="E39" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="222"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="222"/>
-      <c r="J39" s="222"/>
-      <c r="K39" s="222"/>
+      <c r="F39" s="221"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="221"/>
+      <c r="I39" s="221"/>
+      <c r="J39" s="221"/>
+      <c r="K39" s="221"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -12729,7 +12728,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{8E7C9770-BBE5-564A-BEBC-BD9D9C8BE846}">
+      <autoFilter ref="A2:K42" xr:uid="{59EA312D-A584-244C-B100-CD9E2D10ED36}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12842,8 +12841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13635,6 +13634,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="173" t="s">
+        <v>133</v>
+      </c>
       <c r="B21" s="173" t="s">
         <v>133</v>
       </c>
@@ -13673,6 +13675,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="173" t="s">
+        <v>133</v>
+      </c>
       <c r="C22" s="107" t="s">
         <v>71</v>
       </c>
@@ -13709,7 +13714,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="173" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B23" s="173" t="s">
         <v>136</v>
@@ -13736,8 +13741,8 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="183">
-        <f>SUM(11/21)</f>
-        <v>0.52380952380952384</v>
+        <f>SUM(13/21)</f>
+        <v>0.61904761904761907</v>
       </c>
       <c r="B27" s="183">
         <f>SUM(13 / 21)</f>
@@ -14422,7 +14427,7 @@
     </row>
     <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="172" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -14625,8 +14630,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15088,18 +15093,18 @@
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="185" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="185" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="214">
+        <v>186</v>
+      </c>
+      <c r="B24" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="192">
         <v>0.1</v>
       </c>
-      <c r="D24" s="215" t="s">
+      <c r="D24" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="216" t="s">
+      <c r="E24" s="189" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="185" t="s">
@@ -15113,10 +15118,10 @@
       <c r="C25" s="214">
         <v>0.2</v>
       </c>
-      <c r="D25" s="217" t="s">
+      <c r="D25" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="216" t="s">
+      <c r="E25" s="215" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="185" t="s">
@@ -15149,7 +15154,7 @@
     </row>
     <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="185" t="s">
         <v>162</v>
@@ -15220,7 +15225,7 @@
     </row>
     <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="185" t="s">
         <v>162</v>
@@ -15294,7 +15299,7 @@
     </row>
     <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="185" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="185" t="s">
         <v>162</v>
@@ -15368,7 +15373,7 @@
     </row>
     <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="185" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B42" s="185" t="s">
         <v>28</v>
@@ -15380,7 +15385,7 @@
         <v>120</v>
       </c>
       <c r="E42" s="185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F42" s="185" t="s">
         <v>155</v>
@@ -15397,7 +15402,7 @@
         <v>122</v>
       </c>
       <c r="E43" s="213" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F43" s="185" t="s">
         <v>155</v>
@@ -15428,13 +15433,13 @@
         <v>97</v>
       </c>
       <c r="D45" s="185" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="185" t="s">
-        <v>186</v>
-      </c>
       <c r="F45" s="185" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15477,7 +15482,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16044,16 +16049,16 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="193">
+      <c r="B29" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="192">
         <v>0.2</v>
       </c>
-      <c r="D29" s="195" t="s">
+      <c r="D29" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="196" t="s">
+      <c r="E29" s="189" t="s">
         <v>70</v>
       </c>
       <c r="G29" s="185" t="s">
@@ -16061,16 +16066,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="185" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="193">
+      <c r="B30" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="192">
         <v>0.1</v>
       </c>
-      <c r="D30" s="195" t="s">
+      <c r="D30" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="196" t="s">
+      <c r="E30" s="189" t="s">
         <v>72</v>
       </c>
       <c r="G30" s="185" t="s">

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FE6CC3-27FC-F24C-AF07-FB92352F6830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFF25D7-0F92-C740-9FAA-B3DCA5296297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11840" yWindow="520" windowWidth="21760" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14840" yWindow="520" windowWidth="18760" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="195">
   <si>
     <t>Course Code</t>
   </si>
@@ -631,6 +631,12 @@
   </si>
   <si>
     <t>13 of 21</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>A-</t>
   </si>
 </sst>
 </file>
@@ -12841,7 +12847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -14628,10 +14634,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14718,6 +14724,9 @@
       <c r="F3" s="185" t="s">
         <v>154</v>
       </c>
+      <c r="G3" s="185">
+        <v>4</v>
+      </c>
       <c r="I3" s="185">
         <v>11</v>
       </c>
@@ -14765,6 +14774,9 @@
       <c r="F5" s="185" t="s">
         <v>154</v>
       </c>
+      <c r="G5" s="185">
+        <v>4</v>
+      </c>
       <c r="I5" s="185">
         <v>9</v>
       </c>
@@ -14795,6 +14807,9 @@
       <c r="F6" s="185" t="s">
         <v>154</v>
       </c>
+      <c r="G6" s="185">
+        <v>4</v>
+      </c>
       <c r="I6" s="185">
         <v>13</v>
       </c>
@@ -14842,6 +14857,9 @@
       <c r="F8" s="185" t="s">
         <v>154</v>
       </c>
+      <c r="G8" s="185">
+        <v>4</v>
+      </c>
       <c r="I8" s="185">
         <v>12</v>
       </c>
@@ -14872,6 +14890,9 @@
       <c r="F9" s="185" t="s">
         <v>154</v>
       </c>
+      <c r="G9" s="185">
+        <v>4</v>
+      </c>
       <c r="I9" s="185">
         <v>6</v>
       </c>
@@ -14919,6 +14940,9 @@
       <c r="F11" s="185" t="s">
         <v>154</v>
       </c>
+      <c r="G11" s="185">
+        <v>4</v>
+      </c>
       <c r="I11" s="185">
         <v>7</v>
       </c>
@@ -14949,6 +14973,9 @@
       <c r="F12" s="185" t="s">
         <v>154</v>
       </c>
+      <c r="G12" s="185">
+        <v>4</v>
+      </c>
       <c r="I12" s="185">
         <v>8</v>
       </c>
@@ -14983,6 +15010,9 @@
       </c>
       <c r="F14" s="185" t="s">
         <v>154</v>
+      </c>
+      <c r="G14" s="185">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15002,6 +15032,9 @@
       <c r="F15" s="185" t="s">
         <v>155</v>
       </c>
+      <c r="G15" s="185">
+        <v>4</v>
+      </c>
       <c r="I15" s="185" t="s">
         <v>168</v>
       </c>
@@ -15023,6 +15056,9 @@
       <c r="F16" s="185" t="s">
         <v>154</v>
       </c>
+      <c r="G16" s="185">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="188"/>
@@ -15032,7 +15068,7 @@
         <v>146</v>
       </c>
       <c r="B18" s="188" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="C18" s="192">
         <v>0.25</v>
@@ -15045,12 +15081,15 @@
       </c>
       <c r="F18" s="185" t="s">
         <v>154</v>
+      </c>
+      <c r="G18" s="185">
+        <v>2.7</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="188"/>
       <c r="B19" s="188" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="C19" s="192">
         <v>0.2</v>
@@ -15063,6 +15102,9 @@
       </c>
       <c r="F19" s="185" t="s">
         <v>154</v>
+      </c>
+      <c r="G19" s="185">
+        <v>3.7</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="208" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15090,6 +15132,9 @@
       <c r="F23" s="185" t="s">
         <v>154</v>
       </c>
+      <c r="G23" s="185">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="185" t="s">
@@ -15109,6 +15154,9 @@
       </c>
       <c r="F24" s="185" t="s">
         <v>154</v>
+      </c>
+      <c r="G24" s="185">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15243,7 +15291,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="185" t="s">
         <v>28</v>
       </c>
@@ -15260,7 +15308,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="185" t="s">
         <v>28</v>
       </c>
@@ -15277,7 +15325,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="185" t="s">
         <v>151</v>
       </c>
@@ -15297,7 +15345,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="185" t="s">
         <v>189</v>
       </c>
@@ -15317,7 +15365,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="185" t="s">
         <v>162</v>
       </c>
@@ -15334,7 +15382,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="185" t="s">
         <v>162</v>
       </c>
@@ -15351,7 +15399,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="185" t="s">
         <v>152</v>
       </c>
@@ -15371,7 +15419,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="185" t="s">
         <v>190</v>
       </c>
@@ -15391,7 +15439,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="185" t="s">
         <v>28</v>
       </c>
@@ -15408,7 +15456,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="185" t="s">
         <v>28</v>
       </c>
@@ -15425,7 +15473,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="185" t="s">
         <v>28</v>
       </c>
@@ -15442,13 +15490,25 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="198"/>
       <c r="E46" s="191"/>
     </row>
-    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="198"/>
       <c r="E47" s="191"/>
+    </row>
+    <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="185">
+        <f>SUM(G3:G45)</f>
+        <v>54.400000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="185">
+        <f>SUM(54.4/14)</f>
+        <v>3.8857142857142857</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFF25D7-0F92-C740-9FAA-B3DCA5296297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5D0C45-0C78-2F45-827D-106A8BE50698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14840" yWindow="520" windowWidth="18760" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14636,8 +14636,8 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5D0C45-0C78-2F45-827D-106A8BE50698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A1610E-597E-3341-98C2-5007D95FE04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14840" yWindow="520" windowWidth="18760" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="26580" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="202">
   <si>
     <t>Course Code</t>
   </si>
@@ -525,9 +525,6 @@
   </si>
   <si>
     <t>Statistical Inference &amp; Hypothesis Testing inDS Apps</t>
-  </si>
-  <si>
-    <t>3 OF 9</t>
   </si>
   <si>
     <t>Grades</t>
@@ -637,6 +634,30 @@
   </si>
   <si>
     <t>A-</t>
+  </si>
+  <si>
+    <t>CSCA 5112</t>
+  </si>
+  <si>
+    <t>DTSA 5740</t>
+  </si>
+  <si>
+    <t>DTSA 5741</t>
+  </si>
+  <si>
+    <t>DTSA 5736</t>
+  </si>
+  <si>
+    <t>When to Regulate? The Digital Divide and Net Neutrality</t>
+  </si>
+  <si>
+    <t>Modeling Climate Anomalies with Multivariate Regression</t>
+  </si>
+  <si>
+    <t>Global Climate Change Policies and Analysis</t>
+  </si>
+  <si>
+    <t>5 OF 9</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1017,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1183,13 +1204,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1634,7 +1688,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,6 +1740,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1704,7 +1772,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="79">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1854,6 +1922,22 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFD966"/>
           <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2559,17 +2643,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="217"/>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
+      <c r="A1" s="225"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
     </row>
     <row r="2" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3776,15 +3860,15 @@
         <v>88</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="219" t="s">
+      <c r="E35" s="227" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="218"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="218"/>
-      <c r="I35" s="218"/>
-      <c r="J35" s="218"/>
-      <c r="K35" s="218"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="226"/>
+      <c r="K35" s="226"/>
     </row>
     <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
@@ -3797,15 +3881,15 @@
         <v>88</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="219" t="s">
+      <c r="E36" s="227" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="218"/>
-      <c r="G36" s="218"/>
-      <c r="H36" s="218"/>
-      <c r="I36" s="218"/>
-      <c r="J36" s="218"/>
-      <c r="K36" s="218"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="226"/>
+      <c r="I36" s="226"/>
+      <c r="J36" s="226"/>
+      <c r="K36" s="226"/>
     </row>
     <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
@@ -3851,15 +3935,15 @@
         <v>88</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="219" t="s">
+      <c r="E38" s="227" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="218"/>
-      <c r="G38" s="218"/>
-      <c r="H38" s="218"/>
-      <c r="I38" s="218"/>
-      <c r="J38" s="218"/>
-      <c r="K38" s="218"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="226"/>
+      <c r="I38" s="226"/>
+      <c r="J38" s="226"/>
+      <c r="K38" s="226"/>
     </row>
     <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
@@ -3872,15 +3956,15 @@
         <v>88</v>
       </c>
       <c r="D39" s="56"/>
-      <c r="E39" s="220" t="s">
+      <c r="E39" s="228" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="221"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="221"/>
-      <c r="I39" s="221"/>
-      <c r="J39" s="221"/>
-      <c r="K39" s="221"/>
+      <c r="F39" s="229"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="229"/>
+      <c r="I39" s="229"/>
+      <c r="J39" s="229"/>
+      <c r="K39" s="229"/>
     </row>
     <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="63" t="s">
@@ -12734,7 +12818,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{59EA312D-A584-244C-B100-CD9E2D10ED36}">
+      <autoFilter ref="A2:K42" xr:uid="{891600F0-B872-494E-B6C0-C300C9ACE745}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12751,42 +12835,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="76" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="78" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="74" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="72" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="74" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="71" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="73" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="70" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="71" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="69" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12815,25 +12899,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="66" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="66" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12847,8 +12931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13720,7 +13804,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="173" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="173" t="s">
         <v>136</v>
@@ -13766,42 +13850,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="61" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="63" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="62" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="61" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="57" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="58" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13830,43 +13914,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="52" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="47" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="49" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="46" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="48" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="45" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="47" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="43" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="45" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13877,16 +13961,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="177"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8" style="177" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
@@ -14017,7 +14101,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="185" t="s">
         <v>133</v>
       </c>
       <c r="C4" s="95" t="s">
@@ -14055,7 +14139,6 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="177"/>
       <c r="C5" s="103" t="s">
         <v>126</v>
       </c>
@@ -14091,7 +14174,6 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="177"/>
       <c r="C6" s="107" t="s">
         <v>128</v>
       </c>
@@ -14162,7 +14244,6 @@
       <c r="M7" s="73"/>
     </row>
     <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="177"/>
       <c r="C8" s="95" t="s">
         <v>100</v>
       </c>
@@ -14196,7 +14277,6 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="177"/>
       <c r="C9" s="103" t="s">
         <v>103</v>
       </c>
@@ -14232,7 +14312,6 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="177"/>
       <c r="C10" s="107" t="s">
         <v>105</v>
       </c>
@@ -14305,7 +14384,6 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="177"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -14319,7 +14397,6 @@
       <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="177"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -14338,11 +14415,12 @@
       <c r="L13" s="35"/>
       <c r="M13" s="33"/>
     </row>
-    <row r="14" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="177"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+    <row r="14" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="216"/>
+      <c r="B14" s="216"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
       <c r="F14" s="35"/>
       <c r="G14" s="33"/>
       <c r="H14" s="182"/>
@@ -14353,104 +14431,174 @@
       <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="177"/>
-    </row>
-    <row r="16" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="177"/>
-      <c r="C16" s="126" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="96" t="s">
+      <c r="A15" s="216"/>
+      <c r="B15" s="223" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="220" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="217" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="99">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="97">
-        <v>63</v>
-      </c>
-      <c r="J16" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="128"/>
-    </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="177"/>
-      <c r="C17" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="108" t="s">
-        <v>110</v>
+    </row>
+    <row r="16" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="221" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="172" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="216"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="222" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="217" t="s">
+        <v>199</v>
       </c>
       <c r="E17" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="109" t="s">
+    </row>
+    <row r="18" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="178"/>
+      <c r="B18" s="176" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="220" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="218" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="130" t="s">
+      <c r="G21" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="109" t="s">
+      <c r="H21" s="99">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="97">
+        <v>63</v>
+      </c>
+      <c r="J21" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="128"/>
+    </row>
+    <row r="22" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="109">
+      <c r="I22" s="109">
         <v>13</v>
       </c>
-      <c r="J17" s="109" t="s">
+      <c r="J22" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="112" t="s">
+      <c r="K22" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="113" t="s">
+      <c r="L22" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="131"/>
-    </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="186" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="172" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="172" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="184">
-        <f>SUM(3 / 9)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="M22" s="131"/>
+    </row>
+    <row r="23" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="185" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="185" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="172" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="224">
+        <f>SUM(5/ 9)</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+    </row>
+    <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
+    </row>
+    <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+    </row>
+    <row r="29" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="172"/>
+      <c r="D29" s="172"/>
+    </row>
     <row r="30" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14458,53 +14606,58 @@
     <row r="34" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <conditionalFormatting sqref="D2:D17">
-    <cfRule type="endsWith" dxfId="42" priority="10" operator="endsWith" text="*">
+  <conditionalFormatting sqref="D2:D14 D19:D22">
+    <cfRule type="endsWith" dxfId="44" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E17">
-    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="Elective">
+  <conditionalFormatting sqref="E1:E22">
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E17">
-    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="pathway">
+  <conditionalFormatting sqref="E2:E22">
+    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F17">
-    <cfRule type="beginsWith" dxfId="38" priority="16" operator="beginsWith" text="R">
+  <conditionalFormatting sqref="F2:F14 F19:F22">
+    <cfRule type="beginsWith" dxfId="40" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="37" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="39" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G17">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="Essay">
+  <conditionalFormatting sqref="F2:G14 F19:G22">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:G5 L1 F16:G17">
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="1 submission">
+  <conditionalFormatting sqref="F4:G5 L1 F21:G22">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
+  <conditionalFormatting sqref="H2:H14 H19:H22">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -14516,7 +14669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I17">
+  <conditionalFormatting sqref="I2:I14 I19:I22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="9"/>
@@ -14528,100 +14681,110 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J17">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="A">
+  <conditionalFormatting sqref="J2:J14 J19:J22">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1 F5:G5">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K3">
-    <cfRule type="containsText" dxfId="27" priority="72" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(N25))))</formula>
+    <cfRule type="containsText" dxfId="29" priority="72" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K4 H4 M4 L4:L7">
-    <cfRule type="containsText" dxfId="26" priority="36" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(N34))))</formula>
+    <cfRule type="containsText" dxfId="28" priority="36" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(N39))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K7">
-    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
+    <cfRule type="containsText" dxfId="27" priority="35" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N39))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:K7">
-    <cfRule type="containsText" dxfId="24" priority="199" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
+    <cfRule type="containsText" dxfId="26" priority="199" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N38))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K10">
-    <cfRule type="containsText" dxfId="23" priority="128" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(N27))))</formula>
+    <cfRule type="containsText" dxfId="25" priority="236" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K13">
-    <cfRule type="containsText" dxfId="22" priority="212" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(N32))))</formula>
+    <cfRule type="containsText" dxfId="24" priority="212" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N37))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:K14">
-    <cfRule type="containsText" dxfId="21" priority="205" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(N34))))</formula>
+    <cfRule type="containsText" dxfId="23" priority="245" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N39))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:K15">
-    <cfRule type="containsText" dxfId="20" priority="124" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(N33))))</formula>
+  <conditionalFormatting sqref="J19:K19">
+    <cfRule type="containsText" dxfId="22" priority="128" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N40))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:K17">
-    <cfRule type="containsText" dxfId="19" priority="68" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(N30))))</formula>
+  <conditionalFormatting sqref="J20:K20">
+    <cfRule type="containsText" dxfId="21" priority="124" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:K22">
+    <cfRule type="containsText" dxfId="20" priority="68" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N35))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="18" priority="201" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
+    <cfRule type="containsText" dxfId="19" priority="201" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R38))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L10">
-    <cfRule type="containsText" dxfId="17" priority="130" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R27))))</formula>
+    <cfRule type="containsText" dxfId="18" priority="238" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L13">
-    <cfRule type="containsText" dxfId="16" priority="214" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R32))))</formula>
+    <cfRule type="containsText" dxfId="17" priority="214" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R37))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="15" priority="207" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R34))))</formula>
+    <cfRule type="containsText" dxfId="16" priority="247" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R39))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="14" priority="126" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R33))))</formula>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="containsText" dxfId="15" priority="130" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R40))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16:L17">
+  <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="14" priority="126" operator="containsText" text="1 submission">
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:L22">
     <cfRule type="containsText" dxfId="13" priority="70" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R30))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R35))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2 L2:L3">
     <cfRule type="containsText" dxfId="12" priority="73" operator="containsText" text="1 submission">
-      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R25))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("1 submission"),(R30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14636,876 +14799,876 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+    <sheetView topLeftCell="B18" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="185" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="185"/>
-    <col min="3" max="3" width="11.6640625" style="187" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.1640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="185"/>
-    <col min="9" max="9" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.83203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="185"/>
+    <col min="1" max="1" width="17" style="184" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="184"/>
+    <col min="3" max="3" width="11.6640625" style="186" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="184" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.1640625" style="184" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="184" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="184"/>
+    <col min="9" max="9" width="11.6640625" style="184" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="184" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="184" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.83203125" style="184" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="184"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="184" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="184" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="186" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="184" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="184" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="187" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="185" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="185" t="s">
+      <c r="G1" s="184" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="184" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="184" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="186" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="184" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="187">
+        <v>5</v>
+      </c>
+      <c r="J2" s="191">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="187" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="188" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="187" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="191">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="187" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="188" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="184">
+        <v>4</v>
+      </c>
+      <c r="I3" s="184">
+        <v>11</v>
+      </c>
+      <c r="J3" s="186">
+        <v>0.45</v>
+      </c>
+      <c r="K3" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="189" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="187"/>
+      <c r="I4" s="184">
+        <v>4</v>
+      </c>
+      <c r="J4" s="186">
+        <v>0.4</v>
+      </c>
+      <c r="K4" s="184" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="189" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="187" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="191">
+        <v>0.17</v>
+      </c>
+      <c r="D5" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="188" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="184">
+        <v>4</v>
+      </c>
+      <c r="I5" s="184">
+        <v>9</v>
+      </c>
+      <c r="J5" s="186">
+        <v>0.33</v>
+      </c>
+      <c r="K5" s="184" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="189" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="187"/>
+      <c r="B6" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="191">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="188" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="184">
+        <v>4</v>
+      </c>
+      <c r="I6" s="184">
+        <v>13</v>
+      </c>
+      <c r="J6" s="186">
+        <v>0.31</v>
+      </c>
+      <c r="K6" s="184" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="190" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="187"/>
+      <c r="I7" s="184">
+        <v>10</v>
+      </c>
+      <c r="J7" s="186">
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="184" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="189" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="187" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="191">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="188" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="184">
+        <v>4</v>
+      </c>
+      <c r="I8" s="184">
+        <v>12</v>
+      </c>
+      <c r="J8" s="186">
+        <v>0.3</v>
+      </c>
+      <c r="K8" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="189" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="187"/>
+      <c r="B9" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="191">
+        <v>0.35</v>
+      </c>
+      <c r="D9" s="187" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="188" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="184">
+        <v>4</v>
+      </c>
+      <c r="I9" s="184">
+        <v>6</v>
+      </c>
+      <c r="J9" s="186">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="184" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="189" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="187"/>
+      <c r="I10" s="184">
+        <v>3</v>
+      </c>
+      <c r="J10" s="186">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K10" s="184" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="189" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="187" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="191">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="187" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="188" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="184">
+        <v>4</v>
+      </c>
+      <c r="I11" s="184">
+        <v>7</v>
+      </c>
+      <c r="J11" s="186">
+        <v>0.25</v>
+      </c>
+      <c r="K11" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="189" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="187"/>
+      <c r="B12" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="191">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="187" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="188" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="184">
+        <v>4</v>
+      </c>
+      <c r="I12" s="184">
+        <v>8</v>
+      </c>
+      <c r="J12" s="186">
+        <v>0.22</v>
+      </c>
+      <c r="K12" s="184" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="189" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="187"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="187" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="191">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="187" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="187"/>
+      <c r="B15" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="191">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="187" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="188" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="184" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="184">
+        <v>4</v>
+      </c>
+      <c r="I15" s="184" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="185" t="s">
+    </row>
+    <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="187"/>
+      <c r="B16" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="191">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="187" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="188" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="187"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="187" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="187" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="191">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="187" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="188" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="184">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="187"/>
+      <c r="B19" s="187" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="191">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="211" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="184">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="207" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="207" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="208"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="184" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="191">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="188" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="191">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="211" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="188" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="213">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="215" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="214" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="197"/>
+      <c r="E26" s="189"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="184" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="184" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="185" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="185" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="187" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="185" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I2" s="188">
-        <v>5</v>
-      </c>
-      <c r="J2" s="192">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="188" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="189" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="188" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="192">
-        <v>0.16</v>
-      </c>
-      <c r="D3" s="188" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="189" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="185" t="s">
+      <c r="C27" s="186">
+        <v>0.33</v>
+      </c>
+      <c r="D27" s="184" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="189" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="185">
-        <v>4</v>
-      </c>
-      <c r="I3" s="185">
-        <v>11</v>
-      </c>
-      <c r="J3" s="187">
+    </row>
+    <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="186">
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="184" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="186">
+        <v>0.22</v>
+      </c>
+      <c r="D29" s="184" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="189" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="210"/>
+      <c r="I29" s="184" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="187"/>
+      <c r="I30" s="184" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="184" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D31" s="193" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="196" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="193"/>
+      <c r="I31" s="184" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="186">
         <v>0.45</v>
       </c>
-      <c r="K3" s="185" t="s">
+      <c r="D32" s="184" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="190" t="s">
+      <c r="E32" s="189" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="188"/>
-      <c r="I4" s="185">
-        <v>4</v>
-      </c>
-      <c r="J4" s="187">
-        <v>0.4</v>
-      </c>
-      <c r="K4" s="185" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="190" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="188" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="192">
-        <v>0.17</v>
-      </c>
-      <c r="D5" s="188" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="189" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="185" t="s">
+      <c r="F32" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="185">
-        <v>4</v>
-      </c>
-      <c r="I5" s="185">
-        <v>9</v>
-      </c>
-      <c r="J5" s="187">
-        <v>0.33</v>
-      </c>
-      <c r="K5" s="185" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="190" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="188"/>
-      <c r="B6" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="192">
+    </row>
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="193" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="195" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D34" s="193" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="195" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="184" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="184" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="186">
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="189" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="184" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="193" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="194" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="193" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="194" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D39" s="193" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="194" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="184" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="186">
+        <v>0.31</v>
+      </c>
+      <c r="D41" s="184" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="190" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="186">
+        <v>0.25</v>
+      </c>
+      <c r="D42" s="184" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="184" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="186">
+        <v>0.25</v>
+      </c>
+      <c r="D43" s="184" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="212" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="192">
         <v>0.1</v>
       </c>
-      <c r="D6" s="188" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="189" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="185">
-        <v>4</v>
-      </c>
-      <c r="I6" s="185">
-        <v>13</v>
-      </c>
-      <c r="J6" s="187">
-        <v>0.31</v>
-      </c>
-      <c r="K6" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="191" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="188"/>
-      <c r="I7" s="185">
-        <v>10</v>
-      </c>
-      <c r="J7" s="187">
-        <v>0.3</v>
-      </c>
-      <c r="K7" s="185" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="190" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="188" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="192">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="189" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="185">
-        <v>4</v>
-      </c>
-      <c r="I8" s="185">
-        <v>12</v>
-      </c>
-      <c r="J8" s="187">
-        <v>0.3</v>
-      </c>
-      <c r="K8" s="185" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="190" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="188"/>
-      <c r="B9" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="192">
-        <v>0.35</v>
-      </c>
-      <c r="D9" s="188" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="189" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="185">
-        <v>4</v>
-      </c>
-      <c r="I9" s="185">
-        <v>6</v>
-      </c>
-      <c r="J9" s="187">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="185" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="190" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="188"/>
-      <c r="I10" s="185">
-        <v>3</v>
-      </c>
-      <c r="J10" s="187">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K10" s="185" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="190" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="188" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="192">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D11" s="188" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="185">
-        <v>4</v>
-      </c>
-      <c r="I11" s="185">
-        <v>7</v>
-      </c>
-      <c r="J11" s="187">
-        <v>0.25</v>
-      </c>
-      <c r="K11" s="185" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="190" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="188"/>
-      <c r="B12" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="192">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="188" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="189" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="185">
-        <v>4</v>
-      </c>
-      <c r="I12" s="185">
-        <v>8</v>
-      </c>
-      <c r="J12" s="187">
-        <v>0.22</v>
-      </c>
-      <c r="K12" s="185" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="190" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="188"/>
-    </row>
-    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="188" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="192">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="188" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="210" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="185">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="188"/>
-      <c r="B15" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="192">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="188" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="189" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="185" t="s">
+      <c r="D44" s="193" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="184" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="185">
-        <v>4</v>
-      </c>
-      <c r="I15" s="185" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="188"/>
-      <c r="B16" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="192">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="188" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="189" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="185">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="188"/>
-    </row>
-    <row r="18" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="188" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="188" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="192">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="188" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="189" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="185">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="188"/>
-      <c r="B19" s="188" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="192">
-        <v>0.2</v>
-      </c>
-      <c r="D19" s="212" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="189" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" s="185">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="208" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="208" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="209"/>
-    </row>
-    <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="185" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="192">
-        <v>0.2</v>
-      </c>
-      <c r="D23" s="212" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="189" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G23" s="185">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="192">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="212" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="189" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="185">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="185" t="s">
+    </row>
+    <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="214">
-        <v>0.2</v>
-      </c>
-      <c r="D25" s="216" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="215" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="198"/>
-      <c r="E26" s="190"/>
-    </row>
-    <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="185" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="187">
-        <v>0.33</v>
-      </c>
-      <c r="D27" s="185" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="190" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="185" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="187">
-        <v>0.3</v>
-      </c>
-      <c r="D28" s="185" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="190" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="187">
-        <v>0.22</v>
-      </c>
-      <c r="D29" s="185" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="190" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="211"/>
-      <c r="I29" s="185" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H30" s="188"/>
-      <c r="I30" s="185" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="185" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D31" s="194" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="197" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="194"/>
-      <c r="I31" s="185" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="185" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="187">
-        <v>0.45</v>
-      </c>
-      <c r="D32" s="185" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D33" s="194" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D34" s="194" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="196" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="185" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" s="185" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="187">
-        <v>0.3</v>
-      </c>
-      <c r="D36" s="185" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="190" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="185" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D37" s="194" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="195" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D38" s="194" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="195" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D39" s="194" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="195" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="185" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="187">
-        <v>0.31</v>
-      </c>
-      <c r="D41" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="191" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="185" t="s">
+      <c r="C45" s="184" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="184" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="184" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="B42" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="187">
-        <v>0.25</v>
-      </c>
-      <c r="D42" s="185" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="185" t="s">
-        <v>183</v>
-      </c>
-      <c r="F42" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="187">
-        <v>0.25</v>
-      </c>
-      <c r="D43" s="185" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="213" t="s">
-        <v>182</v>
-      </c>
-      <c r="F43" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="193">
-        <v>0.1</v>
-      </c>
-      <c r="D44" s="194" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="195" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="185" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" s="185" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="198"/>
-      <c r="E46" s="191"/>
+      <c r="C46" s="197"/>
+      <c r="E46" s="190"/>
     </row>
     <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="198"/>
-      <c r="E47" s="191"/>
+      <c r="C47" s="197"/>
+      <c r="E47" s="190"/>
     </row>
     <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G48" s="185">
+      <c r="G48" s="184">
         <f>SUM(G3:G45)</f>
         <v>54.400000000000006</v>
       </c>
     </row>
     <row r="49" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G49" s="185">
+      <c r="G49" s="184">
         <f>SUM(54.4/14)</f>
         <v>3.8857142857142857</v>
       </c>
@@ -15547,774 +15710,774 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="185" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="185"/>
-    <col min="3" max="3" width="11.6640625" style="187" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.1640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="185" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="185"/>
-    <col min="10" max="10" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.83203125" style="185" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="185"/>
+    <col min="1" max="1" width="17" style="184" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="184"/>
+    <col min="3" max="3" width="11.6640625" style="186" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="184" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.1640625" style="184" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="184" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="184" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="184"/>
+    <col min="10" max="10" width="11.6640625" style="184" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="184" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="184" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.83203125" style="184" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="184"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="199" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="199" t="s">
+    <row r="1" spans="1:13" s="198" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="198" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="199" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="198" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="200" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="199" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="199" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="199" t="s">
+      <c r="H1" s="198" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="198" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="199" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="198" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="184">
+        <v>1</v>
+      </c>
+      <c r="K2" s="186">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="189" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="184" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="191">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="187" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="188" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="184">
+        <v>5</v>
+      </c>
+      <c r="K3" s="186">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="189" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="184">
+        <v>11</v>
+      </c>
+      <c r="K4" s="186">
+        <v>0.45</v>
+      </c>
+      <c r="L4" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="189" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="191">
+        <v>0.17</v>
+      </c>
+      <c r="D5" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="188" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="184">
+        <v>34</v>
+      </c>
+      <c r="J5" s="184">
+        <v>4</v>
+      </c>
+      <c r="K5" s="186">
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="184" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="189" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="191">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="188" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="184">
+        <v>38</v>
+      </c>
+      <c r="J6" s="184">
+        <v>2</v>
+      </c>
+      <c r="K6" s="186">
+        <v>0.35</v>
+      </c>
+      <c r="L6" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="189" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="184">
+        <v>9</v>
+      </c>
+      <c r="K7" s="186">
+        <v>0.33</v>
+      </c>
+      <c r="L7" s="184" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="189" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="184" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="191">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="188" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="184" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="184">
+        <v>13</v>
+      </c>
+      <c r="K8" s="186">
+        <v>0.31</v>
+      </c>
+      <c r="L8" s="184" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="190" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="191">
+        <v>0.35</v>
+      </c>
+      <c r="D9" s="187" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="188" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="184">
+        <v>10</v>
+      </c>
+      <c r="K9" s="186">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="184" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="189" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="191">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D10" s="187" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="188" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="184">
+        <v>12</v>
+      </c>
+      <c r="K10" s="186">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="189" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="189"/>
+      <c r="K11" s="186"/>
+      <c r="M11" s="189"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="184" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="187" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="191">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="187" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="188" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="184">
+        <v>6</v>
+      </c>
+      <c r="K12" s="186">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="184" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="189" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="187" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="191">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="187" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="188" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="184">
+        <v>3</v>
+      </c>
+      <c r="K13" s="186">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L13" s="184" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="189" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="193" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="195" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="184">
+        <v>7</v>
+      </c>
+      <c r="K14" s="186">
+        <v>0.25</v>
+      </c>
+      <c r="L14" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="189" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="197"/>
+      <c r="E15" s="189"/>
+      <c r="K15" s="197"/>
+      <c r="M15" s="189"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="184" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="199" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="199" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" s="199" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="200" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="199" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J2" s="185">
-        <v>1</v>
-      </c>
-      <c r="K2" s="187">
+      <c r="C16" s="191">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="187" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="188" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" s="184">
+        <v>8</v>
+      </c>
+      <c r="K16" s="186">
+        <v>0.22</v>
+      </c>
+      <c r="L16" s="184" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="189" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="186">
+        <v>0.22</v>
+      </c>
+      <c r="D17" s="184" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="189" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="184"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="184" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="187" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="191">
         <v>0.5</v>
       </c>
-      <c r="L2" s="185" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="190" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="185" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="188" t="s">
+      <c r="D19" s="187" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="188" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="187" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="191">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="187" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="188" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="184"/>
+    </row>
+    <row r="22" spans="1:7" s="201" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="200" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="202"/>
+    </row>
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="198"/>
+      <c r="C23" s="197"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="184" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="186">
+        <v>0.33</v>
+      </c>
+      <c r="D24" s="184" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="189" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="186">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="184" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="186">
+        <v>0.45</v>
+      </c>
+      <c r="D26" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="189" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="184" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="192">
-        <v>0.16</v>
-      </c>
-      <c r="D3" s="188" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="185" t="s">
+      <c r="C28" s="191">
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="211" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="184" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="185">
-        <v>5</v>
-      </c>
-      <c r="K3" s="187">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="185" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" s="190" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J4" s="185">
-        <v>11</v>
-      </c>
-      <c r="K4" s="187">
-        <v>0.45</v>
-      </c>
-      <c r="L4" s="185" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="190" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="185" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="188" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="192">
-        <v>0.17</v>
-      </c>
-      <c r="D5" s="188" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="185" t="s">
+      <c r="C29" s="191">
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="188" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="185">
-        <v>34</v>
-      </c>
-      <c r="J5" s="185">
-        <v>4</v>
-      </c>
-      <c r="K5" s="187">
-        <v>0.4</v>
-      </c>
-      <c r="L5" s="185" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="190" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="188" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="192">
+      <c r="C30" s="191">
         <v>0.1</v>
       </c>
-      <c r="D6" s="188" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="189" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="185" t="s">
+      <c r="D30" s="211" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="188" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="H6" s="185">
-        <v>38</v>
-      </c>
-      <c r="J6" s="185">
-        <v>2</v>
-      </c>
-      <c r="K6" s="187">
-        <v>0.35</v>
-      </c>
-      <c r="L6" s="185" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="190" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J7" s="185">
-        <v>9</v>
-      </c>
-      <c r="K7" s="187">
-        <v>0.33</v>
-      </c>
-      <c r="L7" s="185" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="190" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="185" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="188" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="184" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="193" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="196" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="193" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="195" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D34" s="193" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="195" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="184" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="184" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="186">
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="189" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="193" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="194" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="193" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="194" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D39" s="193" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="194" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="184" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="184" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="186">
+        <v>0.31</v>
+      </c>
+      <c r="D41" s="184" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="190" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="192">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="193" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="192">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="189" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="185" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="J8" s="185">
-        <v>13</v>
-      </c>
-      <c r="K8" s="187">
-        <v>0.31</v>
-      </c>
-      <c r="L8" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" s="191" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="192">
-        <v>0.35</v>
-      </c>
-      <c r="D9" s="188" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="189" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="185">
-        <v>10</v>
-      </c>
-      <c r="K9" s="187">
-        <v>0.3</v>
-      </c>
-      <c r="L9" s="185" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="190" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="192">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D10" s="188" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="J10" s="185">
-        <v>12</v>
-      </c>
-      <c r="K10" s="187">
-        <v>0.3</v>
-      </c>
-      <c r="L10" s="185" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="190" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="190"/>
-      <c r="K11" s="187"/>
-      <c r="M11" s="190"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="185" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="188" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="192">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="188" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="189" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="185">
-        <v>6</v>
-      </c>
-      <c r="K12" s="187">
-        <v>0.3</v>
-      </c>
-      <c r="L12" s="185" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="190" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="188" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="192">
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="188" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="189" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="185">
-        <v>3</v>
-      </c>
-      <c r="K13" s="187">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L13" s="185" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="190" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="193">
+      <c r="C44" s="191">
         <v>0.2</v>
       </c>
-      <c r="D14" s="194" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="196" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="J14" s="185">
-        <v>7</v>
-      </c>
-      <c r="K14" s="187">
-        <v>0.25</v>
-      </c>
-      <c r="L14" s="185" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="190" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="198"/>
-      <c r="E15" s="190"/>
-      <c r="K15" s="198"/>
-      <c r="M15" s="190"/>
-    </row>
-    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="185" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="188" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="192">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="188" t="s">
+      <c r="D44" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="189" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="J16" s="185">
-        <v>8</v>
-      </c>
-      <c r="K16" s="187">
-        <v>0.22</v>
-      </c>
-      <c r="L16" s="185" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="190" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="187">
-        <v>0.22</v>
-      </c>
-      <c r="D17" s="185" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="190" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="185"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="185" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="188" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="192">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="188" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="189" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="188" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="192">
-        <v>0.3</v>
-      </c>
-      <c r="D20" s="188" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="189" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="185"/>
-    </row>
-    <row r="22" spans="1:7" s="202" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="201" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="203"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="199"/>
-      <c r="C23" s="198"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="185" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="187">
-        <v>0.33</v>
-      </c>
-      <c r="D24" s="185" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="190" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="187">
-        <v>0.3</v>
-      </c>
-      <c r="D25" s="185" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="190" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="187">
-        <v>0.45</v>
-      </c>
-      <c r="D26" s="185" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="185" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="192">
-        <v>0.2</v>
-      </c>
-      <c r="D28" s="212" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="189" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="185" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="192">
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="212" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="189" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="192">
-        <v>0.1</v>
-      </c>
-      <c r="D30" s="212" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="189" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="185" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D32" s="194" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="197" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D33" s="194" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D34" s="194" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="196" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="185" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" s="185" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="187">
-        <v>0.3</v>
-      </c>
-      <c r="D36" s="185" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="190" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D37" s="194" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="195" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D38" s="194" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="195" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="193">
-        <v>0.2</v>
-      </c>
-      <c r="D39" s="194" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="195" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="185" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="185" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="187">
-        <v>0.31</v>
-      </c>
-      <c r="D41" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="191" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="193">
-        <v>0.1</v>
-      </c>
-      <c r="D42" s="194" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="195" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="192">
-        <v>0.2</v>
-      </c>
-      <c r="D44" s="188" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="210" t="s">
+      <c r="E44" s="209" t="s">
         <v>82</v>
       </c>
     </row>
@@ -16378,28 +16541,28 @@
     <col min="2" max="2" width="90.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="204" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="206" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="207" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="204" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="203" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="205" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="206" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="203" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="173">
         <v>5303</v>
       </c>
-      <c r="B2" s="205" t="s">
-        <v>175</v>
+      <c r="B2" s="204" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="173">
         <v>5304</v>
       </c>
-      <c r="B3" s="205" t="s">
-        <v>173</v>
+      <c r="B3" s="204" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
+++ b/Resources/University of Colorado Boulder/Final Assignments by Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantalbot/Desktop/MSDS/Resources/University of Colorado Boulder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A1610E-597E-3341-98C2-5007D95FE04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D05EE9-83FD-C240-B3B2-67BD722F3B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="26580" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="500" windowWidth="23240" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="202">
   <si>
     <t>Course Code</t>
   </si>
@@ -664,7 +664,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -800,6 +800,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1238,12 +1246,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1766,13 +1775,51 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -12818,7 +12865,7 @@
   <customSheetViews>
     <customSheetView guid="{41F2DEF0-0911-45DF-AB18-151E8967207B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:K42" xr:uid="{891600F0-B872-494E-B6C0-C300C9ACE745}">
+      <autoFilter ref="A2:K42" xr:uid="{32927876-DD4C-8241-88EB-90ABF54E7A00}">
         <filterColumn colId="2">
           <filters>
             <filter val="Elective"/>
@@ -12835,42 +12882,42 @@
     <mergeCell ref="E39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B42">
-    <cfRule type="endsWith" dxfId="78" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="82" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((B3),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1012">
-    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C42">
-    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="80" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(C3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D42">
-    <cfRule type="beginsWith" dxfId="74" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="78" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((D3),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="73" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="77" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((D3),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E42 G36">
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="76" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="75" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="74" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(D3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="73" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12899,25 +12946,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H37 H40:H42">
-    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="72" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(H3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34 H40:H42 H37">
-    <cfRule type="containsText" dxfId="66" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="70" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I34 D26:E26 D35 H37:I37 H40:I1012 D41:E41">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I23 D26:F26 H26:I26 D35 H40:I40 D40:E41 J1:J34 D22:F23 K22:K24 K26 D32:E33 J37 F40 K40 J40:J1012">
-    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="68" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12931,7 +12978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4DE7E-50A7-8444-BE03-F2EC1C089E28}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -13850,42 +13897,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D22">
-    <cfRule type="endsWith" dxfId="63" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="67" priority="10" operator="endsWith" text="*">
       <formula>RIGHT((D2),LEN("*"))=("*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22">
-    <cfRule type="containsText" dxfId="62" priority="15" operator="containsText" text="Elective">
+    <cfRule type="containsText" dxfId="66" priority="15" operator="containsText" text="Elective">
       <formula>NOT(ISERROR(SEARCH(("Elective"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="containsText" dxfId="61" priority="8" operator="containsText" text="pathway">
+    <cfRule type="containsText" dxfId="65" priority="8" operator="containsText" text="pathway">
       <formula>NOT(ISERROR(SEARCH(("pathway"),(E2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="Core">
+    <cfRule type="containsText" dxfId="64" priority="9" operator="containsText" text="Core">
       <formula>NOT(ISERROR(SEARCH(("Core"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="63" priority="16" operator="beginsWith" text="R">
       <formula>LEFT((F2),LEN("R"))=("R")</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="17" operator="beginsWith" text="Python">
+    <cfRule type="beginsWith" dxfId="62" priority="17" operator="beginsWith" text="Python">
       <formula>LEFT((F2),LEN("Python"))=("Python")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G22">
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Essay">
+    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="Essay">
       <formula>NOT(ISERROR(SEARCH(("Essay"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="60" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH(("Project"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Exam">
+    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="Exam">
       <formula>NOT(ISERROR(SEARCH(("Exam"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Programming">
+    <cfRule type="containsText" dxfId="58" priority="6" operator="containsText" text="Programming">
       <formula>NOT(ISERROR(SEARCH(("Programming"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13914,43 +13961,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="12" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(J2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="55" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH(("I"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K11">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K16">
-    <cfRule type="containsText" dxfId="49" priority="166" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="53" priority="166" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K16 H15:H16 L12:L16 M15:M16">
-    <cfRule type="containsText" dxfId="48" priority="167" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="52" priority="167" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(N18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K22">
-    <cfRule type="containsText" dxfId="47" priority="162" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="51" priority="162" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(N12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L11 F15:G16">
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(L1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L22">
-    <cfRule type="containsText" dxfId="45" priority="164" operator="containsText" text="1 submission">
+    <cfRule type="containsText" dxfId="49" priority="164" operator="containsText" text="1 submission">
       <formula>NOT(ISERROR(SEARCH(("1 submission"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13961,10 +14008,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FBE34-1CC7-C24F-8FA9-E46C8B7D73A6}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14243,184 +14290,192 @@
       </c>
       <c r="M7" s="73"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="95" t="s">
+    <row r="8" spans="1:13" s="231" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="230"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="232" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="98"/>
+    </row>
+    <row r="9" spans="1:13" s="231" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="230"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="232" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="97"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="98"/>
+    </row>
+    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D10" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E10" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F10" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="115" t="s">
+      <c r="G10" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H10" s="99">
         <v>0.2</v>
       </c>
-      <c r="I8" s="97">
+      <c r="I10" s="97">
         <v>18</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J10" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117" t="s">
+      <c r="K10" s="116"/>
+      <c r="L10" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="118" t="s">
+      <c r="M10" s="118" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="103" t="s">
+    <row r="11" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G11" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H11" s="10">
         <v>0.2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I11" s="8">
         <v>9</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="104" t="s">
+      <c r="K11" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="120" t="s">
+      <c r="L11" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="121" t="s">
+      <c r="M11" s="121" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="107" t="s">
+    <row r="12" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D12" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E12" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F12" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="122" t="s">
+      <c r="G12" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="123">
+      <c r="H12" s="123">
         <v>0.2</v>
       </c>
-      <c r="I10" s="109">
+      <c r="I12" s="109">
         <v>17</v>
       </c>
-      <c r="J10" s="109" t="s">
+      <c r="J12" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="112" t="s">
+      <c r="K12" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="124" t="s">
+      <c r="L12" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="125" t="s">
+      <c r="M12" s="125" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="178"/>
-      <c r="B11" s="178"/>
-      <c r="C11" s="78" t="s">
+    <row r="13" spans="1:13" s="77" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="178"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D13" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E13" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F13" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="G13" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H13" s="83">
         <v>0.1</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I13" s="84">
         <v>18</v>
       </c>
-      <c r="J11" s="85" t="s">
+      <c r="J13" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K13" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="87" t="s">
+      <c r="L13" s="87" t="s">
